--- a/Programação em microinformatica/Aula ILM-2-2024.xlsx
+++ b/Programação em microinformatica/Aula ILM-2-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Documentos\ILM-2-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\FATEC---Aulas\Programação em microinformatica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608158B-5DC5-45C9-BC06-20FDC325673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A549964-A0CD-49C3-9D3B-51F390C26656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{638BBB0D-7911-4F79-9DFF-80DA470C685B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{638BBB0D-7911-4F79-9DFF-80DA470C685B}"/>
   </bookViews>
   <sheets>
     <sheet name="FLuxo de caixa" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,17 @@
     <sheet name="CPF" sheetId="4" r:id="rId5"/>
     <sheet name="Tbl_Clientes" sheetId="5" r:id="rId6"/>
     <sheet name="Produtos" sheetId="6" r:id="rId7"/>
-    <sheet name="Planilha2" sheetId="9" r:id="rId8"/>
-    <sheet name="Resultado" sheetId="7" r:id="rId9"/>
+    <sheet name="Lista" sheetId="7" r:id="rId8"/>
+    <sheet name="Investimento" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Classificação" comment="Clas">Resultado!$B$9:$B$15</definedName>
-    <definedName name="sexo">Resultado!$B$4:$B$5</definedName>
+    <definedName name="Classificação" comment="Clas">Lista!$B$9:$B$15</definedName>
+    <definedName name="sexo">Lista!$B$4:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="39" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,8 +50,105 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="7">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="7">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>Receitas</t>
   </si>
@@ -194,9 +294,6 @@
     <t>Novembro</t>
   </si>
   <si>
-    <t>Primeira aula</t>
-  </si>
-  <si>
     <t>Matrícula</t>
   </si>
   <si>
@@ -224,39 +321,18 @@
     <t>Média</t>
   </si>
   <si>
-    <t>Feriados</t>
-  </si>
-  <si>
     <t>Ana</t>
   </si>
   <si>
-    <t>Independência do Brasil</t>
-  </si>
-  <si>
     <t>João</t>
   </si>
   <si>
-    <t>N. Sra. Do Monte Serrat</t>
-  </si>
-  <si>
     <t>José</t>
   </si>
   <si>
-    <t>N. Sra. Aparecida</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
-    <t>Dia de Finados</t>
-  </si>
-  <si>
-    <t>Proclamação da República</t>
-  </si>
-  <si>
-    <t>Dia da Consciência Negra</t>
-  </si>
-  <si>
     <t>ILM - NOITE</t>
   </si>
   <si>
@@ -411,17 +487,99 @@
   </si>
   <si>
     <t>35975391814</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>RAZÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>TICKER</t>
+  </si>
+  <si>
+    <t>PREÇO</t>
+  </si>
+  <si>
+    <t>COTAS</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>AÇÃO</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>BRCR11</t>
+  </si>
+  <si>
+    <t>CNES11</t>
+  </si>
+  <si>
+    <t>DEVA11</t>
+  </si>
+  <si>
+    <t>KISU11</t>
+  </si>
+  <si>
+    <t>MXRF11</t>
+  </si>
+  <si>
+    <t>Soma de VALOR</t>
+  </si>
+  <si>
+    <t>Soma de COTAS</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>CDB</t>
+  </si>
+  <si>
+    <t>TESOURO DIRETO</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>LCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -721,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,12 +993,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="53">
     <dxf>
       <font>
         <b/>
@@ -873,6 +1040,93 @@
       <font>
         <color rgb="FFC00000"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
@@ -1083,20 +1337,1454 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45600.751915624998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:G9" sheet="Investimento"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="TIPO" numFmtId="0">
+      <sharedItems count="2">
+        <s v="AÇÃO"/>
+        <s v="FI"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RAZÃO SOCIAL" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)"/>
+        <s v="MAXI RENDA FII ETF (BVMF:MXRF11)"/>
+        <s v="KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)"/>
+        <s v="FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)"/>
+        <s v="DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)"/>
+        <s v="Banco do Brasil S.A. (BVMF:BBAS3)"/>
+        <s v="FDO INV IMOB FII CENESP CF (BVMF:CNES11)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TICKER" numFmtId="0">
+      <sharedItems count="7">
+        <s v="USIM5"/>
+        <s v="MXRF11"/>
+        <s v="KISU11"/>
+        <s v="BRCR11"/>
+        <s v="DEVA11"/>
+        <s v="BBAS3"/>
+        <s v="CNES11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PREÇO" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3" maxValue="43.18"/>
+    </cacheField>
+    <cacheField name="COTAS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="115"/>
+    </cacheField>
+    <cacheField name="VALOR" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="852.83999999999992"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+    <ext xmlns:xxpvi="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotVersionInfo" uri="{9F748A41-CAEA-4470-BF7A-CE61E8FFA7F9}">
+      <xxpvi:cacheVersionInfo>
+        <xxpvi:lastRefreshFeature>RichData</xxpvi:lastRefreshFeature>
+      </xxpvi:cacheVersionInfo>
+    </ext>
+    <ext xmlns:xprd="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotRichData" uri="{2C874A73-7782-4A18-856F-96AC7E287872}">
+      <xprd:richInfo pivotCacheGuid="{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}" pivotIgnoreInvalidCache="1" r:id="rId1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/richPivotRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.56"/>
+    <n v="115"/>
+    <n v="754.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9.27"/>
+    <n v="92"/>
+    <n v="852.83999999999992"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.37"/>
+    <n v="54"/>
+    <n v="397.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="43.18"/>
+    <n v="4"/>
+    <n v="172.72"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="32.64"/>
+    <n v="2"/>
+    <n v="65.28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="26.21"/>
+    <n v="1"/>
+    <n v="26.21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="1.3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5F8DF67-3B4B-45AF-A3A4-D03346FA002A}" name="Tabela dinâmica3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:K12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de VALOR" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de COTAS" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+    <ext xmlns:xxpvi="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotVersionInfo" uri="{9F748A41-CAEA-4470-BF7A-CE61E8FFA7F9}">
+      <xxpvi:pivotVersionInfo>
+        <xxpvi:lastUpdateFeature>RichData</xxpvi:lastUpdateFeature>
+      </xxpvi:pivotVersionInfo>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="8">
+    <v t="r">22</v>
+    <v t="r">24</v>
+    <v t="r">26</v>
+    <v t="r">28</v>
+    <v t="r">30</v>
+    <v t="r">32</v>
+    <v t="r">34</v>
+    <v t="i">1</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="37">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apnjh7&amp;q=BVMF%3aUSIM5&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnjh7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>10.89</v>
+    <v>5.42</v>
+    <v>BVMF</v>
+    <v>1253079000</v>
+    <v>6.63</v>
+    <v>1954</v>
+    <v>6.37</v>
+    <v>1.1356999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7750435000</v>
+    <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
+    <v>BVMF</v>
+    <v>6.32</v>
+    <v>51182</v>
+    <v>45600.895740740743</v>
+    <v>0</v>
+    <v>15586120</v>
+    <v>BRL</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
+    <v>6.4</v>
+    <v>6.56</v>
+    <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>USIM5</v>
+    <v>Ações</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>0.24</v>
+    <v>3.7975000000000002E-2</v>
+    <v>11035200</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apn14c&amp;q=BVMF%3aMXRF11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apn14c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>10.02</v>
+    <v>9.19</v>
+    <v>BVMF</v>
+    <v>9.4700000000000006</v>
+    <v>9.19</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>9.42</v>
+    <v>45600.880311596877</v>
+    <v>3</v>
+    <v>BRL</v>
+    <v>MAXI RENDA FII ETF</v>
+    <v>9.44</v>
+    <v>9.27</v>
+    <v>MXRF11</v>
+    <v>Fundos mais negociados</v>
+    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>-0.15</v>
+    <v>-1.5924000000000001E-2</v>
+    <v>4267846</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bxe577&amp;q=BVMF%3aKISU11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bxe577</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>8.27</v>
+    <v>7.16</v>
+    <v>BVMF</v>
+    <v>7.43</v>
+    <v>7.31</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7.37</v>
+    <v>45600.878472800781</v>
+    <v>6</v>
+    <v>BRL</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
+    <v>7.35</v>
+    <v>7.43</v>
+    <v>KISU11</v>
+    <v>Fundos mais negociados</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>0.06</v>
+    <v>8.1410000000000007E-3</v>
+    <v>78743</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apm3rw&amp;q=BVMF%3aBRCR11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apm3rw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>56.76</v>
+    <v>43.02</v>
+    <v>BVMF</v>
+    <v>43.75</v>
+    <v>43.1</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>43.61</v>
+    <v>45600.892418981479</v>
+    <v>9</v>
+    <v>BRL</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
+    <v>43.61</v>
+    <v>43.17</v>
+    <v>BRCR11</v>
+    <v>Fundos mais negociados</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>-0.44</v>
+    <v>-1.0088999999999999E-2</v>
+    <v>50160</v>
+  </rv>
+  <rv s="2">
+    <v>10</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bwwglh&amp;q=BVMF%3aDEVA11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bwwglh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>46.43</v>
+    <v>32.5</v>
+    <v>BVMF</v>
+    <v>32.99</v>
+    <v>32.5</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>32.65</v>
+    <v>45600.879166921091</v>
+    <v>12</v>
+    <v>BRL</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
+    <v>32.6</v>
+    <v>32.659999999999997</v>
+    <v>DEVA11</v>
+    <v>Fundos mais negociados</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>0.01</v>
+    <v>3.0630000000000002E-4</v>
+    <v>19731</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=aplygh&amp;q=BVMF%3aBBAS3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>aplygh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>29.1</v>
+    <v>22.49</v>
+    <v>BVMF</v>
+    <v>5730834000</v>
+    <v>26.42</v>
+    <v>1808</v>
+    <v>26.15</v>
+    <v>1.0382</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>150377084160</v>
+    <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
+    <v>BVMF</v>
+    <v>26.09</v>
+    <v>85953</v>
+    <v>45600.880289178123</v>
+    <v>15</v>
+    <v>15328950</v>
+    <v>BRL</v>
+    <v>Banco do Brasil S.A.</v>
+    <v>Banco do Brasil S.A.</v>
+    <v>26.27</v>
+    <v>26.24</v>
+    <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
+    <v>Banking Services</v>
+    <v>BBAS3</v>
+    <v>Ações</v>
+    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
+    <v>0.15</v>
+    <v>5.7489999999999998E-3</v>
+    <v>12169700</v>
+  </rv>
+  <rv s="2">
+    <v>16</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bgmhrw&amp;q=BVMF%3aCNES11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bgmhrw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>3.73</v>
+    <v>1.23</v>
+    <v>BVMF</v>
+    <v>1.35</v>
+    <v>1.3</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>1.31</v>
+    <v>45600.871332094532</v>
+    <v>18</v>
+    <v>BRL</v>
+    <v>FDO INV IMOB FII CENESP CF</v>
+    <v>1.31</v>
+    <v>1.3</v>
+    <v>CNES11</v>
+    <v>Fundos mais negociados</v>
+    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
+    <v>-0.01</v>
+    <v>-7.6339999999999993E-3</v>
+    <v>45791</v>
+  </rv>
+  <rv s="2">
+    <v>19</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnjh7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>10.89</v>
+    <v>5.42</v>
+    <v>BVMF</v>
+    <v>1253079000</v>
+    <v>6.63</v>
+    <v>1954</v>
+    <v>6.37</v>
+    <v>1.1356999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7750435000</v>
+    <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
+    <v>BVMF</v>
+    <v>6.32</v>
+    <v>51182</v>
+    <v>45600.864155092589</v>
+    <v>0</v>
+    <v>15586120</v>
+    <v>BRL</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
+    <v>6.4</v>
+    <v>6.56</v>
+    <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>USIM5</v>
+    <v>Ações</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>0.24</v>
+    <v>3.7975000000000002E-2</v>
+    <v>10027800</v>
+  </rv>
+  <rv s="2">
+    <v>21</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apn14c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>10.02</v>
+    <v>9.19</v>
+    <v>BVMF</v>
+    <v>9.4700000000000006</v>
+    <v>9.19</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>9.42</v>
+    <v>45600.864165185158</v>
+    <v>3</v>
+    <v>BRL</v>
+    <v>MAXI RENDA FII ETF</v>
+    <v>9.44</v>
+    <v>9.27</v>
+    <v>MXRF11</v>
+    <v>Fundos mais negociados</v>
+    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>-0.15</v>
+    <v>-1.5924000000000001E-2</v>
+    <v>4197914</v>
+  </rv>
+  <rv s="2">
+    <v>23</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bxe577</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>8.27</v>
+    <v>7.16</v>
+    <v>BVMF</v>
+    <v>7.41</v>
+    <v>7.31</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7.37</v>
+    <v>45600.86109435156</v>
+    <v>6</v>
+    <v>BRL</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
+    <v>7.35</v>
+    <v>7.37</v>
+    <v>KISU11</v>
+    <v>Fundos mais negociados</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>0</v>
+    <v>0</v>
+    <v>76895</v>
+  </rv>
+  <rv s="2">
+    <v>25</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apm3rw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>56.76</v>
+    <v>43.02</v>
+    <v>BVMF</v>
+    <v>43.75</v>
+    <v>43.1</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>43.61</v>
+    <v>45600.864155092589</v>
+    <v>9</v>
+    <v>BRL</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
+    <v>43.61</v>
+    <v>43.18</v>
+    <v>BRCR11</v>
+    <v>Fundos mais negociados</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>-0.43</v>
+    <v>-9.8600000000000007E-3</v>
+    <v>49975</v>
+  </rv>
+  <rv s="2">
+    <v>27</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bwwglh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>46.43</v>
+    <v>32.5</v>
+    <v>BVMF</v>
+    <v>32.99</v>
+    <v>32.5</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>32.65</v>
+    <v>45600.862712245311</v>
+    <v>12</v>
+    <v>BRL</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
+    <v>32.6</v>
+    <v>32.64</v>
+    <v>DEVA11</v>
+    <v>Fundos mais negociados</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>-0.01</v>
+    <v>-3.0630000000000002E-4</v>
+    <v>19089</v>
+  </rv>
+  <rv s="2">
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>aplygh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>29.1</v>
+    <v>22.49</v>
+    <v>BVMF</v>
+    <v>5730834000</v>
+    <v>26.42</v>
+    <v>1808</v>
+    <v>26.15</v>
+    <v>1.0382</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>150205159140</v>
+    <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
+    <v>BVMF</v>
+    <v>26.09</v>
+    <v>85953</v>
+    <v>45600.864189814813</v>
+    <v>15</v>
+    <v>15328950</v>
+    <v>BRL</v>
+    <v>Banco do Brasil S.A.</v>
+    <v>Banco do Brasil S.A.</v>
+    <v>26.27</v>
+    <v>26.21</v>
+    <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
+    <v>Banking Services</v>
+    <v>BBAS3</v>
+    <v>Ações</v>
+    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
+    <v>0.12</v>
+    <v>4.5989999999999998E-3</v>
+    <v>10222800</v>
+  </rv>
+  <rv s="2">
+    <v>31</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bgmhrw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>3.73</v>
+    <v>1.23</v>
+    <v>BVMF</v>
+    <v>1.35</v>
+    <v>1.3</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>1.31</v>
+    <v>45600.864166666666</v>
+    <v>18</v>
+    <v>BRL</v>
+    <v>FDO INV IMOB FII CENESP CF</v>
+    <v>1.31</v>
+    <v>1.3</v>
+    <v>CNES11</v>
+    <v>Fundos mais negociados</v>
+    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
+    <v>-0.01</v>
+    <v>-7.6339999999999993E-3</v>
+    <v>45631</v>
+  </rv>
+  <rv s="2">
+    <v>33</v>
+  </rv>
+  <rv s="4">
+    <v>0</v>
+  </rv>
+  <rv s="5">
+    <v>{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}</v>
+    <v>0</v>
+    <v>10</v>
+    <v>35</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Ações em circulação"/>
+    <k n="Alto"/>
+    <k n="Ano de incorporação"/>
+    <k n="Baixo"/>
+    <k n="Beta"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Capitalização de mercado"/>
+    <k n="Descrição" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Fechamento anterior"/>
+    <k n="Funcionários"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Média de volume"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Sede" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Alto"/>
+    <k n="Baixo"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Fechamento anterior"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_datasourcecontainer">
+    <k n="%XLUID" t="s"/>
+    <k n="_CRID" t="i"/>
+    <k n="_Display" t="spb"/>
+    <k n="RAZÃO SOCIAL" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="3">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Nome oficial</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Média de volume</v>
+      <v t="s">Capitalização de mercado</v>
+      <v t="s">Beta</v>
+      <v t="s">Ações em circulação</v>
+      <v t="s">Descrição</v>
+      <v t="s">Funcionários</v>
+      <v t="s">Sede</v>
+      <v t="s">Setor</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">Ano de incorporação</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="31">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="4">
+      <v t="s">RAZÃO SOCIAL</v>
+      <v t="s">_CRID</v>
+      <v t="s">%XLUID</v>
+      <v t="s">_Display</v>
+    </a>
+  </spbArrays>
+  <spbData count="11">
+    <spb s="0">
+      <v>High</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Headquarters</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Industry</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Open</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Employees</v>
+      <v>Official name</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Volume average</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Year incorporated</v>
+      <v>Shares outstanding</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Market cap</v>
+      <v>Last trade time</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="3">
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>4</v>
+      <v>1</v>
+      <v>8</v>
+      <v>9</v>
+    </spb>
+    <spb s="5">
+      <v>Atraso de 30 minutos</v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v>GMT</v>
+    </spb>
+    <spb s="6">
+      <v>High</v>
+      <v>Name</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Open</v>
+      <v>UniqueName</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Last trade time</v>
+    </spb>
+    <spb s="1">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="8">
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>9</v>
+    </spb>
+    <spb s="9">
+      <v>2</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+  <s>
+    <k n="Alto" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Sede" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Descrição" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Funcionários" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Média de volume" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Ano de incorporação" t="s"/>
+    <k n="Ações em circulação" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Capitalização de mercado" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Funcionários" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="Média de volume" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Ano de incorporação" t="i"/>
+    <k n="Ações em circulação" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Capitalização de mercado" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+  </s>
+  <s>
+    <k n="Preço" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">_-[$R$-pt-BR] * #,##0.00_-;-[$R$-pt-BR] * #,##0.00_-;_-[$R$-pt-BR] * "-"??_-;_-@_-</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="3">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">_-[$R$-pt-BR] * #,##0_-;-[$R$-pt-BR] * #,##0_-;_-[$R$-pt-BR] * "-"_-;_-@_-</rpv>
+    </rSty>
+    <rSty dxfid="4"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="A2:G10" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="42">
       <calculatedColumnFormula>D3*E3*F3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1105,14 +2793,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}" name="TBL_Clientes" displayName="TBL_Clientes" ref="B5:F15" totalsRowShown="0">
-  <autoFilter ref="B5:F15" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}" name="TBL_Clientes" displayName="TBL_Clientes" ref="B5:F17" totalsRowShown="0">
+  <autoFilter ref="B5:F17" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{894BC177-F0E3-4E5B-B116-57D4460B629A}" name="Nome "/>
-    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="38">
       <calculatedColumnFormula>(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1124,12 +2812,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}" name="Tabela4" displayName="Tabela4" ref="B5:G10" totalsRowShown="0">
   <autoFilter ref="B5:G10" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{A293641D-B0BA-4BE6-8B27-19907B582309}" name="Descricao"/>
     <tableColumn id="3" xr3:uid="{715ACBE7-D796-468F-B4E9-B8C922438808}" name="Classificacao"/>
-    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="34">
       <calculatedColumnFormula>Tabela4[[#This Row],[Preco_venda]]-Tabela4[[#This Row],[Preco_Compra]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1142,6 +2830,40 @@
   <autoFilter ref="B2:B5" xr:uid="{5E4F18BA-F0BC-4841-B673-6919E5F5048F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{769B8D5F-8369-41A1-A29F-973F9CB388D0}" name="Sexo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="E2:E9" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:G9" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
+  <autoFilter ref="B2:G9" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G9">
+    <sortCondition descending="1" ref="F2:F9"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="31">
+      <calculatedColumnFormula array="1">_FV(C3,"Símbolo do ticker",TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="30">
+      <calculatedColumnFormula array="1">_FV(C3,"Preço")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="28">
+      <calculatedColumnFormula>E3*F3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1470,16 +3192,16 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +3305,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +3362,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +3419,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +3438,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +3457,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +3476,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1811,12 +3533,12 @@
         <v>11812.055929749198</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,7 +3595,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +3652,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1987,7 +3709,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +3766,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2101,7 +3823,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2156,7 +3878,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2213,7 +3935,7 @@
         <v>5218.5954135429138</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2270,7 +3992,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +4049,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2335,7 +4057,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2358,7 +4080,7 @@
       <selection sqref="A1:S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2372,14 +4094,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +4124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -2426,7 +4148,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -2448,7 +4170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -2470,7 +4192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -2492,7 +4214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -2514,7 +4236,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -2536,7 +4258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -2558,7 +4280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -2597,27 +4319,27 @@
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="3.28515625" customWidth="1"/>
     <col min="20" max="27" width="3" customWidth="1"/>
-    <col min="29" max="29" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>43</v>
       </c>
@@ -2640,9 +4362,9 @@
       <c r="R1" s="26"/>
       <c r="S1" s="26"/>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -2678,118 +4400,112 @@
       <c r="Y2" s="59"/>
       <c r="Z2" s="59"/>
       <c r="AA2" s="62"/>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="29">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="32">
         <f>AD2</f>
-        <v>44785</v>
+        <v>0</v>
       </c>
       <c r="M3" s="32">
         <f t="shared" ref="M3:AA3" si="0">L3+7</f>
-        <v>44792</v>
+        <v>7</v>
       </c>
       <c r="N3" s="32">
         <f t="shared" si="0"/>
-        <v>44799</v>
+        <v>14</v>
       </c>
       <c r="O3" s="32">
         <f t="shared" si="0"/>
-        <v>44806</v>
+        <v>21</v>
       </c>
       <c r="P3" s="32">
         <f t="shared" si="0"/>
-        <v>44813</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="32">
         <f t="shared" si="0"/>
-        <v>44820</v>
+        <v>35</v>
       </c>
       <c r="R3" s="32">
         <f t="shared" si="0"/>
-        <v>44827</v>
+        <v>42</v>
       </c>
       <c r="S3" s="32">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>49</v>
       </c>
       <c r="T3" s="32">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>56</v>
       </c>
       <c r="U3" s="32">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>63</v>
       </c>
       <c r="V3" s="32">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>70</v>
       </c>
       <c r="W3" s="32">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>77</v>
       </c>
       <c r="X3" s="32">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="32">
         <f t="shared" si="0"/>
-        <v>44876</v>
+        <v>91</v>
       </c>
       <c r="Z3" s="32">
         <f t="shared" si="0"/>
-        <v>44883</v>
+        <v>98</v>
       </c>
       <c r="AA3" s="32">
         <f t="shared" si="0"/>
-        <v>44890</v>
-      </c>
-      <c r="AC3" s="55" t="s">
-        <v>58</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AC3" s="55"/>
       <c r="AD3" s="55"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>123456</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="34">
         <f>SUM(L4:AA4)</f>
@@ -2865,19 +4581,15 @@
         <v>0</v>
       </c>
       <c r="AB4" s="40"/>
-      <c r="AC4" s="41">
-        <v>44811</v>
-      </c>
-      <c r="AD4" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="36"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>124563</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="34">
         <f>SUM(L5:AA5)</f>
@@ -2952,19 +4664,15 @@
       <c r="AA5" s="39">
         <v>0</v>
       </c>
-      <c r="AC5" s="41">
-        <v>44812</v>
-      </c>
-      <c r="AD5" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="36"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>125436</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="34">
         <f>SUM(L6:AA6)</f>
@@ -3043,19 +4751,15 @@
       <c r="AA6" s="39">
         <v>0</v>
       </c>
-      <c r="AC6" s="41">
-        <v>44846</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="36"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>126354</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="34">
         <f>SUM(L7:AA7)</f>
@@ -3132,14 +4836,10 @@
       <c r="AA7" s="39">
         <v>0</v>
       </c>
-      <c r="AC7" s="42">
-        <v>44867</v>
-      </c>
-      <c r="AD7" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="36"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -3159,14 +4859,10 @@
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
-      <c r="AC8" s="41">
-        <v>44880</v>
-      </c>
-      <c r="AD8" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="36"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -3184,14 +4880,10 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
-      <c r="AC9" s="41">
-        <v>44885</v>
-      </c>
-      <c r="AD9" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="36"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -3209,7 +4901,7 @@
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -3227,7 +4919,7 @@
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -3246,7 +4938,7 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -3265,7 +4957,7 @@
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -3284,7 +4976,7 @@
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -3303,7 +4995,7 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="43"/>
       <c r="C16" s="26"/>
@@ -3324,7 +5016,7 @@
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -3345,7 +5037,7 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -3390,17 +5082,17 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C1" s="48">
         <v>1</v>
@@ -3436,21 +5128,21 @@
         <v>11</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="R1" s="49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="51" t="str">
         <f t="shared" ref="C2:M2" si="0">MID($A$2,C1,1)</f>
@@ -3513,7 +5205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="str">
         <f>IF(AND(VALUE(MID(A2,10,1))=R2,VALUE(MID(A2,11,1))=R3),"Válido","Inválido")</f>
         <v>Válido</v>
@@ -3572,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="54">
         <f>C2*(12-C1)</f>
         <v>22</v>
@@ -3614,9 +5306,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="48">
         <v>1</v>
@@ -3652,21 +5344,21 @@
         <v>11</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P6" s="49" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="49" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="R6" s="49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C7" s="51" t="str">
         <f>MID($A$7,C6,1)</f>
@@ -3729,7 +5421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="str">
         <f>IF(AND(VALUE(MID(A7,10,1))=R7,VALUE(MID(A7,11,1))=R8),"Válido","Inválido")</f>
         <v>Válido</v>
@@ -3788,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="54">
         <f>C7*(12-C6)</f>
         <v>44</v>
@@ -3830,9 +5522,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" s="48">
         <v>1</v>
@@ -3868,21 +5560,21 @@
         <v>11</v>
       </c>
       <c r="O11" s="49" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P11" s="49" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="49" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="R11" s="49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C12" s="51" t="str">
         <f>MID($A$12,C11,1)</f>
@@ -3945,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="str">
         <f>IF(AND(VALUE(MID(A12,10,1))=R12,VALUE(MID(A12,11,1))=R13),"Válido","Inválido")</f>
         <v>Válido</v>
@@ -4004,7 +5696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="54">
         <f>C12*(12-C11)</f>
         <v>33</v>
@@ -4066,200 +5758,230 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D6AA87-C3B1-4FF7-8646-6E57AE747502}">
-  <dimension ref="B5:F15"/>
+  <dimension ref="B5:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="174" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D6" s="44">
         <v>33488</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>33.646042022569439</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>33.646646331340023</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D7" s="44">
         <v>37615</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>22.182153133680551</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>22.18275744245113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D8" t="e">
         <f ca="1">(_xleta.DATE=RAND())</f>
         <v>#VALUE!</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F8" t="e">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
       <c r="E9" s="44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
       <c r="E10" s="44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
       <c r="E11" s="44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
       <c r="E12" s="44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
       <c r="E13" s="44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
       <c r="E14" s="44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
       <c r="E15" s="44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66826424479166</v>
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
+        <v>126.66886855356225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
+        <v>126.66886855356225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E15" xr:uid="{361175EA-D978-4C5A-A0C0-FE37761443BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E17" xr:uid="{361175EA-D978-4C5A-A0C0-FE37761443BA}">
       <formula1>sexo</formula1>
     </dataValidation>
   </dataValidations>
@@ -4278,44 +6000,44 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
         <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
       </c>
       <c r="E6" s="46">
         <v>655</v>
@@ -4328,15 +6050,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E7" s="46">
         <v>7.5</v>
@@ -4349,9 +6071,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4360,9 +6082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -4371,9 +6093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -4397,92 +6119,496 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BCED-8FA9-40B2-88B4-47252BB8367C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD003B7-8D9A-4A40-894C-501A7BB2F555}">
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="E8" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD003B7-8D9A-4A40-894C-501A7BB2F555}">
-  <dimension ref="B2:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BCED-8FA9-40B2-88B4-47252BB8367C}">
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">_FV(C3,"Símbolo do ticker",TRUE)</f>
+        <v>USIM5</v>
+      </c>
+      <c r="E3" s="63" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">_FV(C3,"Preço")</f>
+        <v>6.56</v>
+      </c>
+      <c r="F3" s="15">
+        <v>115</v>
+      </c>
+      <c r="G3" s="63">
+        <f ca="1">E3*F3</f>
+        <v>754.4</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="67">
+        <v>780.61</v>
+      </c>
+      <c r="K3" s="67">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="15" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_FV(C4,"Símbolo do ticker",TRUE)</f>
+        <v>MXRF11</v>
+      </c>
+      <c r="E4" s="63" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">_FV(C4,"Preço")</f>
+        <v>9.27</v>
+      </c>
+      <c r="F4" s="15">
+        <v>92</v>
+      </c>
+      <c r="G4" s="63">
+        <f ca="1">E4*F4</f>
+        <v>852.83999999999992</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="67">
+        <v>26.21</v>
+      </c>
+      <c r="K4" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="15" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_FV(C5,"Símbolo do ticker",TRUE)</f>
+        <v>KISU11</v>
+      </c>
+      <c r="E5" s="63" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">_FV(C5,"Preço")</f>
+        <v>7.43</v>
+      </c>
+      <c r="F5" s="15">
+        <v>54</v>
+      </c>
+      <c r="G5" s="63">
+        <f ca="1">E5*F5</f>
+        <v>401.21999999999997</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="67">
+        <v>754.4</v>
+      </c>
+      <c r="K5" s="67">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="15" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_FV(C6,"Símbolo do ticker",TRUE)</f>
+        <v>BRCR11</v>
+      </c>
+      <c r="E6" s="63" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">_FV(C6,"Preço")</f>
+        <v>43.17</v>
+      </c>
+      <c r="F6" s="15">
+        <v>4</v>
+      </c>
+      <c r="G6" s="63">
+        <f ca="1">E6*F6</f>
+        <v>172.68</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="67">
+        <v>1488.82</v>
+      </c>
+      <c r="K6" s="67">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="15" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">_FV(C7,"Símbolo do ticker",TRUE)</f>
+        <v>DEVA11</v>
+      </c>
+      <c r="E7" s="63" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">_FV(C7,"Preço")</f>
+        <v>32.659999999999997</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2</v>
+      </c>
+      <c r="G7" s="63">
+        <f ca="1">E7*F7</f>
+        <v>65.319999999999993</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="67">
+        <v>172.72</v>
+      </c>
+      <c r="K7" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="15" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">_FV(C8,"Símbolo do ticker",TRUE)</f>
+        <v>BBAS3</v>
+      </c>
+      <c r="E8" s="63" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">_FV(C8,"Preço")</f>
+        <v>26.24</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="63">
+        <f ca="1">E8*F8</f>
+        <v>26.24</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="67">
+        <v>0</v>
+      </c>
+      <c r="K8" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="15" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_FV(C9,"Símbolo do ticker",TRUE)</f>
+        <v>CNES11</v>
+      </c>
+      <c r="E9" s="63" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">_FV(C9,"Preço")</f>
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="63">
+        <f ca="1">E9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="67">
+        <v>65.28</v>
+      </c>
+      <c r="K9" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="63"/>
+      <c r="I10" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="67">
+        <v>397.98</v>
+      </c>
+      <c r="K10" s="67">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="67">
+        <v>852.83999999999992</v>
+      </c>
+      <c r="K11" s="67">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="67">
+        <v>2269.4300000000003</v>
+      </c>
+      <c r="K12" s="67">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8644F8C8-B3FC-4E45-BE3B-E3A406F082C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4E1012E-4ABD-44FD-9823-23267227E537}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{CE8D9021-6C70-4CDE-AEBE-7BE487BB8AF0}">
+      <formula1>INDIRECT("tipo")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8644F8C8-B3FC-4E45-BE3B-E3A406F082C8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4E1012E-4ABD-44FD-9823-23267227E537}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Programação em microinformatica/Aula ILM-2-2024.xlsx
+++ b/Programação em microinformatica/Aula ILM-2-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\FATEC---Aulas\Programação em microinformatica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A549964-A0CD-49C3-9D3B-51F390C26656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643FF47-00D3-4BE8-9789-9FA9407D4383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{638BBB0D-7911-4F79-9DFF-80DA470C685B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId10"/>
+    <pivotCache cacheId="15" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +65,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="7">
+  <futureMetadata name="XLRICHVALUE" count="18">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -115,13 +115,90 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="44"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="45"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="46"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="47"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="7">
+  <valueMetadata count="18">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -143,12 +220,45 @@
     <bk>
       <rc t="2" v="6"/>
     </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="146">
   <si>
     <t>Receitas</t>
   </si>
@@ -568,6 +678,24 @@
   </si>
   <si>
     <t>LCA</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>KNIP11</t>
+  </si>
+  <si>
+    <t>XPML11</t>
+  </si>
+  <si>
+    <t>(vazio)</t>
   </si>
 </sst>
 </file>
@@ -637,7 +765,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,8 +808,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -874,12 +1008,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,6 +1123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,13 +1155,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1007,7 +1171,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="39">
     <dxf>
       <font>
         <b/>
@@ -1045,67 +1209,76 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1117,7 +1290,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1338,47 +1520,45 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45600.751915624998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45601.00642928241" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:G9" sheet="Investimento"/>
+    <worksheetSource ref="B2:G16" sheet="Investimento"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="TIPO" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="AÇÃO"/>
         <s v="FI"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="RAZÃO SOCIAL" numFmtId="0">
-      <sharedItems count="7">
-        <s v="Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)"/>
-        <s v="MAXI RENDA FII ETF (BVMF:MXRF11)"/>
-        <s v="KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)"/>
-        <s v="FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)"/>
-        <s v="DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)"/>
-        <s v="Banco do Brasil S.A. (BVMF:BBAS3)"/>
-        <s v="FDO INV IMOB FII CENESP CF (BVMF:CNES11)"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="TICKER" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems count="12">
         <s v="USIM5"/>
         <s v="MXRF11"/>
         <s v="KISU11"/>
+        <s v="BBAS3"/>
+        <s v="PETR4"/>
+        <s v="CNES11"/>
         <s v="BRCR11"/>
         <s v="DEVA11"/>
-        <s v="BBAS3"/>
-        <s v="CNES11"/>
+        <s v="VALE3"/>
+        <s v="XPML11"/>
+        <s v="KNIP11"/>
+        <s v="#CAMPO!"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PREÇO" numFmtId="167">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3" maxValue="43.18"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.3" maxValue="103.46"/>
     </cacheField>
     <cacheField name="COTAS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="115"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="115"/>
     </cacheField>
     <cacheField name="VALOR" numFmtId="167">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="852.83999999999992"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="23.400000000000002" maxValue="940.05000000000007"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1398,10 +1578,10 @@
 </file>
 
 <file path=xl/pivotCache/richPivotRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)"/>
     <x v="0"/>
     <n v="6.56"/>
     <n v="115"/>
@@ -1409,7 +1589,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="MAXI RENDA FII ETF (BVMF:MXRF11)"/>
     <x v="1"/>
     <n v="9.27"/>
     <n v="92"/>
@@ -1417,79 +1597,130 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)"/>
     <x v="2"/>
-    <x v="2"/>
-    <n v="7.37"/>
+    <n v="7.43"/>
     <n v="54"/>
-    <n v="397.98"/>
+    <n v="401.21999999999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Banco do Brasil S.A. (BVMF:BBAS3)"/>
+    <x v="3"/>
+    <n v="26.24"/>
+    <n v="25"/>
+    <n v="656"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)"/>
+    <x v="4"/>
+    <n v="35.5"/>
+    <n v="20"/>
+    <n v="710"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="43.18"/>
-    <n v="4"/>
-    <n v="172.72"/>
+    <s v="FDO INV IMOB FII CENESP CF (BVMF:CNES11)"/>
+    <x v="5"/>
+    <n v="1.3"/>
+    <n v="18"/>
+    <n v="23.400000000000002"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="32.64"/>
-    <n v="2"/>
-    <n v="65.28"/>
+    <s v="FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)"/>
+    <x v="6"/>
+    <n v="43.17"/>
+    <n v="18"/>
+    <n v="777.06000000000006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)"/>
+    <x v="7"/>
+    <n v="32.659999999999997"/>
+    <n v="15"/>
+    <n v="489.9"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="26.21"/>
-    <n v="1"/>
-    <n v="26.21"/>
+    <s v="VALE S.A. (BVMF:VALE3)"/>
+    <x v="8"/>
+    <n v="62.67"/>
+    <n v="15"/>
+    <n v="940.05000000000007"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="1.3"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)"/>
+    <x v="9"/>
+    <n v="103.46"/>
+    <n v="8"/>
+    <n v="827.68"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)"/>
+    <x v="10"/>
+    <n v="90.15"/>
+    <n v="8"/>
+    <n v="721.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="11"/>
+    <s v="#CAMPO!"/>
+    <m/>
+    <s v="#CAMPO!"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="11"/>
+    <s v="#CAMPO!"/>
+    <m/>
+    <s v="#CAMPO!"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="11"/>
+    <s v="#CAMPO!"/>
+    <m/>
+    <s v="#CAMPO!"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5F8DF67-3B4B-45AF-A3A4-D03346FA002A}" name="Tabela dinâmica3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:K12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5F8DF67-3B4B-45AF-A3A4-D03346FA002A}" name="Tabela dinâmica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:K18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="4"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
         <item x="3"/>
         <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
         <item x="2"/>
         <item x="1"/>
         <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1501,7 +1732,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -1510,6 +1741,12 @@
     </i>
     <i r="1">
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i>
       <x v="1"/>
@@ -1528,6 +1765,18 @@
     </i>
     <i r="1">
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -1668,22 +1917,61 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="8">
-    <v t="r">22</v>
-    <v t="r">24</v>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <a r="15">
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="r">47</v>
+    <v t="r">47</v>
+    <v t="r">47</v>
+    <v t="i">2</v>
+  </a>
+  <a r="15">
+    <v t="r">2</v>
+    <v t="r">5</v>
+    <v t="r">8</v>
+    <v t="r">17</v>
+    <v t="r">23</v>
+    <v t="r">20</v>
+    <v t="r">11</v>
+    <v t="r">14</v>
     <v t="r">26</v>
-    <v t="r">28</v>
-    <v t="r">30</v>
-    <v t="r">32</v>
-    <v t="r">34</v>
+    <v t="r">44</v>
+    <v t="r">35</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="i">2</v>
+  </a>
+  <a r="13">
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="e">#NULL!</v>
+    <v t="r">47</v>
     <v t="i">1</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="37">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="52">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnjh7&amp;q=BVMF%3aUSIM5&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -1715,7 +2003,7 @@
     <v>BVMF</v>
     <v>6.32</v>
     <v>51182</v>
-    <v>45600.895740740743</v>
+    <v>45600.947916666664</v>
     <v>0</v>
     <v>15586120</v>
     <v>BRL</v>
@@ -1759,7 +2047,7 @@
     <v>9.19</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>9.42</v>
-    <v>45600.880311596877</v>
+    <v>45600.947916666664</v>
     <v>3</v>
     <v>BRL</v>
     <v>MAXI RENDA FII ETF</v>
@@ -1799,7 +2087,7 @@
     <v>7.31</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>7.37</v>
-    <v>45600.878472800781</v>
+    <v>45600.947916666664</v>
     <v>6</v>
     <v>BRL</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
@@ -1839,7 +2127,7 @@
     <v>43.1</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>43.61</v>
-    <v>45600.892418981479</v>
+    <v>45600.947916666664</v>
     <v>9</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
@@ -1879,7 +2167,7 @@
     <v>32.5</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>32.65</v>
-    <v>45600.879166921091</v>
+    <v>45600.947916666664</v>
     <v>12</v>
     <v>BRL</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
@@ -1926,7 +2214,7 @@
     <v>BVMF</v>
     <v>26.09</v>
     <v>85953</v>
-    <v>45600.880289178123</v>
+    <v>45600.947916666664</v>
     <v>15</v>
     <v>15328950</v>
     <v>BRL</v>
@@ -1970,7 +2258,7 @@
     <v>1.3</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>1.31</v>
-    <v>45600.871332094532</v>
+    <v>45600.947916666664</v>
     <v>18</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII CENESP CF</v>
@@ -1986,294 +2274,408 @@
   <rv s="2">
     <v>19</v>
   </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apn4gh&amp;q=BVMF%3aPETR4&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
   <rv s="1">
     <v>pt-BR</v>
-    <v>apnjh7</v>
+    <v>apn4gh</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
     <v>0</v>
     <v>1</v>
-    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
     <v>3</v>
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>10.89</v>
-    <v>5.42</v>
+    <v>39.86</v>
+    <v>28.86</v>
     <v>BVMF</v>
-    <v>1253079000</v>
-    <v>6.63</v>
-    <v>1954</v>
-    <v>6.37</v>
-    <v>1.1356999999999999</v>
+    <v>13044500000</v>
+    <v>35.950000000000003</v>
+    <v>1953</v>
+    <v>35.380000000000003</v>
+    <v>1.2868999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7750435000</v>
-    <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
+    <v>483470300000</v>
+    <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>6.32</v>
-    <v>51182</v>
-    <v>45600.864155092589</v>
-    <v>0</v>
-    <v>15586120</v>
+    <v>35.42</v>
+    <v>46730</v>
+    <v>45600.947916666664</v>
+    <v>21</v>
+    <v>27836250</v>
     <v>BRL</v>
-    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
-    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
-    <v>6.4</v>
-    <v>6.56</v>
-    <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
-    <v>Metals &amp; Mining</v>
-    <v>USIM5</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras)</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras)</v>
+    <v>35.9</v>
+    <v>35.5</v>
+    <v>Av. Republica do Chile, n 65, 24 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-912 BR</v>
+    <v>Oil &amp; Gas</v>
+    <v>PETR4</v>
     <v>Ações</v>
-    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
-    <v>0.24</v>
-    <v>3.7975000000000002E-2</v>
-    <v>10027800</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
+    <v>0.08</v>
+    <v>2.2589999999999997E-3</v>
+    <v>24003600</v>
   </rv>
   <rv s="2">
-    <v>21</v>
+    <v>22</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apnjsm&amp;q=BVMF%3aVALE3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnjsm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>VALE S.A. (BVMF:VALE3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>72.209999999999994</v>
+    <v>55.48</v>
+    <v>BVMF</v>
+    <v>4539008000</v>
+    <v>62.87</v>
+    <v>1943</v>
+    <v>62.12</v>
+    <v>0.62270000000000003</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>284459631360</v>
+    <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
+    <v>BVMF</v>
+    <v>62.03</v>
+    <v>66807</v>
+    <v>45600.947916666664</v>
+    <v>24</v>
+    <v>17688430</v>
+    <v>BRL</v>
+    <v>VALE S.A.</v>
+    <v>VALE S.A.</v>
+    <v>62.4</v>
+    <v>62.67</v>
+    <v>Torre Oscar Niemeyer, Praia de Botafogo n 186 salas 1901 e outras, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 34.855-000 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>VALE3</v>
+    <v>Ações</v>
+    <v>VALE S.A. (BVMF:VALE3)</v>
+    <v>0.64</v>
+    <v>1.0318000000000001E-2</v>
+    <v>12360000</v>
+  </rv>
+  <rv s="2">
+    <v>25</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apltyc&amp;q=BVMF%3aABEV3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apltyc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Ambev S.A. (BVMF:ABEV3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>14.13</v>
+    <v>10.98</v>
+    <v>BVMF</v>
+    <v>15757660000</v>
+    <v>12.71</v>
+    <v>2005</v>
+    <v>12.51</v>
+    <v>0.6956</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>199649552200</v>
+    <v>A Ambev SA, anteriormente Inbev Participações Societarias SA, é uma empresa brasileira com sede no setor cervejeiro. A Companhia produz, distribui e vende cerveja, refrigerantes com gás (CSDs) e outras bebidas não alcoólicas e não carbonatadas (NANC) nas Américas. As atividades da Companhia estão divididas em três segmentos: América Latina do Norte, incluindo venda de cerveja, refrigerantes e bebidas NANC no Brasil, além de operações na República Dominicana, São Vicente, Antígua, Dominica, Cuba, Guatemala, El Salvador, Honduras, Nicarágua, Barbados e Panamá; América Latina Sul, distribuindo produtos na Argentina, Bolívia, Paraguai, Uruguai, Chile; e Canadá, representado pelas operações da Labatt, que inclui vendas no Canadá e algumas exportações para o mercado dos EUA. A Companhia comercializa produtos com várias marcas, como Adriatica, Brahma, Leffe, Budweiser, Corona, PepsiCo e Lipton. É uma subsidiária da Interbrew International BV.</v>
+    <v>BVMF</v>
+    <v>12.54</v>
+    <v>43000</v>
+    <v>45600.947916666664</v>
+    <v>27</v>
+    <v>27738700</v>
+    <v>BRL</v>
+    <v>Ambev S.A.</v>
+    <v>Ambev S.A.</v>
+    <v>12.59</v>
+    <v>12.67</v>
+    <v>Rua Dr. Renato Paes de Barros, 1.017, 4 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.530-001 BR</v>
+    <v>Beverages</v>
+    <v>ABEV3</v>
+    <v>Ações</v>
+    <v>Ambev S.A. (BVMF:ABEV3)</v>
+    <v>0.13</v>
+    <v>1.0366999999999999E-2</v>
+    <v>19442900</v>
+  </rv>
+  <rv s="2">
+    <v>28</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=c2yvmw&amp;q=BVMF%3aRAIZ4&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>c2yvmw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>Raízen S.A. (BVMF:RAIZ4)</v>
+    <v>3</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>13</v>
+    <v>4.1900000000000004</v>
+    <v>2.64</v>
+    <v>BVMF</v>
+    <v>1358937000</v>
+    <v>2.91</v>
+    <v>1961</v>
+    <v>2.85</v>
+    <v>1.4059999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>3940917300</v>
+    <v>A Raízen SA, anteriormente conhecida como Raízen Combustiveis SA, é uma empresa com sede no Brasil que atua no setor de energia. As atividades da Empresa são divididas em quatro linhas de negócios: Renováveis, Marketing e Serviços, Proximidade e Açúcar. A divisão Renewables atua na produção de etanol, etanol de segunda geração, bioeletricidade, biogás e bioprodutos. A divisão de Marketing e Serviços está focada na distribuição e venda de combustíveis para postos de gasolina da Shell, aeroportos e outros clientes Business-to-Business (B2B). A divisão Proximity está envolvida na operação de lojas de conveniência sob as marcas OXXO e Shell Select. A divisão Açúcar consiste na produção de açúcar, como cristalino, líquido, refinado, orgânico e Polarização Muito Alta (VHP), entre outros. A empresa atua no Brasil e na Argentina.</v>
+    <v>BVMF</v>
+    <v>2.85</v>
+    <v>45417</v>
+    <v>45600.947916666664</v>
+    <v>30</v>
+    <v>14070390</v>
+    <v>BRL</v>
+    <v>Raízen S.A.</v>
+    <v>Raízen S.A.</v>
+    <v>2.86</v>
+    <v>2.9</v>
+    <v>2.88</v>
+    <v>Avenida Almirante Barroso, n. 81, Sala 32B109 36 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-004 BR</v>
+    <v>Oil &amp; Gas</v>
+    <v>RAIZ4</v>
+    <v>Ações</v>
+    <v>Raízen S.A. (BVMF:RAIZ4)</v>
+    <v>0.05</v>
+    <v>1.7544000000000001E-2</v>
+    <v>17627100</v>
+  </rv>
+  <rv s="2">
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmubh&amp;q=BVMF%3aKNIP11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
     <v>pt-BR</v>
-    <v>apn14c</v>
+    <v>apmubh</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
     <v>6</v>
     <v>7</v>
-    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
     <v>8</v>
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>10.02</v>
-    <v>9.19</v>
+    <v>94.7</v>
+    <v>81.709999999999994</v>
     <v>BVMF</v>
-    <v>9.4700000000000006</v>
-    <v>9.19</v>
+    <v>91.49</v>
+    <v>90.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.42</v>
-    <v>45600.864165185158</v>
-    <v>3</v>
+    <v>91.51</v>
+    <v>45600.947916666664</v>
+    <v>33</v>
     <v>BRL</v>
-    <v>MAXI RENDA FII ETF</v>
-    <v>9.44</v>
-    <v>9.27</v>
-    <v>MXRF11</v>
+    <v>KINEA INDICES DE PRECOS FDO INV IMOB CF</v>
+    <v>91.49</v>
+    <v>90.15</v>
+    <v>KNIP11</v>
     <v>Fundos mais negociados</v>
-    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
-    <v>-0.15</v>
-    <v>-1.5924000000000001E-2</v>
-    <v>4197914</v>
+    <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
+    <v>-1.36</v>
+    <v>-1.4862E-2</v>
+    <v>83696</v>
   </rv>
   <rv s="2">
-    <v>23</v>
+    <v>34</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmuh7&amp;q=BVMF%3aKNRI11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
     <v>pt-BR</v>
-    <v>bxe577</v>
+    <v>apmuh7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
     <v>6</v>
     <v>7</v>
-    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF (BVMF:KNRI11)</v>
     <v>8</v>
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>8.27</v>
-    <v>7.16</v>
+    <v>158.47999999999999</v>
+    <v>135.12</v>
     <v>BVMF</v>
-    <v>7.41</v>
-    <v>7.31</v>
+    <v>137.30000000000001</v>
+    <v>136.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7.37</v>
-    <v>45600.86109435156</v>
-    <v>6</v>
+    <v>137.30000000000001</v>
+    <v>45600.947916666664</v>
+    <v>36</v>
     <v>BRL</v>
-    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
-    <v>7.35</v>
-    <v>7.37</v>
-    <v>KISU11</v>
+    <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF</v>
+    <v>137</v>
+    <v>137</v>
+    <v>KNRI11</v>
     <v>Fundos mais negociados</v>
-    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>76895</v>
+    <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF (BVMF:KNRI11)</v>
+    <v>-0.3</v>
+    <v>-2.1849999999999999E-3</v>
+    <v>34806</v>
   </rv>
   <rv s="2">
-    <v>25</v>
+    <v>37</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmqh7&amp;q=BVMF%3aHGLG11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
     <v>pt-BR</v>
-    <v>apm3rw</v>
+    <v>apmqh7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
     <v>6</v>
     <v>7</v>
-    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
     <v>8</v>
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>56.76</v>
-    <v>43.02</v>
+    <v>161.66</v>
+    <v>143.87</v>
     <v>BVMF</v>
-    <v>43.75</v>
-    <v>43.1</v>
+    <v>155.72999999999999</v>
+    <v>153</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>43.61</v>
-    <v>45600.864155092589</v>
-    <v>9</v>
+    <v>154.5</v>
+    <v>45600.947916666664</v>
+    <v>39</v>
     <v>BRL</v>
-    <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>43.61</v>
-    <v>43.18</v>
-    <v>BRCR11</v>
+    <v>FDO INV IMOB CSHG LOGISTICA CF</v>
+    <v>154.5</v>
+    <v>153.03</v>
+    <v>HGLG11</v>
     <v>Fundos mais negociados</v>
-    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>-0.43</v>
-    <v>-9.8600000000000007E-3</v>
-    <v>49975</v>
+    <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
+    <v>-1.47</v>
+    <v>-9.5150000000000009E-3</v>
+    <v>74077</v>
   </rv>
   <rv s="2">
-    <v>27</v>
+    <v>40</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bgly3m&amp;q=BVMF%3aXPML11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
     <v>pt-BR</v>
-    <v>bwwglh</v>
+    <v>bgly3m</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
     <v>6</v>
     <v>7</v>
-    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
     <v>8</v>
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>46.43</v>
-    <v>32.5</v>
+    <v>112.78</v>
+    <v>100.18</v>
     <v>BVMF</v>
-    <v>32.99</v>
-    <v>32.5</v>
+    <v>104</v>
+    <v>103.11</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>32.65</v>
-    <v>45600.862712245311</v>
-    <v>12</v>
+    <v>103.41</v>
+    <v>45600.947916666664</v>
+    <v>42</v>
     <v>BRL</v>
-    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
-    <v>32.6</v>
-    <v>32.64</v>
-    <v>DEVA11</v>
+    <v>XP MALLS FDO INV IMOB FII ETF</v>
+    <v>103.51</v>
+    <v>103.46</v>
+    <v>XPML11</v>
     <v>Fundos mais negociados</v>
-    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
-    <v>-0.01</v>
-    <v>-3.0630000000000002E-4</v>
-    <v>19089</v>
+    <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
+    <v>0.05</v>
+    <v>4.8349999999999999E-4</v>
+    <v>132224</v>
   </rv>
   <rv s="2">
-    <v>29</v>
+    <v>43</v>
   </rv>
-  <rv s="1">
-    <v>pt-BR</v>
-    <v>aplygh</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Da plataforma Refinitiv</v>
-    <v>0</v>
-    <v>1</v>
-    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
-    <v>3</v>
-    <v>4</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>29.1</v>
-    <v>22.49</v>
-    <v>BVMF</v>
-    <v>5730834000</v>
-    <v>26.42</v>
-    <v>1808</v>
-    <v>26.15</v>
-    <v>1.0382</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>150205159140</v>
-    <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
-    <v>BVMF</v>
-    <v>26.09</v>
-    <v>85953</v>
-    <v>45600.864189814813</v>
-    <v>15</v>
-    <v>15328950</v>
-    <v>BRL</v>
-    <v>Banco do Brasil S.A.</v>
-    <v>Banco do Brasil S.A.</v>
-    <v>26.27</v>
-    <v>26.21</v>
-    <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
-    <v>Banking Services</v>
-    <v>BBAS3</v>
-    <v>Ações</v>
-    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
-    <v>0.12</v>
-    <v>4.5989999999999998E-3</v>
-    <v>10222800</v>
-  </rv>
-  <rv s="2">
-    <v>31</v>
-  </rv>
-  <rv s="3">
-    <v>pt-BR</v>
-    <v>bgmhrw</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Da plataforma Refinitiv</v>
-    <v>6</v>
-    <v>7</v>
-    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>3.73</v>
-    <v>1.23</v>
-    <v>BVMF</v>
-    <v>1.35</v>
-    <v>1.3</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>1.31</v>
-    <v>45600.864166666666</v>
-    <v>18</v>
-    <v>BRL</v>
-    <v>FDO INV IMOB FII CENESP CF</v>
-    <v>1.31</v>
-    <v>1.3</v>
-    <v>CNES11</v>
-    <v>Fundos mais negociados</v>
-    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
-    <v>-0.01</v>
-    <v>-7.6339999999999993E-3</v>
-    <v>45631</v>
-  </rv>
-  <rv s="2">
-    <v>33</v>
-  </rv>
-  <rv s="4">
+  <rv s="5">
+    <v>12</v>
+    <v>Símbolo do ticker</v>
     <v>0</v>
   </rv>
   <rv s="5">
+    <v>12</v>
+    <v>Preço</v>
+    <v>0</v>
+  </rv>
+  <rv s="6">
+    <v>12</v>
+    <v>1</v>
+  </rv>
+  <rv s="7">
+    <v>0</v>
+  </rv>
+  <rv s="7">
+    <v>1</v>
+  </rv>
+  <rv s="7">
+    <v>2</v>
+  </rv>
+  <rv s="8">
     <v>{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}</v>
     <v>0</v>
-    <v>10</v>
-    <v>35</v>
+    <v>14</v>
+    <v>48</v>
+    <v>49</v>
+    <v>50</v>
+    <v>48</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2358,6 +2760,60 @@
     <k n="Variação (%)"/>
     <k n="Volume"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Ações em circulação"/>
+    <k n="Alto"/>
+    <k n="Ano de incorporação"/>
+    <k n="Baixo"/>
+    <k n="Beta"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Capitalização de mercado"/>
+    <k n="Descrição" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Fechamento anterior"/>
+    <k n="Funcionários"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Média de volume"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Preço (Horário prolongado)"/>
+    <k n="Sede" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="field" t="s"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -2365,14 +2821,17 @@
     <k n="%XLUID" t="s"/>
     <k n="_CRID" t="i"/>
     <k n="_Display" t="spb"/>
+    <k n="PREÇO" t="r"/>
     <k n="RAZÃO SOCIAL" t="r"/>
+    <k n="TICKER" t="r"/>
+    <k n="VALOR" t="r"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="3">
+  <spbArrays count="4">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2450,14 +2909,62 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="4">
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Preço (Horário prolongado)</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Nome oficial</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Média de volume</v>
+      <v t="s">Capitalização de mercado</v>
+      <v t="s">Beta</v>
+      <v t="s">Ações em circulação</v>
+      <v t="s">Descrição</v>
+      <v t="s">Funcionários</v>
+      <v t="s">Sede</v>
+      <v t="s">Setor</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">Ano de incorporação</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="7">
       <v t="s">RAZÃO SOCIAL</v>
+      <v t="s">TICKER</v>
+      <v t="s">PREÇO</v>
+      <v t="s">VALOR</v>
       <v t="s">_CRID</v>
       <v t="s">%XLUID</v>
       <v t="s">_Display</v>
     </a>
   </spbArrays>
-  <spbData count="11">
+  <spbData count="15">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -2582,14 +3089,82 @@
       <v>9</v>
     </spb>
     <spb s="9">
+      <v>High</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Headquarters</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Industry</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Open</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Employees</v>
+      <v>Official name</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Volume average</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Year incorporated</v>
+      <v>Shares outstanding</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Market cap</v>
+      <v>Last trade time</v>
+      <v>Price (Extended hours)</v>
+    </spb>
+    <spb s="1">
       <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="10">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>4</v>
+      <v>1</v>
+      <v>8</v>
+      <v>9</v>
+      <v>1</v>
+    </spb>
+    <spb s="11">
+      <v xml:space="preserve">no fechamento </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v>GMT</v>
+      <v>Atraso de 30 minutos</v>
+    </spb>
+    <spb s="12">
+      <v>3</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="13">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -2709,6 +3284,69 @@
     <k n="Hora da última transação" t="i"/>
   </s>
   <s>
+    <k n="Alto" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Sede" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Descrição" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Funcionários" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Média de volume" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Ano de incorporação" t="s"/>
+    <k n="Ações em circulação" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Capitalização de mercado" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Funcionários" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="Média de volume" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Ano de incorporação" t="i"/>
+    <k n="Ações em circulação" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Capitalização de mercado" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+    <k n="Preço (Horário prolongado)" t="i"/>
+  </s>
+  <s>
+    <k n="Preço" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
+  </s>
+  <s>
     <k n="^Order" t="spba"/>
   </s>
 </spbStructures>
@@ -2772,19 +3410,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A2:G10" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="28">
       <calculatedColumnFormula>D3*E3*F3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2796,11 +3434,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}" name="TBL_Clientes" displayName="TBL_Clientes" ref="B5:F17" totalsRowShown="0">
   <autoFilter ref="B5:F17" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{894BC177-F0E3-4E5B-B116-57D4460B629A}" name="Nome "/>
-    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="38">
+    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="24">
       <calculatedColumnFormula>(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2812,12 +3450,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}" name="Tabela4" displayName="Tabela4" ref="B5:G10" totalsRowShown="0">
   <autoFilter ref="B5:G10" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{A293641D-B0BA-4BE6-8B27-19907B582309}" name="Descricao"/>
     <tableColumn id="3" xr3:uid="{715ACBE7-D796-468F-B4E9-B8C922438808}" name="Classificacao"/>
-    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="20">
       <calculatedColumnFormula>Tabela4[[#This Row],[Preco_venda]]-Tabela4[[#This Row],[Preco_Compra]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2836,32 +3474,42 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="E2:E9" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:G9" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
-  <autoFilter ref="B2:G9" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G9">
-    <sortCondition descending="1" ref="F2:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}" name="Titulo" displayName="Titulo" ref="G2:G17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="8">
+  <autoFilter ref="G2:G17" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{86479B66-7B9B-4831-8F81-262A0A4E6407}" name="Titulo" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B2:G16" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G16">
+    <sortCondition descending="1" ref="F2:F16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="12">
       <calculatedColumnFormula array="1">_FV(C3,"Símbolo do ticker",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="11">
       <calculatedColumnFormula array="1">_FV(C3,"Preço")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="28">
+    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="9">
       <calculatedColumnFormula>E3*F3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4340,17 +4988,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
@@ -4363,43 +5011,43 @@
       <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61" t="s">
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61" t="s">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="62"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="66"/>
       <c r="AC2" s="28"/>
       <c r="AD2" s="29"/>
     </row>
@@ -4497,8 +5145,8 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -5803,7 +6451,7 @@
       </c>
       <c r="F6">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>33.646646331340023</v>
+        <v>33.647240208011823</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -5821,7 +6469,7 @@
       </c>
       <c r="F7">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>22.18275744245113</v>
+        <v>22.183351319122934</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -5855,7 +6503,7 @@
       </c>
       <c r="F9">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5870,7 +6518,7 @@
       </c>
       <c r="F10">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -5885,7 +6533,7 @@
       </c>
       <c r="F11">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -5900,7 +6548,7 @@
       </c>
       <c r="F12">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -5915,7 +6563,7 @@
       </c>
       <c r="F13">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -5930,7 +6578,7 @@
       </c>
       <c r="F14">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -5945,7 +6593,7 @@
       </c>
       <c r="F15">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -5960,7 +6608,7 @@
       </c>
       <c r="F16">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -5975,7 +6623,7 @@
       </c>
       <c r="F17">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66886855356225</v>
+        <v>126.66946243023405</v>
       </c>
     </row>
   </sheetData>
@@ -6120,119 +6768,173 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD003B7-8D9A-4A40-894C-501A7BB2F555}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E3" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="67" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="69" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="68" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E6" s="15" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="69" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="68" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="E8" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="69" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="70" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="70" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="70" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="70" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="70" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="70" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="G15" s="70" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="70" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="70" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BCED-8FA9-40B2-88B4-47252BB8367C}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6271,7 +6973,7 @@
         <v>118</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="56" t="s">
         <v>121</v>
       </c>
       <c r="J2" t="s">
@@ -6292,26 +6994,26 @@
         <f t="array" aca="1" ref="D3" ca="1">_FV(C3,"Símbolo do ticker",TRUE)</f>
         <v>USIM5</v>
       </c>
-      <c r="E3" s="63" cm="1">
+      <c r="E3" s="55" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_FV(C3,"Preço")</f>
         <v>6.56</v>
       </c>
       <c r="F3" s="15">
         <v>115</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="55">
         <f ca="1">E3*F3</f>
         <v>754.4</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="65" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="67">
-        <v>780.61</v>
-      </c>
-      <c r="K3" s="67">
-        <v>116</v>
+      <c r="J3" s="71">
+        <v>3060.4500000000003</v>
+      </c>
+      <c r="K3" s="71">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -6325,25 +7027,25 @@
         <f t="array" aca="1" ref="D4" ca="1">_FV(C4,"Símbolo do ticker",TRUE)</f>
         <v>MXRF11</v>
       </c>
-      <c r="E4" s="63" cm="1">
+      <c r="E4" s="55" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_FV(C4,"Preço")</f>
         <v>9.27</v>
       </c>
       <c r="F4" s="15">
         <v>92</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="55">
         <f ca="1">E4*F4</f>
         <v>852.83999999999992</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="67">
-        <v>26.21</v>
-      </c>
-      <c r="K4" s="67">
-        <v>1</v>
+      <c r="J4" s="71">
+        <v>656</v>
+      </c>
+      <c r="K4" s="71">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -6357,191 +7059,396 @@
         <f t="array" aca="1" ref="D5" ca="1">_FV(C5,"Símbolo do ticker",TRUE)</f>
         <v>KISU11</v>
       </c>
-      <c r="E5" s="63" cm="1">
+      <c r="E5" s="55" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_FV(C5,"Preço")</f>
         <v>7.43</v>
       </c>
       <c r="F5" s="15">
         <v>54</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="55">
         <f ca="1">E5*F5</f>
         <v>401.21999999999997</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="71">
         <v>754.4</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="71">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="15" t="e" vm="4">
+        <v>120</v>
+      </c>
+      <c r="C6" s="15" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="D6" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_FV(C6,"Símbolo do ticker",TRUE)</f>
-        <v>BRCR11</v>
-      </c>
-      <c r="E6" s="63" cm="1">
+        <v>BBAS3</v>
+      </c>
+      <c r="E6" s="55" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_FV(C6,"Preço")</f>
-        <v>43.17</v>
+        <v>26.24</v>
       </c>
       <c r="F6" s="15">
-        <v>4</v>
-      </c>
-      <c r="G6" s="63">
+        <v>25</v>
+      </c>
+      <c r="G6" s="55">
         <f ca="1">E6*F6</f>
-        <v>172.68</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="67">
-        <v>1488.82</v>
-      </c>
-      <c r="K6" s="67">
-        <v>152</v>
+        <v>656</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="71">
+        <v>710</v>
+      </c>
+      <c r="K6" s="71">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="15" t="e" vm="5">
+        <v>120</v>
+      </c>
+      <c r="C7" s="15" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="D7" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(C7,"Símbolo do ticker",TRUE)</f>
-        <v>DEVA11</v>
-      </c>
-      <c r="E7" s="63" cm="1">
+        <v>PETR4</v>
+      </c>
+      <c r="E7" s="55" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_FV(C7,"Preço")</f>
-        <v>32.659999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="63">
+        <v>20</v>
+      </c>
+      <c r="G7" s="55">
         <f ca="1">E7*F7</f>
-        <v>65.319999999999993</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="67">
-        <v>172.72</v>
-      </c>
-      <c r="K7" s="67">
-        <v>4</v>
+        <v>710</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="71">
+        <v>940.05000000000007</v>
+      </c>
+      <c r="K7" s="71">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="15" t="e" vm="6">
+        <v>119</v>
+      </c>
+      <c r="C8" s="15" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(C8,"Símbolo do ticker",TRUE)</f>
-        <v>BBAS3</v>
-      </c>
-      <c r="E8" s="63" cm="1">
+        <v>CNES11</v>
+      </c>
+      <c r="E8" s="55" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_FV(C8,"Preço")</f>
-        <v>26.24</v>
+        <v>1.3</v>
       </c>
       <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="63">
+        <v>18</v>
+      </c>
+      <c r="G8" s="55">
         <f ca="1">E8*F8</f>
-        <v>26.24</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="J8" s="67">
-        <v>0</v>
-      </c>
-      <c r="K8" s="67">
-        <v>0</v>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="71">
+        <v>4093.2999999999997</v>
+      </c>
+      <c r="K8" s="71">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="15" t="e" vm="7">
+      <c r="C9" s="15" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(C9,"Símbolo do ticker",TRUE)</f>
-        <v>CNES11</v>
-      </c>
-      <c r="E9" s="63" cm="1">
+        <v>BRCR11</v>
+      </c>
+      <c r="E9" s="55" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_FV(C9,"Preço")</f>
-        <v>1.3</v>
+        <v>43.17</v>
       </c>
       <c r="F9" s="15">
+        <v>18</v>
+      </c>
+      <c r="G9" s="55">
+        <f ca="1">E9*F9</f>
+        <v>777.06000000000006</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="71">
+        <v>777.06000000000006</v>
+      </c>
+      <c r="K9" s="71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="15" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">_FV(C10,"Símbolo do ticker",TRUE)</f>
+        <v>DEVA11</v>
+      </c>
+      <c r="E10" s="55" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">_FV(C10,"Preço")</f>
+        <v>32.659999999999997</v>
+      </c>
+      <c r="F10" s="15">
+        <v>15</v>
+      </c>
+      <c r="G10" s="55">
+        <f ca="1">E10*F10</f>
+        <v>489.9</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="71">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="K10" s="71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="15" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_FV(C11,"Símbolo do ticker",TRUE)</f>
+        <v>VALE3</v>
+      </c>
+      <c r="E11" s="55" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">_FV(C11,"Preço")</f>
+        <v>62.67</v>
+      </c>
+      <c r="F11" s="15">
+        <v>15</v>
+      </c>
+      <c r="G11" s="55">
+        <f ca="1">E11*F11</f>
+        <v>940.05000000000007</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="71">
+        <v>489.9</v>
+      </c>
+      <c r="K11" s="71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="15" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_FV(C12,"Símbolo do ticker",TRUE)</f>
+        <v>XPML11</v>
+      </c>
+      <c r="E12" s="55" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_FV(C12,"Preço")</f>
+        <v>103.46</v>
+      </c>
+      <c r="F12" s="15">
+        <v>8</v>
+      </c>
+      <c r="G12" s="55">
+        <f ca="1">E12*F12</f>
+        <v>827.68</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="71">
+        <v>401.21999999999997</v>
+      </c>
+      <c r="K12" s="71">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="15" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_FV(C13,"Símbolo do ticker",TRUE)</f>
+        <v>KNIP11</v>
+      </c>
+      <c r="E13" s="55" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">_FV(C13,"Preço")</f>
+        <v>90.15</v>
+      </c>
+      <c r="F13" s="15">
+        <v>8</v>
+      </c>
+      <c r="G13" s="55">
+        <f ca="1">E13*F13</f>
+        <v>721.2</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="71">
+        <v>852.83999999999992</v>
+      </c>
+      <c r="K13" s="71">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="e" cm="1" vm="16">
+        <f t="array" ref="D14">_FV(C14,"Símbolo do ticker",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="55" t="e" cm="1" vm="17">
+        <f t="array" ref="E14">_FV(C14,"Preço")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="55" t="e" vm="18">
+        <f>E14*F14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="71">
+        <v>721.2</v>
+      </c>
+      <c r="K14" s="71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="e" cm="1" vm="16">
+        <f t="array" ref="D15">_FV(C15,"Símbolo do ticker",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="55" t="e" cm="1" vm="17">
+        <f t="array" ref="E15">_FV(C15,"Preço")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="55" t="e" vm="18">
+        <f>E15*F15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="71">
+        <v>827.68</v>
+      </c>
+      <c r="K15" s="71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="e" cm="1" vm="16">
+        <f t="array" ref="D16">_FV(C16,"Símbolo do ticker",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="55" t="e" cm="1" vm="17">
+        <f t="array" ref="E16">_FV(C16,"Preço")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="55" t="e" vm="18">
+        <f>E16*F16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="71">
         <v>0</v>
       </c>
-      <c r="G9" s="63">
-        <f ca="1">E9*F9</f>
+      <c r="K16" s="71"/>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="58" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="71">
         <v>0</v>
       </c>
-      <c r="I9" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="67">
-        <v>65.28</v>
-      </c>
-      <c r="K9" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H10" s="63"/>
-      <c r="I10" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="67">
-        <v>397.98</v>
-      </c>
-      <c r="K10" s="67">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="67">
-        <v>852.83999999999992</v>
-      </c>
-      <c r="K11" s="67">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="65" t="s">
+      <c r="K17" s="71"/>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="67">
-        <v>2269.4300000000003</v>
-      </c>
-      <c r="K12" s="67">
-        <v>268</v>
+      <c r="J18" s="71">
+        <v>7153.7500000000009</v>
+      </c>
+      <c r="K18" s="71">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:G9">
+  <conditionalFormatting sqref="F3:F16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4E1012E-4ABD-44FD-9823-23267227E537}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G16">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6555,23 +7462,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F9">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B4E1012E-4ABD-44FD-9823-23267227E537}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{CE8D9021-6C70-4CDE-AEBE-7BE487BB8AF0}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16" xr:uid="{CE8D9021-6C70-4CDE-AEBE-7BE487BB8AF0}">
       <formula1>INDIRECT("tipo")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16" xr:uid="{F7B0A2CC-B403-4067-9DA2-5A714D22EECF}">
+      <formula1>INDIRECT("Titulo")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6581,6 +7477,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4E1012E-4ABD-44FD-9823-23267227E537}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F16</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8644F8C8-B3FC-4E45-BE3B-E3A406F082C8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -6592,20 +7501,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G3:G9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B4E1012E-4ABD-44FD-9823-23267227E537}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F3:F9</xm:sqref>
+          <xm:sqref>G3:G16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Programação em microinformatica/Aula ILM-2-2024.xlsx
+++ b/Programação em microinformatica/Aula ILM-2-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\FATEC---Aulas\Programação em microinformatica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643FF47-00D3-4BE8-9789-9FA9407D4383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB963EAE-2D02-4C7F-BAFD-41DA130D1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{638BBB0D-7911-4F79-9DFF-80DA470C685B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId10"/>
+    <pivotCache cacheId="64" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -174,21 +174,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="45"/>
+          <xlrd:rvb i="47"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="46"/>
+          <xlrd:rvb i="50"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="47"/>
+          <xlrd:rvb i="53"/>
         </ext>
       </extLst>
     </bk>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
   <si>
     <t>Receitas</t>
   </si>
@@ -695,7 +695,19 @@
     <t>XPML11</t>
   </si>
   <si>
-    <t>(vazio)</t>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>BOVB11</t>
+  </si>
+  <si>
+    <t>XBOV11</t>
+  </si>
+  <si>
+    <t>Variação (%)</t>
+  </si>
+  <si>
+    <t>Variação dia (%)</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,6 +1143,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,23 +1177,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="99">
     <dxf>
       <font>
         <b/>
@@ -1206,32 +1233,209 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1278,24 +1482,28 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1520,45 +1728,66 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45601.00642928241" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45601.657683333331" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{DC97B902-0B00-47C8-BEFA-437C2BFE2564}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:G16" sheet="Investimento"/>
+    <worksheetSource name="Tabela5"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="TIPO" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="AÇÃO"/>
         <s v="FI"/>
-        <m/>
+        <s v="ETF"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="RAZÃO SOCIAL" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="TICKER" numFmtId="0">
-      <sharedItems count="12">
+      <sharedItems count="14">
+        <s v="VALE3"/>
+        <s v="MXRF11"/>
+        <s v="XPML11"/>
+        <s v="BRCR11"/>
+        <s v="XBOV11"/>
         <s v="USIM5"/>
-        <s v="MXRF11"/>
+        <s v="KNIP11"/>
+        <s v="PETR4"/>
+        <s v="RAIZ4"/>
+        <s v="BOVB11"/>
+        <s v="BBAS3"/>
+        <s v="DEVA11"/>
         <s v="KISU11"/>
-        <s v="BBAS3"/>
-        <s v="PETR4"/>
         <s v="CNES11"/>
-        <s v="BRCR11"/>
-        <s v="DEVA11"/>
-        <s v="VALE3"/>
-        <s v="XPML11"/>
-        <s v="KNIP11"/>
-        <s v="#CAMPO!"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PREÇO" numFmtId="167">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.3" maxValue="103.46"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.32" maxValue="132.57"/>
     </cacheField>
     <cacheField name="COTAS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="115"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="237"/>
     </cacheField>
     <cacheField name="VALOR" numFmtId="167">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="23.400000000000002" maxValue="940.05000000000007"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.76" maxValue="931.19999999999993" count="14">
+        <n v="931.19999999999993"/>
+        <n v="854.68"/>
+        <n v="826.24"/>
+        <n v="779.58"/>
+        <n v="766.98"/>
+        <n v="762.44999999999993"/>
+        <n v="723.2"/>
+        <n v="706.59999999999991"/>
+        <n v="687.3"/>
+        <n v="662.84999999999991"/>
+        <n v="655"/>
+        <n v="489.45000000000005"/>
+        <n v="399.6"/>
+        <n v="23.76"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Variação (%)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-9.4140000000000005E-3" maxValue="1.7674000000000002E-2"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1571,7 +1800,7 @@
       </xxpvi:cacheVersionInfo>
     </ext>
     <ext xmlns:xprd="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotRichData" uri="{2C874A73-7782-4A18-856F-96AC7E287872}">
-      <xprd:richInfo pivotCacheGuid="{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}" pivotIgnoreInvalidCache="1" r:id="rId1"/>
+      <xprd:richInfo pivotCacheGuid="{DC97B902-0B00-47C8-BEFA-437C2BFE2564}" pivotIgnoreInvalidCache="1" r:id="rId1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1581,158 +1810,194 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
   <r>
     <x v="0"/>
-    <s v="Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)"/>
+    <s v="VALE S.A. (BVMF:VALE3)"/>
     <x v="0"/>
-    <n v="6.56"/>
-    <n v="115"/>
-    <n v="754.4"/>
+    <n v="62.08"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="-9.4140000000000005E-3"/>
   </r>
   <r>
     <x v="1"/>
     <s v="MAXI RENDA FII ETF (BVMF:MXRF11)"/>
     <x v="1"/>
-    <n v="9.27"/>
+    <n v="9.2899999999999991"/>
     <n v="92"/>
-    <n v="852.83999999999992"/>
+    <x v="1"/>
+    <n v="2.1570000000000001E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)"/>
+    <x v="2"/>
+    <n v="103.28"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="-1.7399999999999998E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)"/>
+    <x v="3"/>
+    <n v="43.31"/>
+    <n v="18"/>
+    <x v="3"/>
+    <n v="3.2429999999999998E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Caixa ETF Ibovespa FI (BVMF:XBOV11)"/>
+    <x v="4"/>
+    <n v="127.83"/>
+    <n v="6"/>
+    <x v="4"/>
+    <n v="1.7674000000000002E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)"/>
+    <x v="5"/>
+    <n v="6.63"/>
+    <n v="115"/>
+    <x v="5"/>
+    <n v="1.0671E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)"/>
+    <x v="6"/>
+    <n v="90.4"/>
+    <n v="8"/>
+    <x v="6"/>
+    <n v="2.7729999999999999E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)"/>
+    <x v="7"/>
+    <n v="35.33"/>
+    <n v="20"/>
+    <x v="7"/>
+    <n v="-4.7889999999999999E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Raízen S.A. (BVMF:RAIZ4)"/>
+    <x v="8"/>
+    <n v="2.9"/>
+    <n v="237"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="ETF Bradesco Ibovespa (BVMF:BOVB11)"/>
+    <x v="9"/>
+    <n v="132.57"/>
+    <n v="5"/>
+    <x v="9"/>
+    <n v="5.2829999999999999E-4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Banco do Brasil S.A. (BVMF:BBAS3)"/>
+    <x v="10"/>
+    <n v="26.2"/>
+    <n v="25"/>
+    <x v="10"/>
+    <n v="-1.5240000000000002E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)"/>
+    <x v="11"/>
+    <n v="32.630000000000003"/>
+    <n v="15"/>
+    <x v="11"/>
+    <n v="-9.1859999999999999E-4"/>
   </r>
   <r>
     <x v="1"/>
     <s v="KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)"/>
-    <x v="2"/>
-    <n v="7.43"/>
+    <x v="12"/>
+    <n v="7.4"/>
     <n v="54"/>
-    <n v="401.21999999999997"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Banco do Brasil S.A. (BVMF:BBAS3)"/>
-    <x v="3"/>
-    <n v="26.24"/>
-    <n v="25"/>
-    <n v="656"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)"/>
-    <x v="4"/>
-    <n v="35.5"/>
-    <n v="20"/>
-    <n v="710"/>
+    <x v="12"/>
+    <n v="-4.0379999999999999E-3"/>
   </r>
   <r>
     <x v="1"/>
     <s v="FDO INV IMOB FII CENESP CF (BVMF:CNES11)"/>
-    <x v="5"/>
-    <n v="1.3"/>
+    <x v="13"/>
+    <n v="1.32"/>
     <n v="18"/>
-    <n v="23.400000000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)"/>
-    <x v="6"/>
-    <n v="43.17"/>
-    <n v="18"/>
-    <n v="777.06000000000006"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)"/>
-    <x v="7"/>
-    <n v="32.659999999999997"/>
-    <n v="15"/>
-    <n v="489.9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="VALE S.A. (BVMF:VALE3)"/>
-    <x v="8"/>
-    <n v="62.67"/>
-    <n v="15"/>
-    <n v="940.05000000000007"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)"/>
-    <x v="9"/>
-    <n v="103.46"/>
-    <n v="8"/>
-    <n v="827.68"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)"/>
-    <x v="10"/>
-    <n v="90.15"/>
-    <n v="8"/>
-    <n v="721.2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="11"/>
-    <s v="#CAMPO!"/>
-    <m/>
-    <s v="#CAMPO!"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="11"/>
-    <s v="#CAMPO!"/>
-    <m/>
-    <s v="#CAMPO!"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="11"/>
-    <s v="#CAMPO!"/>
-    <m/>
-    <s v="#CAMPO!"/>
+    <x v="13"/>
+    <n v="1.5384999999999999E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5F8DF67-3B4B-45AF-A3A4-D03346FA002A}" name="Tabela dinâmica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:K18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB375931-3B56-40BB-BED0-559455DBCCA8}" name="Tabela dinâmica8" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J2:M20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="3"/>
         <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="15">
+        <item x="10"/>
         <item x="3"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="15">
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
         <item x="6"/>
         <item x="5"/>
-        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
         <item x="2"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="167" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -1740,13 +2005,16 @@
       <x/>
     </i>
     <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
       <x v="7"/>
     </i>
     <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
       <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i>
       <x v="1"/>
@@ -1767,16 +2035,19 @@
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="10"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -1785,18 +2056,96 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de VALOR" fld="5" baseField="0" baseItem="0"/>
+  <dataFields count="3">
+    <dataField name="Variação dia (%)" fld="6" baseField="0" baseItem="0" numFmtId="10"/>
     <dataField name="Soma de COTAS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de VALOR" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
+  <formats count="8">
+    <format dxfId="70">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1917,61 +2266,29 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
   <a r="15">
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="r">47</v>
-    <v t="r">47</v>
-    <v t="r">47</v>
+    <v t="r">55</v>
+    <v t="r">57</v>
+    <v t="r">59</v>
+    <v t="r">61</v>
+    <v t="r">63</v>
+    <v t="r">65</v>
+    <v t="r">67</v>
+    <v t="r">69</v>
+    <v t="r">71</v>
+    <v t="r">73</v>
+    <v t="r">75</v>
+    <v t="r">77</v>
+    <v t="r">79</v>
+    <v t="r">81</v>
     <v t="i">2</v>
-  </a>
-  <a r="15">
-    <v t="r">2</v>
-    <v t="r">5</v>
-    <v t="r">8</v>
-    <v t="r">17</v>
-    <v t="r">23</v>
-    <v t="r">20</v>
-    <v t="r">11</v>
-    <v t="r">14</v>
-    <v t="r">26</v>
-    <v t="r">44</v>
-    <v t="r">35</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="i">2</v>
-  </a>
-  <a r="13">
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="e">#NULL!</v>
-    <v t="r">47</v>
-    <v t="i">1</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="52">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="84">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnjh7&amp;q=BVMF%3aUSIM5&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -1993,32 +2310,32 @@
     <v>5.42</v>
     <v>BVMF</v>
     <v>1253079000</v>
-    <v>6.63</v>
+    <v>6.69</v>
     <v>1954</v>
-    <v>6.37</v>
-    <v>1.1356999999999999</v>
+    <v>6.55</v>
+    <v>1.1354</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7750435000</v>
+    <v>8100526000</v>
     <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
     <v>BVMF</v>
-    <v>6.32</v>
+    <v>6.56</v>
     <v>51182</v>
-    <v>45600.947916666664</v>
+    <v>45601.877789351849</v>
     <v>0</v>
-    <v>15586120</v>
+    <v>15435620</v>
     <v>BRL</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
-    <v>6.4</v>
-    <v>6.56</v>
+    <v>6.62</v>
+    <v>6.65</v>
     <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
     <v>Metals &amp; Mining</v>
     <v>USIM5</v>
     <v>Ações</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
-    <v>0.24</v>
-    <v>3.7975000000000002E-2</v>
-    <v>11035200</v>
+    <v>0.09</v>
+    <v>1.3720000000000001E-2</v>
+    <v>6528700</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -2043,22 +2360,22 @@
     <v>10.02</v>
     <v>9.19</v>
     <v>BVMF</v>
-    <v>9.4700000000000006</v>
-    <v>9.19</v>
+    <v>9.35</v>
+    <v>9.27</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.42</v>
-    <v>45600.947916666664</v>
+    <v>9.27</v>
+    <v>45601.877662037034</v>
     <v>3</v>
     <v>BRL</v>
     <v>MAXI RENDA FII ETF</v>
-    <v>9.44</v>
-    <v>9.27</v>
+    <v>9.33</v>
+    <v>9.31</v>
     <v>MXRF11</v>
     <v>Fundos mais negociados</v>
     <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
-    <v>-0.15</v>
-    <v>-1.5924000000000001E-2</v>
-    <v>4267846</v>
+    <v>0.04</v>
+    <v>4.3150000000000003E-3</v>
+    <v>1836391</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -2083,22 +2400,22 @@
     <v>8.27</v>
     <v>7.16</v>
     <v>BVMF</v>
+    <v>7.41</v>
+    <v>7.33</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>7.43</v>
-    <v>7.31</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>7.37</v>
-    <v>45600.947916666664</v>
+    <v>45601.875000092186</v>
     <v>6</v>
     <v>BRL</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
-    <v>7.35</v>
-    <v>7.43</v>
+    <v>7.37</v>
+    <v>7.36</v>
     <v>KISU11</v>
     <v>Fundos mais negociados</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
-    <v>0.06</v>
-    <v>8.1410000000000007E-3</v>
-    <v>78743</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-9.4210000000000006E-3</v>
+    <v>50471</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -2121,24 +2438,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>56.76</v>
-    <v>43.02</v>
+    <v>42.82</v>
     <v>BVMF</v>
-    <v>43.75</v>
-    <v>43.1</v>
+    <v>43.8</v>
+    <v>42.82</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>43.61</v>
-    <v>45600.947916666664</v>
+    <v>43.17</v>
+    <v>45601.876400462963</v>
     <v>9</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>43.61</v>
-    <v>43.17</v>
+    <v>43.2</v>
+    <v>43.8</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>-0.44</v>
-    <v>-1.0088999999999999E-2</v>
-    <v>50160</v>
+    <v>0.63</v>
+    <v>1.4593E-2</v>
+    <v>41245</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -2163,22 +2480,22 @@
     <v>46.43</v>
     <v>32.5</v>
     <v>BVMF</v>
-    <v>32.99</v>
-    <v>32.5</v>
+    <v>32.83</v>
+    <v>32.53</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>32.65</v>
-    <v>45600.947916666664</v>
+    <v>32.659999999999997</v>
+    <v>45601.875011574077</v>
     <v>12</v>
     <v>BRL</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
-    <v>32.6</v>
     <v>32.659999999999997</v>
+    <v>32.83</v>
     <v>DEVA11</v>
     <v>Fundos mais negociados</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
-    <v>0.01</v>
-    <v>3.0630000000000002E-4</v>
-    <v>19731</v>
+    <v>0.17</v>
+    <v>5.2049999999999996E-3</v>
+    <v>17399</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -2204,32 +2521,32 @@
     <v>22.49</v>
     <v>BVMF</v>
     <v>5730834000</v>
-    <v>26.42</v>
+    <v>26.29</v>
     <v>1808</v>
-    <v>26.15</v>
-    <v>1.0382</v>
+    <v>26.06</v>
+    <v>1.0381</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>150377084160</v>
+    <v>150491700840</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>26.09</v>
+    <v>26.24</v>
     <v>85953</v>
-    <v>45600.947916666664</v>
+    <v>45601.87777777778</v>
     <v>15</v>
-    <v>15328950</v>
+    <v>14035050</v>
     <v>BRL</v>
     <v>Banco do Brasil S.A.</v>
     <v>Banco do Brasil S.A.</v>
     <v>26.27</v>
-    <v>26.24</v>
+    <v>26.26</v>
     <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
-    <v>0.15</v>
-    <v>5.7489999999999998E-3</v>
-    <v>12169700</v>
+    <v>0.02</v>
+    <v>7.6219999999999999E-4</v>
+    <v>13004100</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -2254,22 +2571,22 @@
     <v>3.73</v>
     <v>1.23</v>
     <v>BVMF</v>
-    <v>1.35</v>
+    <v>1.34</v>
     <v>1.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1.31</v>
-    <v>45600.947916666664</v>
+    <v>1.3</v>
+    <v>45601.873379629629</v>
     <v>18</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII CENESP CF</v>
-    <v>1.31</v>
-    <v>1.3</v>
+    <v>1.32</v>
+    <v>1.32</v>
     <v>CNES11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
-    <v>-0.01</v>
-    <v>-7.6339999999999993E-3</v>
-    <v>45791</v>
+    <v>0.02</v>
+    <v>1.5384999999999999E-2</v>
+    <v>36516</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -2295,32 +2612,32 @@
     <v>28.86</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>35.950000000000003</v>
+    <v>35.6</v>
     <v>1953</v>
-    <v>35.380000000000003</v>
-    <v>1.2868999999999999</v>
+    <v>35.03</v>
+    <v>1.288</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>483470300000</v>
+    <v>484216200000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>35.42</v>
+    <v>35.5</v>
     <v>46730</v>
-    <v>45600.947916666664</v>
+    <v>45601.87767361111</v>
     <v>21</v>
-    <v>27836250</v>
+    <v>27421280</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>35.9</v>
     <v>35.5</v>
+    <v>35.4</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>0.08</v>
-    <v>2.2589999999999997E-3</v>
-    <v>24003600</v>
+    <v>-0.1</v>
+    <v>-2.8170000000000001E-3</v>
+    <v>21800200</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -2346,32 +2663,32 @@
     <v>55.48</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>62.87</v>
+    <v>63.11</v>
     <v>1943</v>
-    <v>62.12</v>
-    <v>0.62270000000000003</v>
+    <v>61.96</v>
+    <v>0.62229999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>284459631360</v>
+    <v>281917786880</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>62.03</v>
+    <v>62.67</v>
     <v>66807</v>
-    <v>45600.947916666664</v>
+    <v>45601.877592592595</v>
     <v>24</v>
-    <v>17688430</v>
+    <v>17034140</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>62.4</v>
-    <v>62.67</v>
+    <v>62.95</v>
+    <v>62.11</v>
     <v>Torre Oscar Niemeyer, Praia de Botafogo n 186 salas 1901 e outras, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 34.855-000 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>0.64</v>
-    <v>1.0318000000000001E-2</v>
-    <v>12360000</v>
+    <v>-0.56000000000000005</v>
+    <v>-8.9359999999999995E-3</v>
+    <v>15081700</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -2397,32 +2714,32 @@
     <v>10.98</v>
     <v>BVMF</v>
     <v>15757660000</v>
-    <v>12.71</v>
+    <v>12.74</v>
     <v>2005</v>
-    <v>12.51</v>
-    <v>0.6956</v>
+    <v>12.57</v>
+    <v>0.69469999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>199649552200</v>
+    <v>199176822400</v>
     <v>A Ambev SA, anteriormente Inbev Participações Societarias SA, é uma empresa brasileira com sede no setor cervejeiro. A Companhia produz, distribui e vende cerveja, refrigerantes com gás (CSDs) e outras bebidas não alcoólicas e não carbonatadas (NANC) nas Américas. As atividades da Companhia estão divididas em três segmentos: América Latina do Norte, incluindo venda de cerveja, refrigerantes e bebidas NANC no Brasil, além de operações na República Dominicana, São Vicente, Antígua, Dominica, Cuba, Guatemala, El Salvador, Honduras, Nicarágua, Barbados e Panamá; América Latina Sul, distribuindo produtos na Argentina, Bolívia, Paraguai, Uruguai, Chile; e Canadá, representado pelas operações da Labatt, que inclui vendas no Canadá e algumas exportações para o mercado dos EUA. A Companhia comercializa produtos com várias marcas, como Adriatica, Brahma, Leffe, Budweiser, Corona, PepsiCo e Lipton. É uma subsidiária da Interbrew International BV.</v>
     <v>BVMF</v>
-    <v>12.54</v>
+    <v>12.67</v>
     <v>43000</v>
-    <v>45600.947916666664</v>
+    <v>45601.87740740741</v>
     <v>27</v>
-    <v>27738700</v>
+    <v>26795570</v>
     <v>BRL</v>
     <v>Ambev S.A.</v>
     <v>Ambev S.A.</v>
-    <v>12.59</v>
-    <v>12.67</v>
+    <v>12.6</v>
+    <v>12.64</v>
     <v>Rua Dr. Renato Paes de Barros, 1.017, 4 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.530-001 BR</v>
     <v>Beverages</v>
     <v>ABEV3</v>
     <v>Ações</v>
     <v>Ambev S.A. (BVMF:ABEV3)</v>
-    <v>0.13</v>
-    <v>1.0366999999999999E-2</v>
-    <v>19442900</v>
+    <v>-0.03</v>
+    <v>-2.3680000000000003E-3</v>
+    <v>15971300</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -2431,50 +2748,49 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=c2yvmw&amp;q=BVMF%3aRAIZ4&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="4">
+  <rv s="1">
     <v>pt-BR</v>
     <v>c2yvmw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>10</v>
-    <v>11</v>
+    <v>0</v>
+    <v>1</v>
     <v>Raízen S.A. (BVMF:RAIZ4)</v>
     <v>3</v>
-    <v>12</v>
+    <v>4</v>
     <v>Finance</v>
-    <v>13</v>
+    <v>5</v>
     <v>4.1900000000000004</v>
     <v>2.64</v>
     <v>BVMF</v>
     <v>1358937000</v>
     <v>2.91</v>
     <v>1961</v>
-    <v>2.85</v>
+    <v>2.83</v>
     <v>1.4059999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>3940917300</v>
     <v>A Raízen SA, anteriormente conhecida como Raízen Combustiveis SA, é uma empresa com sede no Brasil que atua no setor de energia. As atividades da Empresa são divididas em quatro linhas de negócios: Renováveis, Marketing e Serviços, Proximidade e Açúcar. A divisão Renewables atua na produção de etanol, etanol de segunda geração, bioeletricidade, biogás e bioprodutos. A divisão de Marketing e Serviços está focada na distribuição e venda de combustíveis para postos de gasolina da Shell, aeroportos e outros clientes Business-to-Business (B2B). A divisão Proximity está envolvida na operação de lojas de conveniência sob as marcas OXXO e Shell Select. A divisão Açúcar consiste na produção de açúcar, como cristalino, líquido, refinado, orgânico e Polarização Muito Alta (VHP), entre outros. A empresa atua no Brasil e na Argentina.</v>
     <v>BVMF</v>
-    <v>2.85</v>
+    <v>2.9</v>
     <v>45417</v>
-    <v>45600.947916666664</v>
+    <v>45601.876747685186</v>
     <v>30</v>
     <v>14070390</v>
     <v>BRL</v>
     <v>Raízen S.A.</v>
     <v>Raízen S.A.</v>
-    <v>2.86</v>
+    <v>2.89</v>
     <v>2.9</v>
-    <v>2.88</v>
     <v>Avenida Almirante Barroso, n. 81, Sala 32B109 36 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-004 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RAIZ4</v>
     <v>Ações</v>
     <v>Raízen S.A. (BVMF:RAIZ4)</v>
-    <v>0.05</v>
-    <v>1.7544000000000001E-2</v>
-    <v>17627100</v>
+    <v>0</v>
+    <v>0</v>
+    <v>12931900</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -2499,22 +2815,22 @@
     <v>94.7</v>
     <v>81.709999999999994</v>
     <v>BVMF</v>
-    <v>91.49</v>
+    <v>90.94</v>
+    <v>90.16</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>90.15</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>91.51</v>
-    <v>45600.947916666664</v>
+    <v>45601.875173611108</v>
     <v>33</v>
     <v>BRL</v>
     <v>KINEA INDICES DE PRECOS FDO INV IMOB CF</v>
-    <v>91.49</v>
-    <v>90.15</v>
+    <v>90.22</v>
+    <v>90.78</v>
     <v>KNIP11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
-    <v>-1.36</v>
-    <v>-1.4862E-2</v>
-    <v>83696</v>
+    <v>0.63</v>
+    <v>6.9879999999999994E-3</v>
+    <v>86315</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -2539,22 +2855,22 @@
     <v>158.47999999999999</v>
     <v>135.12</v>
     <v>BVMF</v>
-    <v>137.30000000000001</v>
-    <v>136.65</v>
+    <v>137</v>
+    <v>136.44</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>137.30000000000001</v>
-    <v>45600.947916666664</v>
+    <v>137</v>
+    <v>45601.877210648148</v>
     <v>36</v>
     <v>BRL</v>
     <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF</v>
     <v>137</v>
-    <v>137</v>
+    <v>136.9</v>
     <v>KNRI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF (BVMF:KNRI11)</v>
-    <v>-0.3</v>
-    <v>-2.1849999999999999E-3</v>
-    <v>34806</v>
+    <v>-0.1</v>
+    <v>-7.2990000000000001E-4</v>
+    <v>34504</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -2579,22 +2895,22 @@
     <v>161.66</v>
     <v>143.87</v>
     <v>BVMF</v>
-    <v>155.72999999999999</v>
-    <v>153</v>
+    <v>154.5</v>
+    <v>153.1</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>154.5</v>
-    <v>45600.947916666664</v>
+    <v>153.03</v>
+    <v>45601.877488425926</v>
     <v>39</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>154.5</v>
-    <v>153.03</v>
+    <v>153.99</v>
+    <v>153.38</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
-    <v>-1.47</v>
-    <v>-9.5150000000000009E-3</v>
-    <v>74077</v>
+    <v>0.35</v>
+    <v>2.287E-3</v>
+    <v>40823</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -2619,63 +2935,729 @@
     <v>112.78</v>
     <v>100.18</v>
     <v>BVMF</v>
-    <v>104</v>
-    <v>103.11</v>
+    <v>103.98</v>
+    <v>103</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>103.41</v>
-    <v>45600.947916666664</v>
+    <v>103.46</v>
+    <v>45601.877326388887</v>
     <v>42</v>
     <v>BRL</v>
     <v>XP MALLS FDO INV IMOB FII ETF</v>
-    <v>103.51</v>
-    <v>103.46</v>
+    <v>103.6</v>
+    <v>103.52</v>
     <v>XPML11</v>
     <v>Fundos mais negociados</v>
     <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
-    <v>0.05</v>
-    <v>4.8349999999999999E-4</v>
-    <v>132224</v>
+    <v>0.06</v>
+    <v>5.7989999999999995E-4</v>
+    <v>106125</v>
   </rv>
   <rv s="2">
     <v>43</v>
   </rv>
-  <rv s="5">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bx3d27&amp;q=BVMF%3aGOLD11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bx3d27</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>Trend ETF LBMA Ouro FIInd IE (BVMF:GOLD11)</v>
+    <v>8</v>
     <v>12</v>
-    <v>Símbolo do ticker</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>16.91</v>
+    <v>10</v>
+    <v>BVMF</v>
+    <v>16.7</v>
+    <v>16.5</v>
+    <v>0.9768</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>852866523.01999998</v>
+    <v>16.62</v>
+    <v>45601.872071759259</v>
+    <v>45</v>
+    <v>BRL</v>
+    <v>Trend ETF LBMA Ouro FIInd IE</v>
+    <v>16.63</v>
+    <v>16.55</v>
+    <v>GOLD11</v>
+    <v>Fundos mais negociados</v>
+    <v>Trend ETF LBMA Ouro FIInd IE (BVMF:GOLD11)</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-4.2120000000000005E-3</v>
+    <v>1193108</v>
+  </rv>
+  <rv s="2">
+    <v>46</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bqq2sm&amp;q=BVMF%3aBOVB11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bqq2sm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>ETF Bradesco Ibovespa (BVMF:BOVB11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>139.37</v>
+    <v>118.8</v>
+    <v>BVMF</v>
+    <v>132.88999999999999</v>
+    <v>132.21</v>
+    <v>1.0012000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>1495097041.0699999</v>
+    <v>132.5</v>
+    <v>45601.873668981483</v>
+    <v>48</v>
+    <v>BRL</v>
+    <v>ETF Bradesco Ibovespa</v>
+    <v>132.51</v>
+    <v>132.69999999999999</v>
+    <v>BOVB11</v>
+    <v>Fundos mais negociados</v>
+    <v>ETF Bradesco Ibovespa (BVMF:BOVB11)</v>
+    <v>0.2</v>
+    <v>1.5090000000000001E-3</v>
+    <v>897</v>
+  </rv>
+  <rv s="2">
+    <v>49</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bglxww&amp;q=BVMF%3aXBOV11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bglxww</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>Caixa ETF Ibovespa FI (BVMF:XBOV11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>135.33000000000001</v>
+    <v>116.13</v>
+    <v>BVMF</v>
+    <v>127.84</v>
+    <v>127.84</v>
+    <v>0.98380000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>76298870.719999999</v>
+    <v>127.83</v>
+    <v>45601.872395833336</v>
+    <v>51</v>
+    <v>BRL</v>
+    <v>Caixa ETF Ibovespa FI</v>
+    <v>127.84</v>
+    <v>127.84</v>
+    <v>XBOV11</v>
+    <v>Fundos mais negociados</v>
+    <v>Caixa ETF Ibovespa FI (BVMF:XBOV11)</v>
+    <v>0.01</v>
+    <v>7.8230000000000001E-5</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>52</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnjsm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
     <v>0</v>
+    <v>1</v>
+    <v>VALE S.A. (BVMF:VALE3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>72.209999999999994</v>
+    <v>55.48</v>
+    <v>BVMF</v>
+    <v>4539008000</v>
+    <v>63.11</v>
+    <v>1943</v>
+    <v>61.96</v>
+    <v>0.62229999999999996</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>281781616640</v>
+    <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
+    <v>BVMF</v>
+    <v>62.67</v>
+    <v>66807</v>
+    <v>45601.772188414063</v>
+    <v>24</v>
+    <v>17034140</v>
+    <v>BRL</v>
+    <v>VALE S.A.</v>
+    <v>VALE S.A.</v>
+    <v>62.95</v>
+    <v>62.08</v>
+    <v>Torre Oscar Niemeyer, Praia de Botafogo n 186 salas 1901 e outras, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 34.855-000 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>VALE3</v>
+    <v>Ações</v>
+    <v>VALE S.A. (BVMF:VALE3)</v>
+    <v>-0.59</v>
+    <v>-9.4140000000000005E-3</v>
+    <v>10611700</v>
+  </rv>
+  <rv s="2">
+    <v>54</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apn14c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>10.02</v>
+    <v>9.19</v>
+    <v>BVMF</v>
+    <v>9.35</v>
+    <v>9.27</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>9.27</v>
+    <v>45601.772153587503</v>
+    <v>3</v>
+    <v>BRL</v>
+    <v>MAXI RENDA FII ETF</v>
+    <v>9.33</v>
+    <v>9.2899999999999991</v>
+    <v>MXRF11</v>
+    <v>Fundos mais negociados</v>
+    <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
+    <v>0.02</v>
+    <v>2.1570000000000001E-3</v>
+    <v>1437739</v>
+  </rv>
+  <rv s="2">
+    <v>56</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bgly3m</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>112.78</v>
+    <v>100.18</v>
+    <v>BVMF</v>
+    <v>103.98</v>
+    <v>103</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>103.46</v>
+    <v>45601.772126596872</v>
+    <v>42</v>
+    <v>BRL</v>
+    <v>XP MALLS FDO INV IMOB FII ETF</v>
+    <v>103.6</v>
+    <v>103.28</v>
+    <v>XPML11</v>
+    <v>Fundos mais negociados</v>
+    <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
+    <v>-0.18</v>
+    <v>-1.7399999999999998E-3</v>
+    <v>74297</v>
+  </rv>
+  <rv s="2">
+    <v>58</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apm3rw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>56.76</v>
+    <v>42.82</v>
+    <v>BVMF</v>
+    <v>43.57</v>
+    <v>42.82</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>43.17</v>
+    <v>45601.772187499999</v>
+    <v>9</v>
+    <v>BRL</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
+    <v>43.2</v>
+    <v>43.31</v>
+    <v>BRCR11</v>
+    <v>Fundos mais negociados</v>
+    <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
+    <v>0.14000000000000001</v>
+    <v>3.2429999999999998E-3</v>
+    <v>33259</v>
+  </rv>
+  <rv s="2">
+    <v>60</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bglxww</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>Caixa ETF Ibovespa FI (BVMF:XBOV11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>135.33000000000001</v>
+    <v>116.13</v>
+    <v>BVMF</v>
+    <v>127.83</v>
+    <v>126.29</v>
+    <v>0.98380000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>76298870.719999999</v>
+    <v>125.61</v>
+    <v>45600.947916666664</v>
+    <v>51</v>
+    <v>BRL</v>
+    <v>Caixa ETF Ibovespa FI</v>
+    <v>126.29</v>
+    <v>127.83</v>
+    <v>XBOV11</v>
+    <v>Fundos mais negociados</v>
+    <v>Caixa ETF Ibovespa FI (BVMF:XBOV11)</v>
+    <v>2.2200000000000002</v>
+    <v>1.7674000000000002E-2</v>
+    <v>870</v>
+  </rv>
+  <rv s="2">
+    <v>62</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnjh7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>10.89</v>
+    <v>5.42</v>
+    <v>BVMF</v>
+    <v>1253079000</v>
+    <v>6.66</v>
+    <v>1954</v>
+    <v>6.55</v>
+    <v>1.1354</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>8100526000</v>
+    <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
+    <v>BVMF</v>
+    <v>6.56</v>
+    <v>51182</v>
+    <v>45601.772137291409</v>
+    <v>0</v>
+    <v>15435620</v>
+    <v>BRL</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
+    <v>6.62</v>
+    <v>6.63</v>
+    <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>USIM5</v>
+    <v>Ações</v>
+    <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.0671E-2</v>
+    <v>3490900</v>
+  </rv>
+  <rv s="2">
+    <v>64</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apmubh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>94.7</v>
+    <v>81.709999999999994</v>
+    <v>BVMF</v>
+    <v>90.49</v>
+    <v>90.16</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>90.15</v>
+    <v>45601.772152777776</v>
+    <v>33</v>
+    <v>BRL</v>
+    <v>KINEA INDICES DE PRECOS FDO INV IMOB CF</v>
+    <v>90.22</v>
+    <v>90.4</v>
+    <v>KNIP11</v>
+    <v>Fundos mais negociados</v>
+    <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
+    <v>0.25</v>
+    <v>2.7729999999999999E-3</v>
+    <v>56049</v>
+  </rv>
+  <rv s="2">
+    <v>66</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apn4gh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>39.86</v>
+    <v>28.86</v>
+    <v>BVMF</v>
+    <v>13044500000</v>
+    <v>35.6</v>
+    <v>1953</v>
+    <v>35.03</v>
+    <v>1.288</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>484216200000</v>
+    <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
+    <v>BVMF</v>
+    <v>35.5</v>
+    <v>46730</v>
+    <v>45601.772152777776</v>
+    <v>21</v>
+    <v>27421280</v>
+    <v>BRL</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras)</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras)</v>
+    <v>35.5</v>
+    <v>35.33</v>
+    <v>Av. Republica do Chile, n 65, 24 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-912 BR</v>
+    <v>Oil &amp; Gas</v>
+    <v>PETR4</v>
+    <v>Ações</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
+    <v>-0.17</v>
+    <v>-4.7889999999999999E-3</v>
+    <v>17330800</v>
+  </rv>
+  <rv s="2">
+    <v>68</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>c2yvmw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Raízen S.A. (BVMF:RAIZ4)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>4.1900000000000004</v>
+    <v>2.64</v>
+    <v>BVMF</v>
+    <v>1358937000</v>
+    <v>2.91</v>
+    <v>1961</v>
+    <v>2.83</v>
+    <v>1.4059999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>3940917300</v>
+    <v>A Raízen SA, anteriormente conhecida como Raízen Combustiveis SA, é uma empresa com sede no Brasil que atua no setor de energia. As atividades da Empresa são divididas em quatro linhas de negócios: Renováveis, Marketing e Serviços, Proximidade e Açúcar. A divisão Renewables atua na produção de etanol, etanol de segunda geração, bioeletricidade, biogás e bioprodutos. A divisão de Marketing e Serviços está focada na distribuição e venda de combustíveis para postos de gasolina da Shell, aeroportos e outros clientes Business-to-Business (B2B). A divisão Proximity está envolvida na operação de lojas de conveniência sob as marcas OXXO e Shell Select. A divisão Açúcar consiste na produção de açúcar, como cristalino, líquido, refinado, orgânico e Polarização Muito Alta (VHP), entre outros. A empresa atua no Brasil e na Argentina.</v>
+    <v>BVMF</v>
+    <v>2.9</v>
+    <v>45417</v>
+    <v>45601.772092383595</v>
+    <v>30</v>
+    <v>14070390</v>
+    <v>BRL</v>
+    <v>Raízen S.A.</v>
+    <v>Raízen S.A.</v>
+    <v>2.89</v>
+    <v>2.9</v>
+    <v>Avenida Almirante Barroso, n. 81, Sala 32B109 36 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-004 BR</v>
+    <v>Oil &amp; Gas</v>
+    <v>RAIZ4</v>
+    <v>Ações</v>
+    <v>Raízen S.A. (BVMF:RAIZ4)</v>
+    <v>0</v>
+    <v>0</v>
+    <v>8698600</v>
+  </rv>
+  <rv s="2">
+    <v>70</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bqq2sm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>ETF Bradesco Ibovespa (BVMF:BOVB11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>139.37</v>
+    <v>118.8</v>
+    <v>BVMF</v>
+    <v>132.69</v>
+    <v>132.21</v>
+    <v>1.0012000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>1495097041.0699999</v>
+    <v>132.5</v>
+    <v>45601.772002314814</v>
+    <v>48</v>
+    <v>BRL</v>
+    <v>ETF Bradesco Ibovespa</v>
+    <v>132.51</v>
+    <v>132.57</v>
+    <v>BOVB11</v>
+    <v>Fundos mais negociados</v>
+    <v>ETF Bradesco Ibovespa (BVMF:BOVB11)</v>
+    <v>7.0000000000000007E-2</v>
+    <v>5.2829999999999999E-4</v>
+    <v>402</v>
+  </rv>
+  <rv s="2">
+    <v>72</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>aplygh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>29.1</v>
+    <v>22.49</v>
+    <v>BVMF</v>
+    <v>5730834000</v>
+    <v>26.29</v>
+    <v>1808</v>
+    <v>26.06</v>
+    <v>1.0381</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>150147850800</v>
+    <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
+    <v>BVMF</v>
+    <v>26.24</v>
+    <v>85953</v>
+    <v>45601.772164351853</v>
+    <v>15</v>
+    <v>14035050</v>
+    <v>BRL</v>
+    <v>Banco do Brasil S.A.</v>
+    <v>Banco do Brasil S.A.</v>
+    <v>26.27</v>
+    <v>26.2</v>
+    <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
+    <v>Banking Services</v>
+    <v>BBAS3</v>
+    <v>Ações</v>
+    <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
+    <v>-0.04</v>
+    <v>-1.5240000000000002E-3</v>
+    <v>8461000</v>
+  </rv>
+  <rv s="2">
+    <v>74</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bwwglh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>46.43</v>
+    <v>32.5</v>
+    <v>BVMF</v>
+    <v>32.82</v>
+    <v>32.53</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>32.659999999999997</v>
+    <v>45601.772152777776</v>
+    <v>12</v>
+    <v>BRL</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
+    <v>32.659999999999997</v>
+    <v>32.630000000000003</v>
+    <v>DEVA11</v>
+    <v>Fundos mais negociados</v>
+    <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
+    <v>-0.03</v>
+    <v>-9.1859999999999999E-4</v>
+    <v>13546</v>
+  </rv>
+  <rv s="2">
+    <v>76</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bxe577</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>8.27</v>
+    <v>7.16</v>
+    <v>BVMF</v>
+    <v>7.41</v>
+    <v>7.33</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7.43</v>
+    <v>45601.772117082815</v>
+    <v>6</v>
+    <v>BRL</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
+    <v>7.37</v>
+    <v>7.4</v>
+    <v>KISU11</v>
+    <v>Fundos mais negociados</v>
+    <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
+    <v>-0.03</v>
+    <v>-4.0379999999999999E-3</v>
+    <v>42692</v>
+  </rv>
+  <rv s="2">
+    <v>78</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>bgmhrw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>3.73</v>
+    <v>1.23</v>
+    <v>BVMF</v>
+    <v>1.34</v>
+    <v>1.3</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>1.3</v>
+    <v>45601.770910312502</v>
+    <v>18</v>
+    <v>BRL</v>
+    <v>FDO INV IMOB FII CENESP CF</v>
+    <v>1.32</v>
+    <v>1.32</v>
+    <v>CNES11</v>
+    <v>Fundos mais negociados</v>
+    <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
+    <v>0.02</v>
+    <v>1.5384999999999999E-2</v>
+    <v>30602</v>
+  </rv>
+  <rv s="2">
+    <v>80</v>
   </rv>
   <rv s="5">
-    <v>12</v>
-    <v>Preço</v>
     <v>0</v>
   </rv>
   <rv s="6">
-    <v>12</v>
-    <v>1</v>
-  </rv>
-  <rv s="7">
+    <v>{DC97B902-0B00-47C8-BEFA-437C2BFE2564}</v>
     <v>0</v>
-  </rv>
-  <rv s="7">
-    <v>1</v>
-  </rv>
-  <rv s="7">
-    <v>2</v>
-  </rv>
-  <rv s="8">
-    <v>{9ECE6FBD-1FE9-488E-B05F-B2393D364E86}</v>
-    <v>0</v>
-    <v>14</v>
-    <v>48</v>
-    <v>49</v>
-    <v>50</v>
-    <v>48</v>
+    <v>13</v>
+    <v>82</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2776,43 +3758,24 @@
     <k n="52 semanas de alta"/>
     <k n="52 semanas de baixa"/>
     <k n="Abreviatura do câmbio" t="s"/>
-    <k n="Ações em circulação"/>
     <k n="Alto"/>
-    <k n="Ano de incorporação"/>
     <k n="Baixo"/>
     <k n="Beta"/>
     <k n="Bolsa" t="s"/>
     <k n="Capitalização de mercado"/>
-    <k n="Descrição" t="s"/>
-    <k n="ExchangeID" t="s"/>
     <k n="Fechamento anterior"/>
-    <k n="Funcionários"/>
     <k n="Hora da última transação"/>
     <k n="LearnMoreOnLink" t="r"/>
-    <k n="Média de volume"/>
     <k n="Moeda" t="s"/>
     <k n="Nome" t="s"/>
-    <k n="Nome oficial" t="s"/>
     <k n="Pendência"/>
     <k n="Preço"/>
-    <k n="Preço (Horário prolongado)"/>
-    <k n="Sede" t="s"/>
-    <k n="Setor" t="s"/>
     <k n="Símbolo do ticker" t="s"/>
     <k n="Tipo de instrumento" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Variação"/>
     <k n="Variação (%)"/>
     <k n="Volume"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="field" t="s"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
   </s>
   <s t="_array">
     <k n="array" t="a"/>
@@ -2821,10 +3784,7 @@
     <k n="%XLUID" t="s"/>
     <k n="_CRID" t="i"/>
     <k n="_Display" t="spb"/>
-    <k n="PREÇO" t="r"/>
     <k n="RAZÃO SOCIAL" t="r"/>
-    <k n="TICKER" t="r"/>
-    <k n="VALOR" t="r"/>
   </s>
 </rvStructures>
 </file>
@@ -2909,7 +3869,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="33">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2921,9 +3881,7 @@
       <v t="s">Nome</v>
       <v t="s">_SubLabel</v>
       <v t="s">Preço</v>
-      <v t="s">Preço (Horário prolongado)</v>
       <v t="s">Bolsa</v>
-      <v t="s">Nome oficial</v>
       <v t="s">Hora da última transação</v>
       <v t="s">Símbolo do ticker</v>
       <v t="s">Abreviatura do câmbio</v>
@@ -2937,34 +3895,23 @@
       <v t="s">52 semanas de alta</v>
       <v t="s">52 semanas de baixa</v>
       <v t="s">Volume</v>
-      <v t="s">Média de volume</v>
       <v t="s">Capitalização de mercado</v>
       <v t="s">Beta</v>
-      <v t="s">Ações em circulação</v>
-      <v t="s">Descrição</v>
-      <v t="s">Funcionários</v>
-      <v t="s">Sede</v>
-      <v t="s">Setor</v>
       <v t="s">Tipo de instrumento</v>
-      <v t="s">Ano de incorporação</v>
       <v t="s">_Flags</v>
       <v t="s">UniqueName</v>
       <v t="s">_DisplayString</v>
       <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="7">
+    <a count="4">
       <v t="s">RAZÃO SOCIAL</v>
-      <v t="s">TICKER</v>
-      <v t="s">PREÇO</v>
-      <v t="s">VALOR</v>
       <v t="s">_CRID</v>
       <v t="s">%XLUID</v>
       <v t="s">_Display</v>
     </a>
   </spbArrays>
-  <spbData count="15">
+  <spbData count="14">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -3092,35 +4039,25 @@
       <v>High</v>
       <v>Beta</v>
       <v>Name</v>
-      <v>Headquarters</v>
       <v>Low</v>
       <v>Exchange</v>
       <v>Currency</v>
       <v>Price</v>
-      <v>Industry</v>
       <v>Volume</v>
       <v>Change</v>
-      <v>Description</v>
       <v>Open</v>
-      <v>ExchangeID</v>
       <v>UniqueName</v>
-      <v>Employees</v>
-      <v>Official name</v>
       <v>Change (%)</v>
       <v>%ProviderInfo</v>
       <v>LearnMoreOnLink</v>
-      <v>Volume average</v>
       <v>Ticker symbol</v>
       <v>52 week high</v>
       <v>52 week low</v>
-      <v>Year incorporated</v>
-      <v>Shares outstanding</v>
       <v>Previous close</v>
       <v>Instrument type</v>
       <v>Exchange abbreviation</v>
       <v>Market cap</v>
       <v>Last trade time</v>
-      <v>Price (Extended hours)</v>
     </spb>
     <spb s="1">
       <v>2</v>
@@ -3136,27 +4073,15 @@
       <v>4</v>
       <v>1</v>
       <v>1</v>
-      <v>4</v>
       <v>5</v>
-      <v>4</v>
       <v>6</v>
       <v>1</v>
       <v>1</v>
-      <v>7</v>
-      <v>4</v>
       <v>1</v>
       <v>8</v>
       <v>9</v>
-      <v>1</v>
     </spb>
     <spb s="11">
-      <v xml:space="preserve">no fechamento </v>
-      <v xml:space="preserve">do fechamento anterior </v>
-      <v xml:space="preserve">do fechamento anterior </v>
-      <v>GMT</v>
-      <v>Atraso de 30 minutos</v>
-    </spb>
-    <spb s="12">
       <v>3</v>
     </spb>
   </spbData>
@@ -3164,7 +4089,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="13">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="12">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -3287,35 +4212,25 @@
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
     <k n="Nome" t="s"/>
-    <k n="Sede" t="s"/>
     <k n="Baixo" t="s"/>
     <k n="Bolsa" t="s"/>
     <k n="Moeda" t="s"/>
     <k n="Preço" t="s"/>
-    <k n="Setor" t="s"/>
     <k n="Volume" t="s"/>
     <k n="Variação" t="s"/>
-    <k n="Descrição" t="s"/>
     <k n="Pendência" t="s"/>
-    <k n="ExchangeID" t="s"/>
     <k n="UniqueName" t="s"/>
-    <k n="Funcionários" t="s"/>
-    <k n="Nome oficial" t="s"/>
     <k n="Variação (%)" t="s"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="LearnMoreOnLink" t="s"/>
-    <k n="Média de volume" t="s"/>
     <k n="Símbolo do ticker" t="s"/>
     <k n="52 semanas de alta" t="s"/>
     <k n="52 semanas de baixa" t="s"/>
-    <k n="Ano de incorporação" t="s"/>
-    <k n="Ações em circulação" t="s"/>
     <k n="Fechamento anterior" t="s"/>
     <k n="Tipo de instrumento" t="s"/>
     <k n="Abreviatura do câmbio" t="s"/>
     <k n="Capitalização de mercado" t="s"/>
     <k n="Hora da última transação" t="s"/>
-    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
   <s>
     <k n="Alto" t="i"/>
@@ -3326,25 +4241,13 @@
     <k n="Volume" t="i"/>
     <k n="Variação" t="i"/>
     <k n="Pendência" t="i"/>
-    <k n="Funcionários" t="i"/>
     <k n="Variação (%)" t="i"/>
-    <k n="Média de volume" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="52 semanas de alta" t="i"/>
     <k n="52 semanas de baixa" t="i"/>
-    <k n="Ano de incorporação" t="i"/>
-    <k n="Ações em circulação" t="i"/>
     <k n="Fechamento anterior" t="i"/>
     <k n="Capitalização de mercado" t="i"/>
     <k n="Hora da última transação" t="i"/>
-    <k n="Preço (Horário prolongado)" t="i"/>
-  </s>
-  <s>
-    <k n="Preço" t="s"/>
-    <k n="Variação" t="s"/>
-    <k n="Variação (%)" t="s"/>
-    <k n="Hora da última transação" t="s"/>
-    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -3410,19 +4313,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
   <autoFilter ref="A2:G10" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="88">
       <calculatedColumnFormula>D3*E3*F3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3434,11 +4337,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}" name="TBL_Clientes" displayName="TBL_Clientes" ref="B5:F17" totalsRowShown="0">
   <autoFilter ref="B5:F17" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="87"/>
     <tableColumn id="2" xr3:uid="{894BC177-F0E3-4E5B-B116-57D4460B629A}" name="Nome "/>
-    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="84">
       <calculatedColumnFormula>(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3450,12 +4353,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}" name="Tabela4" displayName="Tabela4" ref="B5:G10" totalsRowShown="0">
   <autoFilter ref="B5:G10" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="83"/>
     <tableColumn id="2" xr3:uid="{A293641D-B0BA-4BE6-8B27-19907B582309}" name="Descricao"/>
     <tableColumn id="3" xr3:uid="{715ACBE7-D796-468F-B4E9-B8C922438808}" name="Classificacao"/>
-    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="80">
       <calculatedColumnFormula>Tabela4[[#This Row],[Preco_venda]]-Tabela4[[#This Row],[Preco_Compra]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3474,43 +4377,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="E2:E9" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}" name="Titulo" displayName="Titulo" ref="G2:G17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="8">
-  <autoFilter ref="G2:G17" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}" name="Titulo" displayName="Titulo" ref="G2:G20" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
+  <autoFilter ref="G2:G20" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{86479B66-7B9B-4831-8F81-262A0A4E6407}" name="Titulo" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{86479B66-7B9B-4831-8F81-262A0A4E6407}" name="Titulo" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B2:G16" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:H16" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="B2:H16" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G16">
-    <sortCondition descending="1" ref="F2:F16"/>
+    <sortCondition descending="1" ref="G2:G16"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="12">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="65">
       <calculatedColumnFormula array="1">_FV(C3,"Símbolo do ticker",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="64">
       <calculatedColumnFormula array="1">_FV(C3,"Preço")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="62">
       <calculatedColumnFormula>E3*F3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{78AA16E8-6C85-42CC-8936-05F69A715AF4}" name="Variação (%)" dataDxfId="61">
+      <calculatedColumnFormula array="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4988,17 +5894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
@@ -5011,43 +5917,43 @@
       <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65" t="s">
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65" t="s">
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="66"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="70"/>
       <c r="AC2" s="28"/>
       <c r="AD2" s="29"/>
     </row>
@@ -5145,8 +6051,8 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -6451,7 +7357,7 @@
       </c>
       <c r="F6">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>33.647240208011823</v>
+        <v>33.649342572337972</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -6469,7 +7375,7 @@
       </c>
       <c r="F7">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>22.183351319122934</v>
+        <v>22.185453683449083</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -6503,7 +7409,7 @@
       </c>
       <c r="F9">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -6518,7 +7424,7 @@
       </c>
       <c r="F10">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -6533,7 +7439,7 @@
       </c>
       <c r="F11">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -6548,7 +7454,7 @@
       </c>
       <c r="F12">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -6563,7 +7469,7 @@
       </c>
       <c r="F13">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -6578,7 +7484,7 @@
       </c>
       <c r="F14">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -6593,7 +7499,7 @@
       </c>
       <c r="F15">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -6608,7 +7514,7 @@
       </c>
       <c r="F16">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -6623,7 +7529,7 @@
       </c>
       <c r="F17">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.66946243023405</v>
+        <v>126.6715647945602</v>
       </c>
     </row>
   </sheetData>
@@ -6768,10 +7674,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD003B7-8D9A-4A40-894C-501A7BB2F555}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6796,7 +7702,7 @@
       <c r="E3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="67" t="e" vm="1">
+      <c r="G3" s="59" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6807,7 +7713,7 @@
       <c r="E4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="69" t="e" vm="2">
+      <c r="G4" s="61" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6818,7 +7724,7 @@
       <c r="E5" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="68" t="e" vm="3">
+      <c r="G5" s="60" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6826,7 +7732,7 @@
       <c r="E6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="69" t="e" vm="4">
+      <c r="G6" s="61" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6837,7 +7743,7 @@
       <c r="E7" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="68" t="e" vm="5">
+      <c r="G7" s="60" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6846,7 +7752,7 @@
       <c r="E8" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="69" t="e" vm="6">
+      <c r="G8" s="61" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6857,7 +7763,7 @@
       <c r="E9" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="70" t="e" vm="7">
+      <c r="G9" s="62" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6865,7 +7771,7 @@
       <c r="B10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="70" t="e" vm="8">
+      <c r="G10" s="62" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6873,7 +7779,7 @@
       <c r="B11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="70" t="e" vm="9">
+      <c r="G11" s="62" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6881,7 +7787,7 @@
       <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="70" t="e" vm="10">
+      <c r="G12" s="62" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6889,7 +7795,7 @@
       <c r="B13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="70" t="e" vm="11">
+      <c r="G13" s="62" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6897,7 +7803,7 @@
       <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="70" t="e" vm="12">
+      <c r="G14" s="62" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6905,17 +7811,32 @@
       <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="70" t="e" vm="13">
+      <c r="G15" s="62" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="70" t="e" vm="14">
+      <c r="G16" s="62" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="70" t="e" vm="15">
+      <c r="G17" s="62" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="73" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="73" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="73" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6931,10 +7852,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BCED-8FA9-40B2-88B4-47252BB8367C}">
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6945,15 +7866,29 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
@@ -6972,51 +7907,62 @@
       <c r="G2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="56" t="s">
+      <c r="H2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" t="s">
         <v>130</v>
       </c>
-      <c r="K2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="e" vm="1">
+      <c r="C3" s="15" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="D3" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">_FV(C3,"Símbolo do ticker",TRUE)</f>
-        <v>USIM5</v>
+        <v>VALE3</v>
       </c>
       <c r="E3" s="55" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_FV(C3,"Preço")</f>
-        <v>6.56</v>
+        <v>62.11</v>
       </c>
       <c r="F3" s="15">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G3" s="55">
         <f ca="1">E3*F3</f>
-        <v>754.4</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="57" t="s">
+        <v>931.65</v>
+      </c>
+      <c r="H3" s="75" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>-8.9359999999999995E-3</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="71">
-        <v>3060.4500000000003</v>
-      </c>
-      <c r="K3" s="71">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="74">
+        <v>-5.0560000000000006E-3</v>
+      </c>
+      <c r="L3" s="72">
+        <v>412</v>
+      </c>
+      <c r="M3" s="76">
+        <v>3742.5499999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>119</v>
       </c>
@@ -7029,408 +7975,554 @@
       </c>
       <c r="E4" s="55" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_FV(C4,"Preço")</f>
-        <v>9.27</v>
+        <v>9.31</v>
       </c>
       <c r="F4" s="15">
         <v>92</v>
       </c>
       <c r="G4" s="55">
         <f ca="1">E4*F4</f>
-        <v>852.83999999999992</v>
-      </c>
-      <c r="I4" s="58" t="s">
+        <v>856.5200000000001</v>
+      </c>
+      <c r="H4" s="74" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>4.3150000000000003E-3</v>
+      </c>
+      <c r="J4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="71">
-        <v>656</v>
-      </c>
-      <c r="K4" s="71">
+      <c r="K4" s="74">
+        <v>-1.5240000000000002E-3</v>
+      </c>
+      <c r="L4" s="72">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="76">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="15" t="e" vm="3">
+      <c r="C5" s="15" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="D5" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">_FV(C5,"Símbolo do ticker",TRUE)</f>
-        <v>KISU11</v>
+        <v>XPML11</v>
       </c>
       <c r="E5" s="55" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_FV(C5,"Preço")</f>
-        <v>7.43</v>
+        <v>103.52</v>
       </c>
       <c r="F5" s="15">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G5" s="55">
         <f ca="1">E5*F5</f>
-        <v>401.21999999999997</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="71">
-        <v>754.4</v>
-      </c>
-      <c r="K5" s="71">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>828.16</v>
+      </c>
+      <c r="H5" s="74" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>5.7989999999999995E-4</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="74">
+        <v>-4.7889999999999999E-3</v>
+      </c>
+      <c r="L5" s="72">
+        <v>20</v>
+      </c>
+      <c r="M5" s="76">
+        <v>706.59999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="15" t="e" vm="6">
+        <v>119</v>
+      </c>
+      <c r="C6" s="15" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="D6" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_FV(C6,"Símbolo do ticker",TRUE)</f>
-        <v>BBAS3</v>
+        <v>BRCR11</v>
       </c>
       <c r="E6" s="55" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_FV(C6,"Preço")</f>
-        <v>26.24</v>
+        <v>43.8</v>
       </c>
       <c r="F6" s="15">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6" s="55">
         <f ca="1">E6*F6</f>
-        <v>656</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="71">
-        <v>710</v>
-      </c>
-      <c r="K6" s="71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>788.4</v>
+      </c>
+      <c r="H6" s="74" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>1.4593E-2</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="74">
+        <v>1.0671E-2</v>
+      </c>
+      <c r="L6" s="72">
+        <v>115</v>
+      </c>
+      <c r="M6" s="76">
+        <v>762.44999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="15" t="e" vm="8">
+        <v>135</v>
+      </c>
+      <c r="C7" s="15" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="D7" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(C7,"Símbolo do ticker",TRUE)</f>
-        <v>PETR4</v>
+        <v>XBOV11</v>
       </c>
       <c r="E7" s="55" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_FV(C7,"Preço")</f>
-        <v>35.5</v>
+        <v>127.84</v>
       </c>
       <c r="F7" s="15">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" s="55">
         <f ca="1">E7*F7</f>
-        <v>710</v>
-      </c>
-      <c r="I7" s="58" t="s">
+        <v>767.04</v>
+      </c>
+      <c r="H7" s="74" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>7.8230000000000001E-5</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="71">
-        <v>940.05000000000007</v>
-      </c>
-      <c r="K7" s="71">
+      <c r="K7" s="74">
+        <v>-9.4140000000000005E-3</v>
+      </c>
+      <c r="L7" s="72">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="76">
+        <v>931.19999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="15" t="e" vm="7">
+        <v>120</v>
+      </c>
+      <c r="C8" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(C8,"Símbolo do ticker",TRUE)</f>
-        <v>CNES11</v>
+        <v>USIM5</v>
       </c>
       <c r="E8" s="55" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_FV(C8,"Preço")</f>
-        <v>1.3</v>
+        <v>6.65</v>
       </c>
       <c r="F8" s="15">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="G8" s="55">
         <f ca="1">E8*F8</f>
-        <v>23.400000000000002</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="71">
-        <v>4093.2999999999997</v>
-      </c>
-      <c r="K8" s="71">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>764.75</v>
+      </c>
+      <c r="H8" s="74" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>1.3720000000000001E-2</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="74">
+        <v>0</v>
+      </c>
+      <c r="L8" s="72">
+        <v>237</v>
+      </c>
+      <c r="M8" s="76">
+        <v>687.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="15" t="e" vm="4">
+      <c r="C9" s="15" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(C9,"Símbolo do ticker",TRUE)</f>
-        <v>BRCR11</v>
+        <v>KNIP11</v>
       </c>
       <c r="E9" s="55" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_FV(C9,"Preço")</f>
-        <v>43.17</v>
+        <v>90.78</v>
       </c>
       <c r="F9" s="15">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G9" s="55">
         <f ca="1">E9*F9</f>
-        <v>777.06000000000006</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="71">
-        <v>777.06000000000006</v>
-      </c>
-      <c r="K9" s="71">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>726.24</v>
+      </c>
+      <c r="H9" s="74" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>6.9879999999999994E-3</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="74">
+        <v>1.6861400000000002E-2</v>
+      </c>
+      <c r="L9" s="72">
+        <v>213</v>
+      </c>
+      <c r="M9" s="76">
+        <v>4096.51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="15" t="e" vm="5">
+        <v>120</v>
+      </c>
+      <c r="C10" s="15" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="D10" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_FV(C10,"Símbolo do ticker",TRUE)</f>
-        <v>DEVA11</v>
+        <v>PETR4</v>
       </c>
       <c r="E10" s="55" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">_FV(C10,"Preço")</f>
-        <v>32.659999999999997</v>
+        <v>35.4</v>
       </c>
       <c r="F10" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="55">
         <f ca="1">E10*F10</f>
-        <v>489.9</v>
-      </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="71">
-        <v>23.400000000000002</v>
-      </c>
-      <c r="K10" s="71">
+        <v>708</v>
+      </c>
+      <c r="H10" s="75" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>-2.8170000000000001E-3</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="74">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="L10" s="72">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="76">
+        <v>779.58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="15" t="e" vm="9">
+      <c r="C11" s="15" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="D11" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">_FV(C11,"Símbolo do ticker",TRUE)</f>
-        <v>VALE3</v>
+        <v>RAIZ4</v>
       </c>
       <c r="E11" s="55" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_FV(C11,"Preço")</f>
-        <v>62.67</v>
+        <v>2.9</v>
       </c>
       <c r="F11" s="15">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="G11" s="55">
         <f ca="1">E11*F11</f>
-        <v>940.05000000000007</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="71">
-        <v>489.9</v>
-      </c>
-      <c r="K11" s="71">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>687.3</v>
+      </c>
+      <c r="H11" s="74" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="74">
+        <v>1.5384999999999999E-2</v>
+      </c>
+      <c r="L11" s="72">
+        <v>18</v>
+      </c>
+      <c r="M11" s="76">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="15" t="e" vm="15">
+        <v>135</v>
+      </c>
+      <c r="C12" s="15" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="D12" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_FV(C12,"Símbolo do ticker",TRUE)</f>
-        <v>XPML11</v>
+        <v>BOVB11</v>
       </c>
       <c r="E12" s="55" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_FV(C12,"Preço")</f>
-        <v>103.46</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="F12" s="15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="55">
         <f ca="1">E12*F12</f>
-        <v>827.68</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="71">
-        <v>401.21999999999997</v>
-      </c>
-      <c r="K12" s="71">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>663.5</v>
+      </c>
+      <c r="H12" s="74" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>1.5090000000000001E-3</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="74">
+        <v>-9.1859999999999999E-4</v>
+      </c>
+      <c r="L12" s="72">
+        <v>15</v>
+      </c>
+      <c r="M12" s="76">
+        <v>489.45000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="15" t="e" vm="12">
+        <v>120</v>
+      </c>
+      <c r="C13" s="15" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_FV(C13,"Símbolo do ticker",TRUE)</f>
-        <v>KNIP11</v>
+        <v>BBAS3</v>
       </c>
       <c r="E13" s="55" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">_FV(C13,"Preço")</f>
-        <v>90.15</v>
+        <v>26.26</v>
       </c>
       <c r="F13" s="15">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G13" s="55">
         <f ca="1">E13*F13</f>
-        <v>721.2</v>
-      </c>
-      <c r="I13" s="58" t="s">
+        <v>656.5</v>
+      </c>
+      <c r="H13" s="74" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>7.6219999999999999E-4</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="74">
+        <v>-4.0379999999999999E-3</v>
+      </c>
+      <c r="L13" s="72">
+        <v>54</v>
+      </c>
+      <c r="M13" s="76">
+        <v>399.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="15" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_FV(C14,"Símbolo do ticker",TRUE)</f>
+        <v>DEVA11</v>
+      </c>
+      <c r="E14" s="55" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_FV(C14,"Preço")</f>
+        <v>32.83</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15</v>
+      </c>
+      <c r="G14" s="55">
+        <f ca="1">E14*F14</f>
+        <v>492.45</v>
+      </c>
+      <c r="H14" s="74" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>5.2049999999999996E-3</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="74">
+        <v>2.7729999999999999E-3</v>
+      </c>
+      <c r="L14" s="72">
+        <v>8</v>
+      </c>
+      <c r="M14" s="76">
+        <v>723.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="15" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">_FV(C15,"Símbolo do ticker",TRUE)</f>
+        <v>KISU11</v>
+      </c>
+      <c r="E15" s="55" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">_FV(C15,"Preço")</f>
+        <v>7.36</v>
+      </c>
+      <c r="F15" s="15">
+        <v>54</v>
+      </c>
+      <c r="G15" s="55">
+        <f ca="1">E15*F15</f>
+        <v>397.44</v>
+      </c>
+      <c r="H15" s="74" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>-9.4210000000000006E-3</v>
+      </c>
+      <c r="J15" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="71">
-        <v>852.83999999999992</v>
-      </c>
-      <c r="K13" s="71">
+      <c r="K15" s="74">
+        <v>2.1570000000000001E-3</v>
+      </c>
+      <c r="L15" s="72">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="e" cm="1" vm="16">
-        <f t="array" ref="D14">_FV(C14,"Símbolo do ticker",TRUE)</f>
+      <c r="M15" s="76">
+        <v>854.68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="15" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="E14" s="55" t="e" cm="1" vm="17">
-        <f t="array" ref="E14">_FV(C14,"Preço")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="55" t="e" vm="18">
-        <f>E14*F14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="71">
-        <v>721.2</v>
-      </c>
-      <c r="K14" s="71">
+      <c r="D16" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">_FV(C16,"Símbolo do ticker",TRUE)</f>
+        <v>CNES11</v>
+      </c>
+      <c r="E16" s="55" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">_FV(C16,"Preço")</f>
+        <v>1.32</v>
+      </c>
+      <c r="F16" s="15">
+        <v>18</v>
+      </c>
+      <c r="G16" s="55">
+        <f ca="1">E16*F16</f>
+        <v>23.76</v>
+      </c>
+      <c r="H16" s="74" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
+        <v>1.5384999999999999E-2</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="74">
+        <v>-1.7399999999999998E-3</v>
+      </c>
+      <c r="L16" s="72">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="e" cm="1" vm="16">
-        <f t="array" ref="D15">_FV(C15,"Símbolo do ticker",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="55" t="e" cm="1" vm="17">
-        <f t="array" ref="E15">_FV(C15,"Preço")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="55" t="e" vm="18">
-        <f>E15*F15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="71">
-        <v>827.68</v>
-      </c>
-      <c r="K15" s="71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="e" cm="1" vm="16">
-        <f t="array" ref="D16">_FV(C16,"Símbolo do ticker",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="55" t="e" cm="1" vm="17">
-        <f t="array" ref="E16">_FV(C16,"Preço")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="55" t="e" vm="18">
-        <f>E16*F16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="71">
-        <v>0</v>
-      </c>
-      <c r="K16" s="71"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="58" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="71">
-        <v>0</v>
-      </c>
-      <c r="K17" s="71"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I18" s="57" t="s">
+      <c r="M16" s="76">
+        <v>826.24</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="74">
+        <v>1.8202300000000001E-2</v>
+      </c>
+      <c r="L17" s="72">
+        <v>11</v>
+      </c>
+      <c r="M17" s="76">
+        <v>1429.83</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="74">
+        <v>5.2829999999999999E-4</v>
+      </c>
+      <c r="L18" s="72">
+        <v>5</v>
+      </c>
+      <c r="M18" s="76">
+        <v>662.84999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="74">
+        <v>1.7674000000000002E-2</v>
+      </c>
+      <c r="L19" s="72">
+        <v>6</v>
+      </c>
+      <c r="M19" s="76">
+        <v>766.98</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="71">
-        <v>7153.7500000000009</v>
-      </c>
-      <c r="K18" s="71">
-        <v>388</v>
+      <c r="K20" s="74">
+        <v>3.0007700000000002E-2</v>
+      </c>
+      <c r="L20" s="72">
+        <v>636</v>
+      </c>
+      <c r="M20" s="76">
+        <v>9268.89</v>
       </c>
     </row>
   </sheetData>
@@ -7471,8 +8563,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/Programação em microinformatica/Aula ILM-2-2024.xlsx
+++ b/Programação em microinformatica/Aula ILM-2-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\FATEC---Aulas\Programação em microinformatica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Documentos\github\FATEC-Aulas\Programação em microinformatica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB963EAE-2D02-4C7F-BAFD-41DA130D1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ADB174-8AA5-454E-B902-08619117053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{638BBB0D-7911-4F79-9DFF-80DA470C685B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{638BBB0D-7911-4F79-9DFF-80DA470C685B}"/>
   </bookViews>
   <sheets>
     <sheet name="FLuxo de caixa" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Produtos" sheetId="6" r:id="rId7"/>
     <sheet name="Lista" sheetId="7" r:id="rId8"/>
     <sheet name="Investimento" sheetId="9" r:id="rId9"/>
+    <sheet name="Dashboard" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Classificação" comment="Clas">Lista!$B$9:$B$15</definedName>
@@ -29,8 +30,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="64" r:id="rId10"/>
+    <pivotCache cacheId="9" r:id="rId11"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -258,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
   <si>
     <t>Receitas</t>
   </si>
@@ -708,6 +710,9 @@
   </si>
   <si>
     <t>Variação dia (%)</t>
+  </si>
+  <si>
+    <t>Soma de Variação (%)</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,6 +1158,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,24 +1195,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1257,150 +1262,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1429,13 +1290,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1727,8 +1603,3583 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Aula ILM-2-2024.xlsx]Dashboard!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23183136482939631"/>
+          <c:y val="0.26328484981044037"/>
+          <c:w val="0.68458048993875764"/>
+          <c:h val="0.53811424613589964"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ETF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4018.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3531.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF8E-4AB3-B16F-DDD27E182622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="349061920"/>
+        <c:axId val="349060480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349061920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349060480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349060480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="349061920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Aula ILM-2-2024.xlsx]Dashboard!Tabela dinâmica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:pattFill prst="ltUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="accent2"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="lt1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E97132">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$9:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>VALE3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MXRF11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>XPML11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRCR11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XBOV11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PETR4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNIP11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USIM5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BBAS3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BOVB11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAIZ4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEVA11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>KISU11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CNES11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$9:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>857.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>826.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>751.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>737.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>725.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>648.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>648.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>587.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>454.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9846-438B-967C-C47B35566041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1591893792"/>
+        <c:axId val="1586751728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1591893792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586751728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586751728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1591893792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent2"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent2"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Aula ILM-2-2024.xlsx]Dashboard!Tabela dinâmica3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Dashboard!$B$26:$B$54</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>AÇÃO</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ETF</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ETF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>AÇÃO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AÇÃO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>AÇÃO</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>AÇÃO</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>FI</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>KISU11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>USIM5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>XPML11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BOVB11</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>XBOV11</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BBAS3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>PETR4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>KNIP11</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>VALE3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BRCR11</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>MXRF11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>DEVA11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>RAIZ4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>CNES11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$26:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.5448999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7189999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0859999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.354E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8709999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7910000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.0089999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0893E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.1002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.4151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.3969000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4674-4EB1-8231-33A72CDB6A79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="535052432"/>
+        <c:axId val="535053872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="535052432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535053872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535053872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="535052432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>37171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>269488</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89897B81-FE33-69F9-3191-CA69E39CB856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>386947</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160298</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C386BC9F-BC72-EFB2-94B1-ACE580E5C069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>375030</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9293</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158872</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354E35C3-6405-540E-0504-7F5386954D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45601.657683333331" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{DC97B902-0B00-47C8-BEFA-437C2BFE2564}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedBy="Gustavo Rebelo" refreshedDate="45609.848562037034" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{DC97B902-0B00-47C8-BEFA-437C2BFE2564}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela5"/>
   </cacheSource>
@@ -1763,31 +5214,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="PREÇO" numFmtId="167">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.32" maxValue="132.57"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2" maxValue="129.66"/>
     </cacheField>
     <cacheField name="COTAS" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="237"/>
     </cacheField>
     <cacheField name="VALOR" numFmtId="167">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.76" maxValue="931.19999999999993" count="14">
-        <n v="931.19999999999993"/>
-        <n v="854.68"/>
-        <n v="826.24"/>
-        <n v="779.58"/>
-        <n v="766.98"/>
-        <n v="762.44999999999993"/>
-        <n v="723.2"/>
-        <n v="706.59999999999991"/>
-        <n v="687.3"/>
-        <n v="662.84999999999991"/>
-        <n v="655"/>
-        <n v="489.45000000000005"/>
-        <n v="399.6"/>
-        <n v="23.76"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="21.599999999999998" maxValue="857.4"/>
     </cacheField>
     <cacheField name="Variação (%)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-9.4140000000000005E-3" maxValue="1.7674000000000002E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.3969000000000002E-2" maxValue="1.5448999999999999E-2"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1812,133 +5248,133 @@
     <x v="0"/>
     <s v="VALE S.A. (BVMF:VALE3)"/>
     <x v="0"/>
-    <n v="62.08"/>
+    <n v="57.16"/>
     <n v="15"/>
-    <x v="0"/>
-    <n v="-9.4140000000000005E-3"/>
+    <n v="857.4"/>
+    <n v="-2.7910000000000001E-3"/>
   </r>
   <r>
     <x v="1"/>
     <s v="MAXI RENDA FII ETF (BVMF:MXRF11)"/>
     <x v="1"/>
-    <n v="9.2899999999999991"/>
+    <n v="9.08"/>
     <n v="92"/>
-    <x v="1"/>
-    <n v="2.1570000000000001E-3"/>
+    <n v="835.36"/>
+    <n v="-1.0893E-2"/>
   </r>
   <r>
     <x v="1"/>
     <s v="XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)"/>
     <x v="2"/>
-    <n v="103.28"/>
+    <n v="103.27"/>
     <n v="8"/>
-    <x v="2"/>
-    <n v="-1.7399999999999998E-3"/>
+    <n v="826.16"/>
+    <n v="2.7189999999999996E-3"/>
   </r>
   <r>
     <x v="1"/>
     <s v="FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)"/>
     <x v="3"/>
-    <n v="43.31"/>
+    <n v="42.5"/>
     <n v="18"/>
-    <x v="3"/>
-    <n v="3.2429999999999998E-3"/>
+    <n v="765"/>
+    <n v="-7.0089999999999996E-3"/>
   </r>
   <r>
     <x v="2"/>
     <s v="Caixa ETF Ibovespa FI (BVMF:XBOV11)"/>
     <x v="4"/>
-    <n v="127.83"/>
+    <n v="125.21"/>
     <n v="6"/>
-    <x v="4"/>
-    <n v="1.7674000000000002E-2"/>
+    <n v="751.26"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)"/>
     <x v="5"/>
-    <n v="6.63"/>
+    <n v="6.09"/>
     <n v="115"/>
-    <x v="5"/>
-    <n v="1.0671E-2"/>
+    <n v="700.35"/>
+    <n v="1.4999999999999999E-2"/>
   </r>
   <r>
     <x v="1"/>
     <s v="KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)"/>
     <x v="6"/>
-    <n v="90.4"/>
+    <n v="90.67"/>
     <n v="8"/>
-    <x v="6"/>
-    <n v="2.7729999999999999E-3"/>
+    <n v="725.36"/>
+    <n v="-1.8709999999999998E-3"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)"/>
     <x v="7"/>
-    <n v="35.33"/>
+    <n v="36.880000000000003"/>
     <n v="20"/>
-    <x v="7"/>
-    <n v="-4.7889999999999999E-3"/>
+    <n v="737.6"/>
+    <n v="-1.354E-3"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Raízen S.A. (BVMF:RAIZ4)"/>
     <x v="8"/>
-    <n v="2.9"/>
+    <n v="2.48"/>
     <n v="237"/>
-    <x v="8"/>
-    <n v="0"/>
+    <n v="587.76"/>
+    <n v="-6.4151E-2"/>
   </r>
   <r>
     <x v="2"/>
     <s v="ETF Bradesco Ibovespa (BVMF:BOVB11)"/>
     <x v="9"/>
-    <n v="132.57"/>
+    <n v="129.66"/>
     <n v="5"/>
-    <x v="9"/>
-    <n v="5.2829999999999999E-4"/>
+    <n v="648.29999999999995"/>
+    <n v="3.0859999999999997E-4"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Banco do Brasil S.A. (BVMF:BBAS3)"/>
     <x v="10"/>
-    <n v="26.2"/>
+    <n v="25.95"/>
     <n v="25"/>
-    <x v="10"/>
-    <n v="-1.5240000000000002E-3"/>
+    <n v="648.75"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <s v="DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)"/>
     <x v="11"/>
-    <n v="32.630000000000003"/>
+    <n v="30.3"/>
     <n v="15"/>
-    <x v="11"/>
-    <n v="-9.1859999999999999E-4"/>
+    <n v="454.5"/>
+    <n v="-2.1002E-2"/>
   </r>
   <r>
     <x v="1"/>
     <s v="KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)"/>
     <x v="12"/>
-    <n v="7.4"/>
+    <n v="7.23"/>
     <n v="54"/>
-    <x v="12"/>
-    <n v="-4.0379999999999999E-3"/>
+    <n v="390.42"/>
+    <n v="1.5448999999999999E-2"/>
   </r>
   <r>
     <x v="1"/>
     <s v="FDO INV IMOB FII CENESP CF (BVMF:CNES11)"/>
     <x v="13"/>
-    <n v="1.32"/>
+    <n v="1.2"/>
     <n v="18"/>
-    <x v="13"/>
-    <n v="1.5384999999999999E-2"/>
+    <n v="21.599999999999998"/>
+    <n v="-8.3969000000000002E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB375931-3B56-40BB-BED0-559455DBCCA8}" name="Tabela dinâmica8" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB375931-3B56-40BB-BED0-559455DBCCA8}" name="Tabela dinâmica8" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J2:M20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -1972,25 +5408,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="15">
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -2073,7 +5491,7 @@
     <dataField name="Soma de VALOR" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="70">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2082,7 +5500,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2091,7 +5509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2100,7 +5518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="27">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2109,7 +5527,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2118,7 +5536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2127,7 +5545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2136,7 +5554,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2146,6 +5564,388 @@
       </pivotArea>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+    <ext xmlns:xxpvi="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotVersionInfo" uri="{9F748A41-CAEA-4470-BF7A-CE61E8FFA7F9}">
+      <xxpvi:pivotVersionInfo>
+        <xxpvi:lastUpdateFeature>RichData</xxpvi:lastUpdateFeature>
+      </xxpvi:pivotVersionInfo>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7C034DF-8B9D-4860-A618-414A69CEAEB6}" name="Tabela dinâmica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="B25:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="15">
+        <item x="10"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Variação (%)" fld="6" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+    <ext xmlns:xxpvi="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotVersionInfo" uri="{9F748A41-CAEA-4470-BF7A-CE61E8FFA7F9}">
+      <xxpvi:pivotVersionInfo>
+        <xxpvi:lastUpdateFeature>RichData</xxpvi:lastUpdateFeature>
+      </xxpvi:pivotVersionInfo>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC980CA2-D511-4E8B-9978-13BB44DCA27C}" name="Tabela dinâmica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="B8:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="15">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de VALOR" fld="5" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+    <ext xmlns:xxpvi="http://schemas.microsoft.com/office/spreadsheetml/2022/pivotVersionInfo" uri="{9F748A41-CAEA-4470-BF7A-CE61E8FFA7F9}">
+      <xxpvi:pivotVersionInfo>
+        <xxpvi:lastUpdateFeature>RichData</xxpvi:lastUpdateFeature>
+      </xxpvi:pivotVersionInfo>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D14B1006-6FE2-477A-80C2-108284AAD217}" name="Tabela dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B2:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de VALOR" fld="5" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2310,32 +6110,32 @@
     <v>5.42</v>
     <v>BVMF</v>
     <v>1253079000</v>
-    <v>6.69</v>
+    <v>6.13</v>
     <v>1954</v>
-    <v>6.55</v>
-    <v>1.1354</v>
+    <v>6.03</v>
+    <v>1.1413</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8100526000</v>
+    <v>7560978000</v>
     <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
     <v>BVMF</v>
-    <v>6.56</v>
+    <v>6.09</v>
     <v>51182</v>
-    <v>45601.877789351849</v>
+    <v>45610.892430555556</v>
     <v>0</v>
-    <v>15435620</v>
+    <v>13408050</v>
     <v>BRL</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
-    <v>6.62</v>
-    <v>6.65</v>
+    <v>6.06</v>
+    <v>6.1</v>
     <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
     <v>Metals &amp; Mining</v>
     <v>USIM5</v>
     <v>Ações</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
-    <v>0.09</v>
-    <v>1.3720000000000001E-2</v>
-    <v>6528700</v>
+    <v>0.01</v>
+    <v>1.6420000000000002E-3</v>
+    <v>11706100</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -2358,24 +6158,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>10.02</v>
-    <v>9.19</v>
+    <v>9.0299999999999994</v>
     <v>BVMF</v>
-    <v>9.35</v>
-    <v>9.27</v>
+    <v>9.1999999999999993</v>
+    <v>9.09</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.27</v>
-    <v>45601.877662037034</v>
+    <v>9.08</v>
+    <v>45610.879166978906</v>
     <v>3</v>
     <v>BRL</v>
     <v>MAXI RENDA FII ETF</v>
-    <v>9.33</v>
-    <v>9.31</v>
+    <v>9.1</v>
+    <v>9.14</v>
     <v>MXRF11</v>
     <v>Fundos mais negociados</v>
     <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
-    <v>0.04</v>
-    <v>4.3150000000000003E-3</v>
-    <v>1836391</v>
+    <v>0.06</v>
+    <v>6.6080000000000002E-3</v>
+    <v>2201207</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -2398,24 +6198,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>8.27</v>
-    <v>7.16</v>
+    <v>7.1</v>
     <v>BVMF</v>
-    <v>7.41</v>
-    <v>7.33</v>
+    <v>7.3</v>
+    <v>7.2</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7.43</v>
-    <v>45601.875000092186</v>
+    <v>7.23</v>
+    <v>45610.90253472222</v>
     <v>6</v>
     <v>BRL</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
-    <v>7.37</v>
-    <v>7.36</v>
+    <v>7.2</v>
+    <v>7.25</v>
     <v>KISU11</v>
     <v>Fundos mais negociados</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-9.4210000000000006E-3</v>
-    <v>50471</v>
+    <v>0.02</v>
+    <v>2.7660000000000002E-3</v>
+    <v>60029</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -2437,25 +6237,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>56.76</v>
-    <v>42.82</v>
+    <v>56.12</v>
+    <v>42.15</v>
     <v>BVMF</v>
-    <v>43.8</v>
-    <v>42.82</v>
+    <v>43.18</v>
+    <v>42.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>43.17</v>
-    <v>45601.876400462963</v>
+    <v>42.5</v>
+    <v>45610.879861180467</v>
     <v>9</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>43.2</v>
-    <v>43.8</v>
+    <v>42.51</v>
+    <v>42.39</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>0.63</v>
-    <v>1.4593E-2</v>
-    <v>41245</v>
+    <v>-0.11</v>
+    <v>-2.5879999999999996E-3</v>
+    <v>38083</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -2477,25 +6277,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>46.43</v>
-    <v>32.5</v>
+    <v>45.81</v>
+    <v>30</v>
     <v>BVMF</v>
-    <v>32.83</v>
-    <v>32.53</v>
+    <v>30.43</v>
+    <v>30</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>32.659999999999997</v>
-    <v>45601.875011574077</v>
+    <v>30.3</v>
+    <v>45610.879167071093</v>
     <v>12</v>
     <v>BRL</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
-    <v>32.659999999999997</v>
-    <v>32.83</v>
+    <v>30.3</v>
+    <v>30.25</v>
     <v>DEVA11</v>
     <v>Fundos mais negociados</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
-    <v>0.17</v>
-    <v>5.2049999999999996E-3</v>
-    <v>17399</v>
+    <v>-0.05</v>
+    <v>-1.65E-3</v>
+    <v>32472</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -2518,35 +6318,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>29.1</v>
-    <v>22.49</v>
+    <v>22.78</v>
     <v>BVMF</v>
     <v>5730834000</v>
-    <v>26.29</v>
+    <v>25.79</v>
     <v>1808</v>
-    <v>26.06</v>
-    <v>1.0381</v>
+    <v>24.79</v>
+    <v>1.0386</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>150491700840</v>
+    <v>145391258580</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>26.24</v>
+    <v>25.95</v>
     <v>85953</v>
-    <v>45601.87777777778</v>
+    <v>45610.902766203704</v>
     <v>15</v>
-    <v>14035050</v>
+    <v>13279730</v>
     <v>BRL</v>
     <v>Banco do Brasil S.A.</v>
     <v>Banco do Brasil S.A.</v>
-    <v>26.27</v>
-    <v>26.26</v>
+    <v>25.78</v>
+    <v>25.37</v>
     <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
-    <v>0.02</v>
-    <v>7.6219999999999999E-4</v>
-    <v>13004100</v>
+    <v>-0.57999999999999996</v>
+    <v>-2.2350999999999999E-2</v>
+    <v>80777700</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -2569,24 +6369,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>3.73</v>
-    <v>1.23</v>
+    <v>1.1499999999999999</v>
     <v>BVMF</v>
-    <v>1.34</v>
-    <v>1.3</v>
+    <v>1.22</v>
+    <v>1.1499999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1.3</v>
-    <v>45601.873379629629</v>
+    <v>1.2</v>
+    <v>45610.87500013828</v>
     <v>18</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII CENESP CF</v>
-    <v>1.32</v>
-    <v>1.32</v>
+    <v>1.2</v>
+    <v>1.18</v>
     <v>CNES11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
-    <v>0.02</v>
-    <v>1.5384999999999999E-2</v>
-    <v>36516</v>
+    <v>-0.02</v>
+    <v>-1.6667000000000001E-2</v>
+    <v>272785</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -2609,35 +6409,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>39.86</v>
-    <v>28.86</v>
+    <v>29.2</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>35.6</v>
+    <v>37.33</v>
     <v>1953</v>
-    <v>35.03</v>
-    <v>1.288</v>
+    <v>36.86</v>
+    <v>1.2849999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>484216200000</v>
+    <v>503780500000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>35.5</v>
+    <v>36.880000000000003</v>
     <v>46730</v>
-    <v>45601.87767361111</v>
+    <v>45610.90289351852</v>
     <v>21</v>
-    <v>27421280</v>
+    <v>30301470</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>35.5</v>
-    <v>35.4</v>
+    <v>36.92</v>
+    <v>37.270000000000003</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>-0.1</v>
-    <v>-2.8170000000000001E-3</v>
-    <v>21800200</v>
+    <v>0.39</v>
+    <v>1.0575000000000001E-2</v>
+    <v>30060900</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -2663,32 +6463,32 @@
     <v>55.48</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>63.11</v>
+    <v>57.34</v>
     <v>1943</v>
-    <v>61.96</v>
-    <v>0.62229999999999996</v>
+    <v>56.84</v>
+    <v>0.62839999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>281917786880</v>
+    <v>257997214720</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>62.67</v>
+    <v>57.16</v>
     <v>66807</v>
-    <v>45601.877592592595</v>
+    <v>45610.880409617967</v>
     <v>24</v>
-    <v>17034140</v>
+    <v>23029160</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>62.95</v>
-    <v>62.11</v>
+    <v>57.16</v>
+    <v>56.84</v>
     <v>Torre Oscar Niemeyer, Praia de Botafogo n 186 salas 1901 e outras, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 34.855-000 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>-0.56000000000000005</v>
-    <v>-8.9359999999999995E-3</v>
-    <v>15081700</v>
+    <v>-0.32</v>
+    <v>-5.5979999999999997E-3</v>
+    <v>17927700</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -2714,32 +6514,32 @@
     <v>10.98</v>
     <v>BVMF</v>
     <v>15757660000</v>
-    <v>12.74</v>
+    <v>12.9</v>
     <v>2005</v>
-    <v>12.57</v>
-    <v>0.69469999999999998</v>
+    <v>12.61</v>
+    <v>0.69489999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>199176822400</v>
+    <v>198231300000</v>
     <v>A Ambev SA, anteriormente Inbev Participações Societarias SA, é uma empresa brasileira com sede no setor cervejeiro. A Companhia produz, distribui e vende cerveja, refrigerantes com gás (CSDs) e outras bebidas não alcoólicas e não carbonatadas (NANC) nas Américas. As atividades da Companhia estão divididas em três segmentos: América Latina do Norte, incluindo venda de cerveja, refrigerantes e bebidas NANC no Brasil, além de operações na República Dominicana, São Vicente, Antígua, Dominica, Cuba, Guatemala, El Salvador, Honduras, Nicarágua, Barbados e Panamá; América Latina Sul, distribuindo produtos na Argentina, Bolívia, Paraguai, Uruguai, Chile; e Canadá, representado pelas operações da Labatt, que inclui vendas no Canadá e algumas exportações para o mercado dos EUA. A Companhia comercializa produtos com várias marcas, como Adriatica, Brahma, Leffe, Budweiser, Corona, PepsiCo e Lipton. É uma subsidiária da Interbrew International BV.</v>
     <v>BVMF</v>
-    <v>12.67</v>
+    <v>12.73</v>
     <v>43000</v>
-    <v>45601.87740740741</v>
+    <v>45610.902766203704</v>
     <v>27</v>
-    <v>26795570</v>
+    <v>29476240</v>
     <v>BRL</v>
     <v>Ambev S.A.</v>
     <v>Ambev S.A.</v>
-    <v>12.6</v>
+    <v>12.69</v>
     <v>12.64</v>
     <v>Rua Dr. Renato Paes de Barros, 1.017, 4 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.530-001 BR</v>
     <v>Beverages</v>
     <v>ABEV3</v>
     <v>Ações</v>
     <v>Ambev S.A. (BVMF:ABEV3)</v>
-    <v>-0.03</v>
-    <v>-2.3680000000000003E-3</v>
-    <v>15971300</v>
+    <v>-0.09</v>
+    <v>-7.0699999999999999E-3</v>
+    <v>38009600</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -2762,35 +6562,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>4.1900000000000004</v>
-    <v>2.64</v>
+    <v>2.42</v>
     <v>BVMF</v>
     <v>1358937000</v>
-    <v>2.91</v>
+    <v>2.4900000000000002</v>
     <v>1961</v>
-    <v>2.83</v>
-    <v>1.4059999999999999</v>
+    <v>2.42</v>
+    <v>1.411</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3940917300</v>
+    <v>3288627540</v>
     <v>A Raízen SA, anteriormente conhecida como Raízen Combustiveis SA, é uma empresa com sede no Brasil que atua no setor de energia. As atividades da Empresa são divididas em quatro linhas de negócios: Renováveis, Marketing e Serviços, Proximidade e Açúcar. A divisão Renewables atua na produção de etanol, etanol de segunda geração, bioeletricidade, biogás e bioprodutos. A divisão de Marketing e Serviços está focada na distribuição e venda de combustíveis para postos de gasolina da Shell, aeroportos e outros clientes Business-to-Business (B2B). A divisão Proximity está envolvida na operação de lojas de conveniência sob as marcas OXXO e Shell Select. A divisão Açúcar consiste na produção de açúcar, como cristalino, líquido, refinado, orgânico e Polarização Muito Alta (VHP), entre outros. A empresa atua no Brasil e na Argentina.</v>
     <v>BVMF</v>
-    <v>2.9</v>
+    <v>2.48</v>
     <v>45417</v>
-    <v>45601.876747685186</v>
+    <v>45610.893750000003</v>
     <v>30</v>
-    <v>14070390</v>
+    <v>15962080</v>
     <v>BRL</v>
     <v>Raízen S.A.</v>
     <v>Raízen S.A.</v>
-    <v>2.89</v>
-    <v>2.9</v>
+    <v>2.48</v>
+    <v>2.42</v>
     <v>Avenida Almirante Barroso, n. 81, Sala 32B109 36 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-004 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RAIZ4</v>
     <v>Ações</v>
     <v>Raízen S.A. (BVMF:RAIZ4)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>12931900</v>
+    <v>-0.06</v>
+    <v>-2.4194E-2</v>
+    <v>22251800</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -2815,22 +6615,22 @@
     <v>94.7</v>
     <v>81.709999999999994</v>
     <v>BVMF</v>
-    <v>90.94</v>
-    <v>90.16</v>
+    <v>91.05</v>
+    <v>90.35</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.15</v>
-    <v>45601.875173611108</v>
+    <v>90.67</v>
+    <v>45610.879166793748</v>
     <v>33</v>
     <v>BRL</v>
     <v>KINEA INDICES DE PRECOS FDO INV IMOB CF</v>
-    <v>90.22</v>
-    <v>90.78</v>
+    <v>90.67</v>
+    <v>90.77</v>
     <v>KNIP11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
-    <v>0.63</v>
-    <v>6.9879999999999994E-3</v>
-    <v>86315</v>
+    <v>0.1</v>
+    <v>1.103E-3</v>
+    <v>61115</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -2853,24 +6653,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>158.47999999999999</v>
-    <v>135.12</v>
+    <v>134.29</v>
     <v>BVMF</v>
-    <v>137</v>
-    <v>136.44</v>
+    <v>135.4</v>
+    <v>134.6</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>137</v>
-    <v>45601.877210648148</v>
+    <v>134.61000000000001</v>
+    <v>45610.87500013828</v>
     <v>36</v>
     <v>BRL</v>
     <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF</v>
-    <v>137</v>
-    <v>136.9</v>
+    <v>134.62</v>
+    <v>135.26</v>
     <v>KNRI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF (BVMF:KNRI11)</v>
-    <v>-0.1</v>
-    <v>-7.2990000000000001E-4</v>
-    <v>34504</v>
+    <v>0.65</v>
+    <v>4.829E-3</v>
+    <v>48498</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -2895,22 +6695,22 @@
     <v>161.66</v>
     <v>143.87</v>
     <v>BVMF</v>
-    <v>154.5</v>
-    <v>153.1</v>
+    <v>154.80000000000001</v>
+    <v>152.69999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>153.03</v>
-    <v>45601.877488425926</v>
+    <v>153</v>
+    <v>45610.878472279685</v>
     <v>39</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>153.99</v>
-    <v>153.38</v>
+    <v>152.99</v>
+    <v>154.29</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
-    <v>0.35</v>
-    <v>2.287E-3</v>
-    <v>40823</v>
+    <v>1.29</v>
+    <v>8.4309999999999993E-3</v>
+    <v>52115</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -2933,24 +6733,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>112.78</v>
-    <v>100.18</v>
+    <v>100.3</v>
     <v>BVMF</v>
-    <v>103.98</v>
-    <v>103</v>
+    <v>104.41</v>
+    <v>103.27</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>103.46</v>
-    <v>45601.877326388887</v>
+    <v>103.27</v>
+    <v>45610.879166816405</v>
     <v>42</v>
     <v>BRL</v>
     <v>XP MALLS FDO INV IMOB FII ETF</v>
-    <v>103.6</v>
-    <v>103.52</v>
+    <v>103.27</v>
+    <v>104</v>
     <v>XPML11</v>
     <v>Fundos mais negociados</v>
     <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
-    <v>0.06</v>
-    <v>5.7989999999999995E-4</v>
-    <v>106125</v>
+    <v>0.73</v>
+    <v>7.0689999999999998E-3</v>
+    <v>116745</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -2975,24 +6775,24 @@
     <v>16.91</v>
     <v>10</v>
     <v>BVMF</v>
-    <v>16.7</v>
-    <v>16.5</v>
-    <v>0.9768</v>
+    <v>15.65</v>
+    <v>15.41</v>
+    <v>0.98429999999999995</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>852866523.01999998</v>
-    <v>16.62</v>
-    <v>45601.872071759259</v>
+    <v>15.67</v>
+    <v>45610.886111191408</v>
     <v>45</v>
     <v>BRL</v>
     <v>Trend ETF LBMA Ouro FIInd IE</v>
-    <v>16.63</v>
-    <v>16.55</v>
+    <v>15.55</v>
+    <v>15.61</v>
     <v>GOLD11</v>
     <v>Fundos mais negociados</v>
     <v>Trend ETF LBMA Ouro FIInd IE (BVMF:GOLD11)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-4.2120000000000005E-3</v>
-    <v>1193108</v>
+    <v>-0.06</v>
+    <v>-3.8290000000000004E-3</v>
+    <v>1963011</v>
   </rv>
   <rv s="2">
     <v>46</v>
@@ -3017,24 +6817,24 @@
     <v>139.37</v>
     <v>118.8</v>
     <v>BVMF</v>
-    <v>132.88999999999999</v>
-    <v>132.21</v>
+    <v>129.85</v>
+    <v>128.51</v>
     <v>1.0012000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>1495097041.0699999</v>
-    <v>132.5</v>
-    <v>45601.873668981483</v>
+    <v>129.66</v>
+    <v>45610.886111226566</v>
     <v>48</v>
     <v>BRL</v>
     <v>ETF Bradesco Ibovespa</v>
-    <v>132.51</v>
-    <v>132.69999999999999</v>
+    <v>128.51</v>
+    <v>129.69999999999999</v>
     <v>BOVB11</v>
     <v>Fundos mais negociados</v>
     <v>ETF Bradesco Ibovespa (BVMF:BOVB11)</v>
-    <v>0.2</v>
-    <v>1.5090000000000001E-3</v>
-    <v>897</v>
+    <v>0.04</v>
+    <v>3.0849999999999996E-4</v>
+    <v>1045</v>
   </rv>
   <rv s="2">
     <v>49</v>
@@ -3059,24 +6859,24 @@
     <v>135.33000000000001</v>
     <v>116.13</v>
     <v>BVMF</v>
-    <v>127.84</v>
-    <v>127.84</v>
+    <v>125.33</v>
+    <v>125.33</v>
     <v>0.98380000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>76298870.719999999</v>
-    <v>127.83</v>
-    <v>45601.872395833336</v>
+    <v>125.21</v>
+    <v>45610.893101851849</v>
     <v>51</v>
     <v>BRL</v>
     <v>Caixa ETF Ibovespa FI</v>
-    <v>127.84</v>
-    <v>127.84</v>
+    <v>125.33</v>
+    <v>125.33</v>
     <v>XBOV11</v>
     <v>Fundos mais negociados</v>
     <v>Caixa ETF Ibovespa FI (BVMF:XBOV11)</v>
-    <v>0.01</v>
-    <v>7.8230000000000001E-5</v>
-    <v>1</v>
+    <v>0.12</v>
+    <v>9.5839999999999999E-4</v>
+    <v>10</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -3098,32 +6898,32 @@
     <v>55.48</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>63.11</v>
+    <v>57.72</v>
     <v>1943</v>
-    <v>61.96</v>
-    <v>0.62229999999999996</v>
+    <v>57.11</v>
+    <v>0.62839999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>281781616640</v>
+    <v>259449697279</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>62.67</v>
+    <v>57.32</v>
     <v>66807</v>
-    <v>45601.772188414063</v>
+    <v>45609.947916666664</v>
     <v>24</v>
-    <v>17034140</v>
+    <v>23029160</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>62.95</v>
-    <v>62.08</v>
+    <v>57.32</v>
+    <v>57.16</v>
     <v>Torre Oscar Niemeyer, Praia de Botafogo n 186 salas 1901 e outras, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 34.855-000 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>-0.59</v>
-    <v>-9.4140000000000005E-3</v>
-    <v>10611700</v>
+    <v>-0.16</v>
+    <v>-2.7910000000000001E-3</v>
+    <v>20354900</v>
   </rv>
   <rv s="2">
     <v>54</v>
@@ -3142,24 +6942,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>10.02</v>
-    <v>9.19</v>
+    <v>9.0299999999999994</v>
     <v>BVMF</v>
-    <v>9.35</v>
-    <v>9.27</v>
+    <v>9.24</v>
+    <v>9.0299999999999994</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.27</v>
-    <v>45601.772153587503</v>
+    <v>9.18</v>
+    <v>45609.947916666664</v>
     <v>3</v>
     <v>BRL</v>
     <v>MAXI RENDA FII ETF</v>
-    <v>9.33</v>
-    <v>9.2899999999999991</v>
+    <v>9.1999999999999993</v>
+    <v>9.08</v>
     <v>MXRF11</v>
     <v>Fundos mais negociados</v>
     <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
-    <v>0.02</v>
-    <v>2.1570000000000001E-3</v>
-    <v>1437739</v>
+    <v>-0.1</v>
+    <v>-1.0893E-2</v>
+    <v>2251788</v>
   </rv>
   <rv s="2">
     <v>56</v>
@@ -3178,24 +6978,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>112.78</v>
-    <v>100.18</v>
+    <v>100.3</v>
     <v>BVMF</v>
-    <v>103.98</v>
-    <v>103</v>
+    <v>103.63</v>
+    <v>102.99</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>103.46</v>
-    <v>45601.772126596872</v>
+    <v>102.99</v>
+    <v>45609.947916666664</v>
     <v>42</v>
     <v>BRL</v>
     <v>XP MALLS FDO INV IMOB FII ETF</v>
-    <v>103.6</v>
-    <v>103.28</v>
+    <v>103.1</v>
+    <v>103.27</v>
     <v>XPML11</v>
     <v>Fundos mais negociados</v>
     <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
-    <v>-0.18</v>
-    <v>-1.7399999999999998E-3</v>
-    <v>74297</v>
+    <v>0.28000000000000003</v>
+    <v>2.7189999999999996E-3</v>
+    <v>108577</v>
   </rv>
   <rv s="2">
     <v>58</v>
@@ -3213,25 +7013,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>56.76</v>
-    <v>42.82</v>
+    <v>56.12</v>
+    <v>42.33</v>
     <v>BVMF</v>
-    <v>43.57</v>
-    <v>42.82</v>
+    <v>43.07</v>
+    <v>42.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>43.17</v>
-    <v>45601.772187499999</v>
+    <v>42.8</v>
+    <v>45609.947916666664</v>
     <v>9</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>43.2</v>
-    <v>43.31</v>
+    <v>43.06</v>
+    <v>42.5</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>0.14000000000000001</v>
-    <v>3.2429999999999998E-3</v>
-    <v>33259</v>
+    <v>-0.3</v>
+    <v>-7.0089999999999996E-3</v>
+    <v>29862</v>
   </rv>
   <rv s="2">
     <v>60</v>
@@ -3252,24 +7052,24 @@
     <v>135.33000000000001</v>
     <v>116.13</v>
     <v>BVMF</v>
-    <v>127.83</v>
-    <v>126.29</v>
+    <v>125.21</v>
+    <v>124.63</v>
     <v>0.98380000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>76298870.719999999</v>
-    <v>125.61</v>
-    <v>45600.947916666664</v>
+    <v>125.21</v>
+    <v>45609.947916666664</v>
     <v>51</v>
     <v>BRL</v>
     <v>Caixa ETF Ibovespa FI</v>
-    <v>126.29</v>
-    <v>127.83</v>
+    <v>125.15</v>
+    <v>125.21</v>
     <v>XBOV11</v>
     <v>Fundos mais negociados</v>
     <v>Caixa ETF Ibovespa FI (BVMF:XBOV11)</v>
-    <v>2.2200000000000002</v>
-    <v>1.7674000000000002E-2</v>
-    <v>870</v>
+    <v>0</v>
+    <v>0</v>
+    <v>38</v>
   </rv>
   <rv s="2">
     <v>62</v>
@@ -3291,32 +7091,32 @@
     <v>5.42</v>
     <v>BVMF</v>
     <v>1253079000</v>
-    <v>6.66</v>
+    <v>6.12</v>
     <v>1954</v>
-    <v>6.55</v>
-    <v>1.1354</v>
+    <v>5.97</v>
+    <v>1.1413</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8100526000</v>
+    <v>7469365000</v>
     <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
     <v>BVMF</v>
-    <v>6.56</v>
+    <v>6</v>
     <v>51182</v>
-    <v>45601.772137291409</v>
+    <v>45609.947916666664</v>
     <v>0</v>
-    <v>15435620</v>
+    <v>13408050</v>
     <v>BRL</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
-    <v>6.62</v>
-    <v>6.63</v>
+    <v>6</v>
+    <v>6.09</v>
     <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
     <v>Metals &amp; Mining</v>
     <v>USIM5</v>
     <v>Ações</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.0671E-2</v>
-    <v>3490900</v>
+    <v>0.09</v>
+    <v>1.4999999999999999E-2</v>
+    <v>17476200</v>
   </rv>
   <rv s="2">
     <v>64</v>
@@ -3337,69 +7137,70 @@
     <v>94.7</v>
     <v>81.709999999999994</v>
     <v>BVMF</v>
-    <v>90.49</v>
-    <v>90.16</v>
+    <v>91.3</v>
+    <v>90.41</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.15</v>
-    <v>45601.772152777776</v>
+    <v>90.84</v>
+    <v>45609.947916666664</v>
     <v>33</v>
     <v>BRL</v>
     <v>KINEA INDICES DE PRECOS FDO INV IMOB CF</v>
-    <v>90.22</v>
-    <v>90.4</v>
+    <v>90.8</v>
+    <v>90.67</v>
     <v>KNIP11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INDICES DE PRECOS FDO INV IMOB CF (BVMF:KNIP11)</v>
-    <v>0.25</v>
-    <v>2.7729999999999999E-3</v>
-    <v>56049</v>
+    <v>-0.17</v>
+    <v>-1.8709999999999998E-3</v>
+    <v>72302</v>
   </rv>
   <rv s="2">
     <v>66</v>
   </rv>
-  <rv s="1">
+  <rv s="5">
     <v>pt-BR</v>
     <v>apn4gh</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>0</v>
-    <v>1</v>
+    <v>14</v>
+    <v>15</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
     <v>3</v>
-    <v>4</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>17</v>
     <v>39.86</v>
-    <v>28.86</v>
+    <v>29.2</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>35.6</v>
+    <v>37.07</v>
     <v>1953</v>
-    <v>35.03</v>
-    <v>1.288</v>
+    <v>36.53</v>
+    <v>1.2849999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>484216200000</v>
+    <v>501009200000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>35.5</v>
+    <v>36.93</v>
     <v>46730</v>
-    <v>45601.772152777776</v>
+    <v>45609.947916666664</v>
     <v>21</v>
-    <v>27421280</v>
+    <v>30301470</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>35.5</v>
-    <v>35.33</v>
+    <v>36.950000000000003</v>
+    <v>36.880000000000003</v>
+    <v>36.799999999999997</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>-0.17</v>
-    <v>-4.7889999999999999E-3</v>
-    <v>17330800</v>
+    <v>-0.05</v>
+    <v>-1.354E-3</v>
+    <v>34090000</v>
   </rv>
   <rv s="2">
     <v>68</v>
@@ -3418,35 +7219,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>4.1900000000000004</v>
-    <v>2.64</v>
+    <v>2.48</v>
     <v>BVMF</v>
     <v>1358937000</v>
-    <v>2.91</v>
+    <v>2.64</v>
     <v>1961</v>
-    <v>2.83</v>
-    <v>1.4059999999999999</v>
+    <v>2.48</v>
+    <v>1.411</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3940917300</v>
+    <v>3370163760</v>
     <v>A Raízen SA, anteriormente conhecida como Raízen Combustiveis SA, é uma empresa com sede no Brasil que atua no setor de energia. As atividades da Empresa são divididas em quatro linhas de negócios: Renováveis, Marketing e Serviços, Proximidade e Açúcar. A divisão Renewables atua na produção de etanol, etanol de segunda geração, bioeletricidade, biogás e bioprodutos. A divisão de Marketing e Serviços está focada na distribuição e venda de combustíveis para postos de gasolina da Shell, aeroportos e outros clientes Business-to-Business (B2B). A divisão Proximity está envolvida na operação de lojas de conveniência sob as marcas OXXO e Shell Select. A divisão Açúcar consiste na produção de açúcar, como cristalino, líquido, refinado, orgânico e Polarização Muito Alta (VHP), entre outros. A empresa atua no Brasil e na Argentina.</v>
     <v>BVMF</v>
-    <v>2.9</v>
+    <v>2.65</v>
     <v>45417</v>
-    <v>45601.772092383595</v>
+    <v>45609.947916666664</v>
     <v>30</v>
-    <v>14070390</v>
+    <v>15900490</v>
     <v>BRL</v>
     <v>Raízen S.A.</v>
     <v>Raízen S.A.</v>
-    <v>2.89</v>
-    <v>2.9</v>
+    <v>2.63</v>
+    <v>2.48</v>
     <v>Avenida Almirante Barroso, n. 81, Sala 32B109 36 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.031-004 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RAIZ4</v>
     <v>Ações</v>
     <v>Raízen S.A. (BVMF:RAIZ4)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>8698600</v>
+    <v>-0.17</v>
+    <v>-6.4151E-2</v>
+    <v>35585100</v>
   </rv>
   <rv s="2">
     <v>70</v>
@@ -3467,24 +7268,24 @@
     <v>139.37</v>
     <v>118.8</v>
     <v>BVMF</v>
-    <v>132.69</v>
-    <v>132.21</v>
+    <v>129.82</v>
+    <v>129.66</v>
     <v>1.0012000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>1495097041.0699999</v>
-    <v>132.5</v>
-    <v>45601.772002314814</v>
+    <v>129.62</v>
+    <v>45609.947916666664</v>
     <v>48</v>
     <v>BRL</v>
     <v>ETF Bradesco Ibovespa</v>
-    <v>132.51</v>
-    <v>132.57</v>
+    <v>129.82</v>
+    <v>129.66</v>
     <v>BOVB11</v>
     <v>Fundos mais negociados</v>
     <v>ETF Bradesco Ibovespa (BVMF:BOVB11)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>5.2829999999999999E-4</v>
-    <v>402</v>
+    <v>0.04</v>
+    <v>3.0859999999999997E-4</v>
+    <v>1011</v>
   </rv>
   <rv s="2">
     <v>72</v>
@@ -3503,35 +7304,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>29.1</v>
-    <v>22.49</v>
+    <v>22.77</v>
     <v>BVMF</v>
     <v>5730834000</v>
-    <v>26.29</v>
+    <v>26.07</v>
     <v>1808</v>
-    <v>26.06</v>
-    <v>1.0381</v>
+    <v>25.88</v>
+    <v>1.0386</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>150147850800</v>
+    <v>148715142300</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>26.24</v>
+    <v>25.95</v>
     <v>85953</v>
-    <v>45601.772164351853</v>
+    <v>45609.947916666664</v>
     <v>15</v>
-    <v>14035050</v>
+    <v>13279730</v>
     <v>BRL</v>
     <v>Banco do Brasil S.A.</v>
     <v>Banco do Brasil S.A.</v>
-    <v>26.27</v>
-    <v>26.2</v>
+    <v>25.99</v>
+    <v>25.95</v>
     <v>Saun Quadra 05, Lote B Ed. BB, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>Banco do Brasil S.A. (BVMF:BBAS3)</v>
-    <v>-0.04</v>
-    <v>-1.5240000000000002E-3</v>
-    <v>8461000</v>
+    <v>0</v>
+    <v>0</v>
+    <v>27198100</v>
   </rv>
   <rv s="2">
     <v>74</v>
@@ -3549,25 +7350,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>46.43</v>
-    <v>32.5</v>
+    <v>45.81</v>
+    <v>30</v>
     <v>BVMF</v>
-    <v>32.82</v>
-    <v>32.53</v>
+    <v>30.94</v>
+    <v>30</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>32.659999999999997</v>
-    <v>45601.772152777776</v>
+    <v>30.95</v>
+    <v>45609.947916666664</v>
     <v>12</v>
     <v>BRL</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
-    <v>32.659999999999997</v>
-    <v>32.630000000000003</v>
+    <v>30.7</v>
+    <v>30.3</v>
     <v>DEVA11</v>
     <v>Fundos mais negociados</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
-    <v>-0.03</v>
-    <v>-9.1859999999999999E-4</v>
-    <v>13546</v>
+    <v>-0.65</v>
+    <v>-2.1002E-2</v>
+    <v>38532</v>
   </rv>
   <rv s="2">
     <v>76</v>
@@ -3586,24 +7387,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>8.27</v>
-    <v>7.16</v>
+    <v>7.1</v>
     <v>BVMF</v>
-    <v>7.41</v>
-    <v>7.33</v>
+    <v>7.3</v>
+    <v>7.1</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7.43</v>
-    <v>45601.772117082815</v>
+    <v>7.12</v>
+    <v>45609.947916666664</v>
     <v>6</v>
     <v>BRL</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
-    <v>7.37</v>
-    <v>7.4</v>
+    <v>7.1</v>
+    <v>7.23</v>
     <v>KISU11</v>
     <v>Fundos mais negociados</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
-    <v>-0.03</v>
-    <v>-4.0379999999999999E-3</v>
-    <v>42692</v>
+    <v>0.11</v>
+    <v>1.5448999999999999E-2</v>
+    <v>128200</v>
   </rv>
   <rv s="2">
     <v>78</v>
@@ -3622,32 +7423,32 @@
     <v>Finance</v>
     <v>5</v>
     <v>3.73</v>
-    <v>1.23</v>
+    <v>1.18</v>
     <v>BVMF</v>
-    <v>1.34</v>
-    <v>1.3</v>
+    <v>1.31</v>
+    <v>1.18</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1.3</v>
-    <v>45601.770910312502</v>
+    <v>1.31</v>
+    <v>45609.947916666664</v>
     <v>18</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII CENESP CF</v>
-    <v>1.32</v>
-    <v>1.32</v>
+    <v>1.3</v>
+    <v>1.2</v>
     <v>CNES11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
-    <v>0.02</v>
-    <v>1.5384999999999999E-2</v>
-    <v>30602</v>
+    <v>-0.11</v>
+    <v>-8.3969000000000002E-2</v>
+    <v>301196</v>
   </rv>
   <rv s="2">
     <v>80</v>
   </rv>
-  <rv s="5">
+  <rv s="6">
     <v>0</v>
   </rv>
-  <rv s="6">
+  <rv s="7">
     <v>{DC97B902-0B00-47C8-BEFA-437C2BFE2564}</v>
     <v>0</v>
     <v>13</v>
@@ -3657,7 +7458,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3777,6 +7578,51 @@
     <k n="Variação (%)"/>
     <k n="Volume"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Ações em circulação"/>
+    <k n="Alto"/>
+    <k n="Ano de incorporação"/>
+    <k n="Baixo"/>
+    <k n="Beta"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Capitalização de mercado"/>
+    <k n="Descrição" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Fechamento anterior"/>
+    <k n="Funcionários"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Média de volume"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Preço (Horário prolongado)"/>
+    <k n="Sede" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -3791,7 +7637,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="4">
+  <spbArrays count="5">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3910,8 +7756,53 @@
       <v t="s">%XLUID</v>
       <v t="s">_Display</v>
     </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Preço (Horário prolongado)</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Nome oficial</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Média de volume</v>
+      <v t="s">Capitalização de mercado</v>
+      <v t="s">Beta</v>
+      <v t="s">Ações em circulação</v>
+      <v t="s">Descrição</v>
+      <v t="s">Funcionários</v>
+      <v t="s">Sede</v>
+      <v t="s">Setor</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">Ano de incorporação</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="14">
+  <spbData count="18">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -4084,12 +7975,80 @@
     <spb s="11">
       <v>3</v>
     </spb>
+    <spb s="12">
+      <v>High</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Headquarters</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Industry</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Open</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Employees</v>
+      <v>Official name</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Volume average</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Year incorporated</v>
+      <v>Shares outstanding</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Market cap</v>
+      <v>Last trade time</v>
+      <v>Price (Extended hours)</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="13">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>4</v>
+      <v>1</v>
+      <v>8</v>
+      <v>9</v>
+      <v>1</v>
+    </spb>
+    <spb s="14">
+      <v xml:space="preserve">no fechamento </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v>GMT</v>
+      <v>Atraso de 30 minutos</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="12">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="15">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -4252,6 +8211,69 @@
   <s>
     <k n="^Order" t="spba"/>
   </s>
+  <s>
+    <k n="Alto" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Sede" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Descrição" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Funcionários" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Média de volume" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Ano de incorporação" t="s"/>
+    <k n="Ações em circulação" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Capitalização de mercado" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Funcionários" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="Média de volume" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Ano de incorporação" t="i"/>
+    <k n="Ações em circulação" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Capitalização de mercado" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+    <k n="Preço (Horário prolongado)" t="i"/>
+  </s>
+  <s>
+    <k n="Preço" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
+  </s>
 </spbStructures>
 </file>
 
@@ -4313,19 +8335,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}" name="Tabela1" displayName="Tabela1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A2:G10" xr:uid="{D1B3C1FF-57E5-4955-9BB8-FF6D89179D6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{4F467100-4979-4A10-896A-D7E484BEB975}" name="Pasta" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{74776D16-10E2-49C8-BB51-D1539A6D648A}" name="Data" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{C15E3BD2-8B50-48D5-9143-99A2C32E1992}" name="Tarefa" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{97B4F4E2-913B-4D64-AA6B-A942E2C4D7F6}" name="Gravidade" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{E4F03044-8527-4B68-89F2-4AE0C07FED19}" name="Urgencia" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{FAFC27EE-8DEC-4109-B340-385E897909D3}" name="Tendencia" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{DA6341C4-6EF9-4502-809A-435052FFD8D4}" name="G.U.T" dataDxfId="46">
       <calculatedColumnFormula>D3*E3*F3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4337,11 +8359,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}" name="TBL_Clientes" displayName="TBL_Clientes" ref="B5:F17" totalsRowShown="0">
   <autoFilter ref="B5:F17" xr:uid="{C19D02A9-0BE6-4984-A1CE-1AD7731C66F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{23038E81-44D0-452A-A8D9-0D3CEAC13C8B}" name="Cod_cli" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{894BC177-F0E3-4E5B-B116-57D4460B629A}" name="Nome "/>
-    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="84">
+    <tableColumn id="3" xr3:uid="{948DF251-C979-4887-A731-44B192AA10CB}" name="Dt_Nasc" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{0D85402E-EC3E-4E67-B25F-013F0B9C9383}" name="Sexo" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{7A77DD0A-A662-4E0C-B96A-CA4259DFC73A}" name="Idade" dataDxfId="42">
       <calculatedColumnFormula>(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4353,12 +8375,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}" name="Tabela4" displayName="Tabela4" ref="B5:G10" totalsRowShown="0">
   <autoFilter ref="B5:G10" xr:uid="{F5940C1D-8577-4697-8E1B-15635F9FB156}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{ECC98801-EACC-4E9B-906C-D7B18F171983}" name="Cod_Prod" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{A293641D-B0BA-4BE6-8B27-19907B582309}" name="Descricao"/>
     <tableColumn id="3" xr3:uid="{715ACBE7-D796-468F-B4E9-B8C922438808}" name="Classificacao"/>
-    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="80">
+    <tableColumn id="4" xr3:uid="{AA35D4C4-46B9-4BDF-AA26-50B4C6E8839C}" name="Preco_Compra" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{922B920B-B8E5-4ABF-AAF1-7C2EFEA7AEF4}" name="Preco_venda" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{96EB52B4-A679-4549-9C2F-D57696CC191D}" name="Lucro" dataDxfId="38">
       <calculatedColumnFormula>Tabela4[[#This Row],[Preco_venda]]-Tabela4[[#This Row],[Preco_Compra]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4377,45 +8399,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}" name="tIpo" displayName="tIpo" ref="E2:E9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="E2:E9" xr:uid="{E267B685-7D36-46F9-B738-CDBF4D0BB675}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{89A66B9E-3D51-4A24-ABCE-38F165F38F0A}" name="Tipo" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}" name="Titulo" displayName="Titulo" ref="G2:G20" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}" name="Titulo" displayName="Titulo" ref="G2:G20" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="G2:G20" xr:uid="{8BB6A6C6-0C1A-4CBE-808D-3F90843EB979}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{86479B66-7B9B-4831-8F81-262A0A4E6407}" name="Titulo" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{86479B66-7B9B-4831-8F81-262A0A4E6407}" name="Titulo" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:H16" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}" name="Tabela5" displayName="Tabela5" ref="B2:H16" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B2:H16" xr:uid="{3C38C743-6B5D-4D13-A789-9D9BFAC0E379}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G16">
     <sortCondition descending="1" ref="G2:G16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{125D3CAC-639A-4C75-9F2E-A38ACF9B0C9E}" name="TIPO" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{EA2929FB-C119-41D1-80DB-9D7620BA21C0}" name="RAZÃO SOCIAL" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{BAF330D1-FCFF-48B5-96DC-F6F389D484BB}" name="TICKER" dataDxfId="18">
       <calculatedColumnFormula array="1">_FV(C3,"Símbolo do ticker",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="64">
+    <tableColumn id="4" xr3:uid="{1A83B17D-1755-4282-AA5B-2916DF9967D3}" name="PREÇO" dataDxfId="17">
       <calculatedColumnFormula array="1">_FV(C3,"Preço")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{C1F3360D-55B4-46E9-86BB-04F0D733E20D}" name="COTAS" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{CC9EABBA-17AA-4B50-85AB-8228EA7070BC}" name="VALOR" dataDxfId="15">
       <calculatedColumnFormula>E3*F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{78AA16E8-6C85-42CC-8936-05F69A715AF4}" name="Variação (%)" dataDxfId="61">
+    <tableColumn id="7" xr3:uid="{78AA16E8-6C85-42CC-8936-05F69A715AF4}" name="Variação (%)" dataDxfId="14">
       <calculatedColumnFormula array="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4746,16 +8768,16 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +8824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4859,121 +8881,121 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <f t="shared" ref="B6:B7" si="1">C6/$C$11</f>
+        <f>C6/$C$11</f>
         <v>0.31578947368421051</v>
       </c>
       <c r="C6" s="5">
         <v>3000</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:N7" si="2">C6+(C6*$B$23)</f>
+        <f t="shared" ref="D6:N7" si="1">C6+(C6*$B$23)</f>
         <v>3060</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3121.2</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3183.6239999999998</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3247.29648</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3312.2424096</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3378.487257792</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3446.0570029478399</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3514.9781430067969</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3585.277705866933</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3656.9832599842716</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3730.1229251839572</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" si="1"/>
+        <f>C7/$C$11</f>
         <v>0.15789473684210525</v>
       </c>
       <c r="C7" s="5">
         <v>1500</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1530</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1560.6</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1591.8119999999999</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1623.64824</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1656.1212048</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1689.243628896</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1723.02850147392</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1757.4890715033985</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1792.6388529334665</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1828.4916299921358</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1865.0614625919786</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4992,7 +9014,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5011,7 +9033,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5030,7 +9052,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -5047,52 +9069,52 @@
         <v>9690</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:N11" si="3">SUM(E5:E10)</f>
+        <f t="shared" ref="E11:N11" si="2">SUM(E5:E10)</f>
         <v>9883.8000000000011</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10081.476000000001</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10283.105519999999</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10488.7676304</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10698.542983007999</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10912.513842668161</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11130.764119521522</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11353.379401911954</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11580.446989950193</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11812.055929749198</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -5108,48 +9130,48 @@
         <v>1718.55</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" ref="E13:N13" si="4">D13+(D13*$B$24)</f>
+        <f t="shared" ref="E13:N13" si="3">D13+(D13*$B$24)</f>
         <v>1727.14275</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1735.7784637499999</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1744.45735606875</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1753.1796428490936</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1761.9455410633391</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1770.7552687686557</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1779.609045112499</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1788.5070903380615</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1797.4496257897517</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1806.4368739187005</v>
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5157,7 +9179,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C14" s="11">
-        <f>$C$11*B14</f>
+        <f t="shared" ref="C14:C19" si="4">$C$11*B14</f>
         <v>665.00000000000011</v>
       </c>
       <c r="D14" s="11">
@@ -5206,7 +9228,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -5214,7 +9236,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:C19" si="6">$C$11*B15</f>
+        <f t="shared" si="4"/>
         <v>475</v>
       </c>
       <c r="D15" s="11">
@@ -5263,7 +9285,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5271,7 +9293,7 @@
         <v>0.02</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="D16" s="11">
@@ -5320,7 +9342,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -5328,7 +9350,7 @@
         <v>0.2</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1900</v>
       </c>
       <c r="D17" s="11">
@@ -5377,13 +9399,13 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D18" s="11">
@@ -5432,7 +9454,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -5441,7 +9463,7 @@
         <v>0.52</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4940</v>
       </c>
       <c r="D19" s="11">
@@ -5489,7 +9511,7 @@
         <v>5218.5954135429138</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -5505,48 +9527,48 @@
         <v>4725.3</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" ref="E20:N20" si="7">E11-E19</f>
+        <f t="shared" ref="E20:N20" si="6">E11-E19</f>
         <v>4894.2765000000009</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5067.0048825000003</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5243.5620469124988</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5424.0264399470616</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5608.4780866027968</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5796.9986217809319</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5989.6713225298572</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6186.581140935331</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6387.8147376686866</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6593.4605162062844</v>
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -5562,48 +9584,48 @@
         <v>-20714.7</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" ref="E21:N21" si="8">D21+E20</f>
+        <f t="shared" ref="E21:N21" si="7">D21+E20</f>
         <v>-15820.423500000001</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-10753.4186175</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5509.8565705875008</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-85.830130640439165</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5522.6479559623576</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11319.64657774329</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17309.317900273149</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>23495.899041208479</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>29883.713778877165</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36477.174295083452</v>
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -5611,7 +9633,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -5623,6 +9645,438 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B1A891-CB56-4523-8CF2-B0953B90D3C8}">
+  <dimension ref="B2:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="55">
+        <v>4018.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="55">
+        <v>3531.8599999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1399.56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="55">
+        <v>8949.82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="55">
+        <v>857.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="55">
+        <v>835.36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="55">
+        <v>826.16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="55">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="55">
+        <v>751.26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="55">
+        <v>737.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="55">
+        <v>725.36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="55">
+        <v>700.35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="55">
+        <v>648.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="55">
+        <v>648.29999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="55">
+        <v>587.76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="55">
+        <v>454.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="55">
+        <v>390.42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="55">
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="55">
+        <v>8949.82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.5448999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.5448999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2.7189999999999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2.7189999999999996E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3.0859999999999997E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3.0859999999999997E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-1.354E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-1.354E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-1.8709999999999998E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-1.8709999999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-2.7910000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="8">
+        <v>-2.7910000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="8">
+        <v>-7.0089999999999996E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="8">
+        <v>-7.0089999999999996E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="8">
+        <v>-1.0893E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="8">
+        <v>-1.0893E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="8">
+        <v>-2.1002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-2.1002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="8">
+        <v>-6.4151E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="8">
+        <v>-6.4151E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="8">
+        <v>-8.3969000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="8">
+        <v>-8.3969000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="8">
+        <v>-0.15956339999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5634,7 +10088,7 @@
       <selection sqref="A1:S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5644,18 +10098,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1064929-C98C-407E-96FB-AB05E75DD443}">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
@@ -5678,7 +10132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -5702,7 +10156,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -5724,7 +10178,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -5746,7 +10200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -5768,7 +10222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -5790,7 +10244,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -5812,7 +10266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -5834,7 +10288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -5876,35 +10330,35 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="3.33203125" customWidth="1"/>
     <col min="20" max="27" width="3" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
@@ -5916,48 +10370,48 @@
       <c r="R1" s="26"/>
       <c r="S1" s="26"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="69" t="s">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="69" t="s">
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="73"/>
       <c r="AC2" s="28"/>
       <c r="AD2" s="29"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
@@ -6051,10 +10505,10 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>123456</v>
       </c>
@@ -6138,7 +10592,7 @@
       <c r="AC4" s="41"/>
       <c r="AD4" s="36"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>124563</v>
       </c>
@@ -6154,7 +10608,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="35">
-        <f t="shared" ref="F5:F7" si="1">IF(OR(D5="",E5=""),(D5+E5)/2,AVERAGE(D5,E5))</f>
+        <f>IF(OR(D5="",E5=""),(D5+E5)/2,AVERAGE(D5,E5))</f>
         <v>3</v>
       </c>
       <c r="G5" s="35">
@@ -6162,11 +10616,11 @@
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="37">
-        <f t="shared" ref="I5:I7" si="2">IF(C5&gt;20,"RF",IF(OR(F5="",G5=""),"",IF(H5="",FLOOR(AVERAGE(F5,G5),0.5),AVERAGE(H5,LARGE(F5:G5,1)))))</f>
+        <f>IF(C5&gt;20,"RF",IF(OR(F5="",G5=""),"",IF(H5="",FLOOR(AVERAGE(F5,G5),0.5),AVERAGE(H5,LARGE(F5:G5,1)))))</f>
         <v>4.5</v>
       </c>
       <c r="J5" s="33" t="str">
-        <f t="shared" ref="J5:J7" si="3">IF(C5&gt;20,"Reprovado F",IF(I5&lt;6,"Reprovado ","Aprovado"))</f>
+        <f>IF(C5&gt;20,"Reprovado F",IF(I5&lt;6,"Reprovado ","Aprovado"))</f>
         <v xml:space="preserve">Reprovado </v>
       </c>
       <c r="K5" s="26"/>
@@ -6221,7 +10675,7 @@
       <c r="AC5" s="41"/>
       <c r="AD5" s="36"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>125436</v>
       </c>
@@ -6239,7 +10693,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(OR(D6="",E6=""),(D6+E6)/2,AVERAGE(D6,E6))</f>
         <v>4.5</v>
       </c>
       <c r="G6" s="35">
@@ -6249,11 +10703,11 @@
         <v>9</v>
       </c>
       <c r="I6" s="37">
-        <f t="shared" si="2"/>
+        <f>IF(C6&gt;20,"RF",IF(OR(F6="",G6=""),"",IF(H6="",FLOOR(AVERAGE(F6,G6),0.5),AVERAGE(H6,LARGE(F6:G6,1)))))</f>
         <v>7.5</v>
       </c>
       <c r="J6" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C6&gt;20,"Reprovado F",IF(I6&lt;6,"Reprovado ","Aprovado"))</f>
         <v>Aprovado</v>
       </c>
       <c r="K6" s="26"/>
@@ -6308,7 +10762,7 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="36"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>126354</v>
       </c>
@@ -6326,7 +10780,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(OR(D7="",E7=""),(D7+E7)/2,AVERAGE(D7,E7))</f>
         <v>10</v>
       </c>
       <c r="G7" s="35">
@@ -6334,11 +10788,11 @@
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="37">
-        <f t="shared" si="2"/>
+        <f>IF(C7&gt;20,"RF",IF(OR(F7="",G7=""),"",IF(H7="",FLOOR(AVERAGE(F7,G7),0.5),AVERAGE(H7,LARGE(F7:G7,1)))))</f>
         <v>9.5</v>
       </c>
       <c r="J7" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C7&gt;20,"Reprovado F",IF(I7&lt;6,"Reprovado ","Aprovado"))</f>
         <v>Aprovado</v>
       </c>
       <c r="K7" s="26"/>
@@ -6393,7 +10847,7 @@
       <c r="AC7" s="42"/>
       <c r="AD7" s="36"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -6416,7 +10870,7 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="36"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -6437,7 +10891,7 @@
       <c r="AC9" s="41"/>
       <c r="AD9" s="36"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -6455,7 +10909,7 @@
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -6473,7 +10927,7 @@
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -6492,7 +10946,7 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -6511,7 +10965,7 @@
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -6530,7 +10984,7 @@
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -6549,7 +11003,7 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="43"/>
       <c r="C16" s="26"/>
@@ -6570,7 +11024,7 @@
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -6591,7 +11045,7 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -6618,12 +11072,12 @@
     <mergeCell ref="X2:AA2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:I7">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6639,12 +11093,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>62</v>
       </c>
@@ -6694,7 +11148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>63</v>
       </c>
@@ -6759,7 +11213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="str">
         <f>IF(AND(VALUE(MID(A2,10,1))=R2,VALUE(MID(A2,11,1))=R3),"Válido","Inválido")</f>
         <v>Válido</v>
@@ -6818,7 +11272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" s="54">
         <f>C2*(12-C1)</f>
         <v>22</v>
@@ -6860,7 +11314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>62</v>
       </c>
@@ -6910,7 +11364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>111</v>
       </c>
@@ -6975,7 +11429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="str">
         <f>IF(AND(VALUE(MID(A7,10,1))=R7,VALUE(MID(A7,11,1))=R8),"Válido","Inválido")</f>
         <v>Válido</v>
@@ -7034,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" s="54">
         <f>C7*(12-C6)</f>
         <v>44</v>
@@ -7076,7 +11530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>62</v>
       </c>
@@ -7126,7 +11580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>112</v>
       </c>
@@ -7191,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="str">
         <f>IF(AND(VALUE(MID(A12,10,1))=R12,VALUE(MID(A12,11,1))=R13),"Válido","Inválido")</f>
         <v>Válido</v>
@@ -7250,7 +11704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" s="54">
         <f>C12*(12-C11)</f>
         <v>33</v>
@@ -7294,15 +11748,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3 A8 A13">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Inválido">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Inválido">
       <formula>NOT(ISERROR(SEARCH("Inválido",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Válido">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Válido">
       <formula>NOT(ISERROR(SEARCH("Válido",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="&quot;Válido&quot;">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="&quot;Válido&quot;">
       <formula>NOT(ISERROR(SEARCH("""Válido""",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7314,18 +11768,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D6AA87-C3B1-4FF7-8646-6E57AE747502}">
   <dimension ref="B5:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="174" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>64</v>
       </c>
@@ -7342,7 +11796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -7357,10 +11811,10 @@
       </c>
       <c r="F6">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>33.649342572337972</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33.674479900012862</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="45" t="s">
         <v>72</v>
       </c>
@@ -7375,10 +11829,10 @@
       </c>
       <c r="F7">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>22.185453683449083</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>22.21059101112397</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
         <v>73</v>
       </c>
@@ -7397,7 +11851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="45" t="s">
         <v>76</v>
       </c>
@@ -7409,10 +11863,10 @@
       </c>
       <c r="F9">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="45" t="s">
         <v>77</v>
       </c>
@@ -7424,10 +11878,10 @@
       </c>
       <c r="F10">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
         <v>78</v>
       </c>
@@ -7439,10 +11893,10 @@
       </c>
       <c r="F11">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
         <v>79</v>
       </c>
@@ -7454,10 +11908,10 @@
       </c>
       <c r="F12">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="45" t="s">
         <v>80</v>
       </c>
@@ -7469,10 +11923,10 @@
       </c>
       <c r="F13">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
         <v>81</v>
       </c>
@@ -7484,10 +11938,10 @@
       </c>
       <c r="F14">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="45" t="s">
         <v>82</v>
       </c>
@@ -7499,10 +11953,10 @@
       </c>
       <c r="F15">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
         <v>132</v>
       </c>
@@ -7514,10 +11968,10 @@
       </c>
       <c r="F16">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126.69670212223508</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>133</v>
       </c>
@@ -7529,7 +11983,7 @@
       </c>
       <c r="F17">
         <f ca="1">(NOW()-TBL_Clientes[[#This Row],[Dt_Nasc]])/360</f>
-        <v>126.6715647945602</v>
+        <v>126.69670212223508</v>
       </c>
     </row>
   </sheetData>
@@ -7554,16 +12008,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -7583,7 +12037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -7604,7 +12058,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="45" t="s">
         <v>72</v>
       </c>
@@ -7625,7 +12079,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
         <v>73</v>
       </c>
@@ -7636,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="45" t="s">
         <v>76</v>
       </c>
@@ -7647,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="45" t="s">
         <v>77</v>
       </c>
@@ -7680,14 +12134,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>67</v>
       </c>
@@ -7698,7 +12152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E3" s="15" t="s">
         <v>119</v>
       </c>
@@ -7706,7 +12160,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -7717,7 +12171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -7728,7 +12182,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E6" s="15" t="s">
         <v>136</v>
       </c>
@@ -7736,7 +12190,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
@@ -7747,7 +12201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="E8" s="15" t="s">
         <v>138</v>
@@ -7756,7 +12210,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
@@ -7767,7 +12221,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>100</v>
       </c>
@@ -7775,7 +12229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>101</v>
       </c>
@@ -7783,7 +12237,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
@@ -7791,7 +12245,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>103</v>
       </c>
@@ -7799,7 +12253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
@@ -7807,7 +12261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
@@ -7815,28 +12269,28 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G16" s="62" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="62" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="73" t="e" vm="16">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="62" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="73" t="e" vm="17">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="62" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="73" t="e" vm="18">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="62" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7854,41 +12308,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919BCED-8FA9-40B2-88B4-47252BB8367C}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="9" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
     <col min="39" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
@@ -7916,14 +12371,14 @@
       <c r="K2" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="74" t="s">
         <v>131</v>
       </c>
       <c r="M2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>120</v>
       </c>
@@ -7936,33 +12391,33 @@
       </c>
       <c r="E3" s="55" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_FV(C3,"Preço")</f>
-        <v>62.11</v>
+        <v>56.84</v>
       </c>
       <c r="F3" s="15">
         <v>15</v>
       </c>
       <c r="G3" s="55">
-        <f ca="1">E3*F3</f>
-        <v>931.65</v>
-      </c>
-      <c r="H3" s="75" cm="1">
+        <f t="shared" ref="G3:G16" ca="1" si="0">E3*F3</f>
+        <v>852.6</v>
+      </c>
+      <c r="H3" s="64" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>-8.9359999999999995E-3</v>
+        <v>-5.5979999999999997E-3</v>
       </c>
       <c r="J3" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="74">
-        <v>-5.0560000000000006E-3</v>
-      </c>
-      <c r="L3" s="72">
+      <c r="K3" s="63">
+        <v>-5.3295999999999996E-2</v>
+      </c>
+      <c r="L3" s="75">
         <v>412</v>
       </c>
-      <c r="M3" s="76">
-        <v>3742.5499999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="65">
+        <v>3531.8599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>119</v>
       </c>
@@ -7975,33 +12430,33 @@
       </c>
       <c r="E4" s="55" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_FV(C4,"Preço")</f>
-        <v>9.31</v>
+        <v>9.14</v>
       </c>
       <c r="F4" s="15">
         <v>92</v>
       </c>
       <c r="G4" s="55">
-        <f ca="1">E4*F4</f>
-        <v>856.5200000000001</v>
-      </c>
-      <c r="H4" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>840.88000000000011</v>
+      </c>
+      <c r="H4" s="63" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>4.3150000000000003E-3</v>
+        <v>6.6080000000000002E-3</v>
       </c>
       <c r="J4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="74">
-        <v>-1.5240000000000002E-3</v>
-      </c>
-      <c r="L4" s="72">
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
+      <c r="L4" s="75">
         <v>25</v>
       </c>
-      <c r="M4" s="76">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="65">
+        <v>648.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>119</v>
       </c>
@@ -8014,33 +12469,33 @@
       </c>
       <c r="E5" s="55" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_FV(C5,"Preço")</f>
-        <v>103.52</v>
+        <v>104</v>
       </c>
       <c r="F5" s="15">
         <v>8</v>
       </c>
       <c r="G5" s="55">
-        <f ca="1">E5*F5</f>
-        <v>828.16</v>
-      </c>
-      <c r="H5" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="H5" s="63" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>5.7989999999999995E-4</v>
+        <v>7.0689999999999998E-3</v>
       </c>
       <c r="J5" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="74">
-        <v>-4.7889999999999999E-3</v>
-      </c>
-      <c r="L5" s="72">
+      <c r="K5" s="63">
+        <v>-1.354E-3</v>
+      </c>
+      <c r="L5" s="75">
         <v>20</v>
       </c>
-      <c r="M5" s="76">
-        <v>706.59999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="65">
+        <v>737.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>119</v>
       </c>
@@ -8053,33 +12508,33 @@
       </c>
       <c r="E6" s="55" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_FV(C6,"Preço")</f>
-        <v>43.8</v>
+        <v>42.39</v>
       </c>
       <c r="F6" s="15">
         <v>18</v>
       </c>
       <c r="G6" s="55">
-        <f ca="1">E6*F6</f>
-        <v>788.4</v>
-      </c>
-      <c r="H6" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>763.02</v>
+      </c>
+      <c r="H6" s="63" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>1.4593E-2</v>
+        <v>-2.5879999999999996E-3</v>
       </c>
       <c r="J6" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="74">
-        <v>1.0671E-2</v>
-      </c>
-      <c r="L6" s="72">
+      <c r="K6" s="63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L6" s="75">
         <v>115</v>
       </c>
-      <c r="M6" s="76">
-        <v>762.44999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="65">
+        <v>700.35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>135</v>
       </c>
@@ -8092,33 +12547,33 @@
       </c>
       <c r="E7" s="55" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_FV(C7,"Preço")</f>
-        <v>127.84</v>
+        <v>125.33</v>
       </c>
       <c r="F7" s="15">
         <v>6</v>
       </c>
       <c r="G7" s="55">
-        <f ca="1">E7*F7</f>
-        <v>767.04</v>
-      </c>
-      <c r="H7" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>751.98</v>
+      </c>
+      <c r="H7" s="63" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>7.8230000000000001E-5</v>
+        <v>9.5839999999999999E-4</v>
       </c>
       <c r="J7" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="74">
-        <v>-9.4140000000000005E-3</v>
-      </c>
-      <c r="L7" s="72">
+      <c r="K7" s="63">
+        <v>-2.7910000000000001E-3</v>
+      </c>
+      <c r="L7" s="75">
         <v>15</v>
       </c>
-      <c r="M7" s="76">
-        <v>931.19999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="65">
+        <v>857.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>120</v>
       </c>
@@ -8131,33 +12586,33 @@
       </c>
       <c r="E8" s="55" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_FV(C8,"Preço")</f>
-        <v>6.65</v>
+        <v>6.1</v>
       </c>
       <c r="F8" s="15">
         <v>115</v>
       </c>
       <c r="G8" s="55">
-        <f ca="1">E8*F8</f>
-        <v>764.75</v>
-      </c>
-      <c r="H8" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>701.5</v>
+      </c>
+      <c r="H8" s="63" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>1.3720000000000001E-2</v>
+        <v>1.6420000000000002E-3</v>
       </c>
       <c r="J8" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="74">
-        <v>0</v>
-      </c>
-      <c r="L8" s="72">
+      <c r="K8" s="63">
+        <v>-6.4151E-2</v>
+      </c>
+      <c r="L8" s="75">
         <v>237</v>
       </c>
-      <c r="M8" s="76">
-        <v>687.3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="65">
+        <v>587.76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>119</v>
       </c>
@@ -8170,33 +12625,33 @@
       </c>
       <c r="E9" s="55" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_FV(C9,"Preço")</f>
-        <v>90.78</v>
+        <v>90.77</v>
       </c>
       <c r="F9" s="15">
         <v>8</v>
       </c>
       <c r="G9" s="55">
-        <f ca="1">E9*F9</f>
-        <v>726.24</v>
-      </c>
-      <c r="H9" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>726.16</v>
+      </c>
+      <c r="H9" s="63" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>6.9879999999999994E-3</v>
+        <v>1.103E-3</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="74">
-        <v>1.6861400000000002E-2</v>
-      </c>
-      <c r="L9" s="72">
+      <c r="K9" s="63">
+        <v>-0.10657599999999999</v>
+      </c>
+      <c r="L9" s="75">
         <v>213</v>
       </c>
-      <c r="M9" s="76">
-        <v>4096.51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="65">
+        <v>4018.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>120</v>
       </c>
@@ -8209,33 +12664,33 @@
       </c>
       <c r="E10" s="55" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">_FV(C10,"Preço")</f>
-        <v>35.4</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="F10" s="15">
         <v>20</v>
       </c>
       <c r="G10" s="55">
-        <f ca="1">E10*F10</f>
-        <v>708</v>
-      </c>
-      <c r="H10" s="75" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>745.40000000000009</v>
+      </c>
+      <c r="H10" s="64" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>-2.8170000000000001E-3</v>
+        <v>1.0575000000000001E-2</v>
       </c>
       <c r="J10" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="74">
-        <v>3.2429999999999998E-3</v>
-      </c>
-      <c r="L10" s="72">
+      <c r="K10" s="63">
+        <v>-7.0089999999999996E-3</v>
+      </c>
+      <c r="L10" s="75">
         <v>18</v>
       </c>
-      <c r="M10" s="76">
-        <v>779.58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="65">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>120</v>
       </c>
@@ -8248,33 +12703,33 @@
       </c>
       <c r="E11" s="55" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_FV(C11,"Preço")</f>
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="F11" s="15">
         <v>237</v>
       </c>
       <c r="G11" s="55">
-        <f ca="1">E11*F11</f>
-        <v>687.3</v>
-      </c>
-      <c r="H11" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>573.54</v>
+      </c>
+      <c r="H11" s="63" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>0</v>
+        <v>-2.4194E-2</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="74">
-        <v>1.5384999999999999E-2</v>
-      </c>
-      <c r="L11" s="72">
+      <c r="K11" s="63">
+        <v>-8.3969000000000002E-2</v>
+      </c>
+      <c r="L11" s="75">
         <v>18</v>
       </c>
-      <c r="M11" s="76">
-        <v>23.76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="65">
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>135</v>
       </c>
@@ -8287,33 +12742,33 @@
       </c>
       <c r="E12" s="55" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_FV(C12,"Preço")</f>
-        <v>132.69999999999999</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="F12" s="15">
         <v>5</v>
       </c>
       <c r="G12" s="55">
-        <f ca="1">E12*F12</f>
-        <v>663.5</v>
-      </c>
-      <c r="H12" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>648.5</v>
+      </c>
+      <c r="H12" s="63" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>1.5090000000000001E-3</v>
+        <v>3.0849999999999996E-4</v>
       </c>
       <c r="J12" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="74">
-        <v>-9.1859999999999999E-4</v>
-      </c>
-      <c r="L12" s="72">
+      <c r="K12" s="63">
+        <v>-2.1002E-2</v>
+      </c>
+      <c r="L12" s="75">
         <v>15</v>
       </c>
-      <c r="M12" s="76">
-        <v>489.45000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="65">
+        <v>454.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>120</v>
       </c>
@@ -8326,33 +12781,33 @@
       </c>
       <c r="E13" s="55" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">_FV(C13,"Preço")</f>
-        <v>26.26</v>
+        <v>25.37</v>
       </c>
       <c r="F13" s="15">
         <v>25</v>
       </c>
       <c r="G13" s="55">
-        <f ca="1">E13*F13</f>
-        <v>656.5</v>
-      </c>
-      <c r="H13" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>634.25</v>
+      </c>
+      <c r="H13" s="63" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>7.6219999999999999E-4</v>
+        <v>-2.2350999999999999E-2</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="74">
-        <v>-4.0379999999999999E-3</v>
-      </c>
-      <c r="L13" s="72">
+      <c r="K13" s="63">
+        <v>1.5448999999999999E-2</v>
+      </c>
+      <c r="L13" s="75">
         <v>54</v>
       </c>
-      <c r="M13" s="76">
-        <v>399.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="65">
+        <v>390.42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>119</v>
       </c>
@@ -8365,33 +12820,33 @@
       </c>
       <c r="E14" s="55" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_FV(C14,"Preço")</f>
-        <v>32.83</v>
+        <v>30.25</v>
       </c>
       <c r="F14" s="15">
         <v>15</v>
       </c>
       <c r="G14" s="55">
-        <f ca="1">E14*F14</f>
-        <v>492.45</v>
-      </c>
-      <c r="H14" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>453.75</v>
+      </c>
+      <c r="H14" s="63" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>5.2049999999999996E-3</v>
+        <v>-1.65E-3</v>
       </c>
       <c r="J14" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="74">
-        <v>2.7729999999999999E-3</v>
-      </c>
-      <c r="L14" s="72">
+      <c r="K14" s="63">
+        <v>-1.8709999999999998E-3</v>
+      </c>
+      <c r="L14" s="75">
         <v>8</v>
       </c>
-      <c r="M14" s="76">
-        <v>723.2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="65">
+        <v>725.36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>119</v>
       </c>
@@ -8404,33 +12859,33 @@
       </c>
       <c r="E15" s="55" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">_FV(C15,"Preço")</f>
-        <v>7.36</v>
+        <v>7.25</v>
       </c>
       <c r="F15" s="15">
         <v>54</v>
       </c>
       <c r="G15" s="55">
-        <f ca="1">E15*F15</f>
-        <v>397.44</v>
-      </c>
-      <c r="H15" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>391.5</v>
+      </c>
+      <c r="H15" s="63" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>-9.4210000000000006E-3</v>
+        <v>2.7660000000000002E-3</v>
       </c>
       <c r="J15" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="74">
-        <v>2.1570000000000001E-3</v>
-      </c>
-      <c r="L15" s="72">
+      <c r="K15" s="63">
+        <v>-1.0893E-2</v>
+      </c>
+      <c r="L15" s="75">
         <v>92</v>
       </c>
-      <c r="M15" s="76">
-        <v>854.68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="65">
+        <v>835.36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>119</v>
       </c>
@@ -8443,86 +12898,86 @@
       </c>
       <c r="E16" s="55" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">_FV(C16,"Preço")</f>
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="F16" s="15">
         <v>18</v>
       </c>
       <c r="G16" s="55">
-        <f ca="1">E16*F16</f>
-        <v>23.76</v>
-      </c>
-      <c r="H16" s="74" cm="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.24</v>
+      </c>
+      <c r="H16" s="63" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">_FV(Tabela5[[#This Row],[RAZÃO SOCIAL]],"Variação (%)",TRUE)</f>
-        <v>1.5384999999999999E-2</v>
+        <v>-1.6667000000000001E-2</v>
       </c>
       <c r="J16" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="74">
-        <v>-1.7399999999999998E-3</v>
-      </c>
-      <c r="L16" s="72">
+      <c r="K16" s="63">
+        <v>2.7189999999999996E-3</v>
+      </c>
+      <c r="L16" s="75">
         <v>8</v>
       </c>
-      <c r="M16" s="76">
-        <v>826.24</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="65">
+        <v>826.16</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="74">
-        <v>1.8202300000000001E-2</v>
-      </c>
-      <c r="L17" s="72">
+      <c r="K17" s="63">
+        <v>3.0859999999999997E-4</v>
+      </c>
+      <c r="L17" s="75">
         <v>11</v>
       </c>
-      <c r="M17" s="76">
-        <v>1429.83</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="65">
+        <v>1399.56</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J18" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="74">
-        <v>5.2829999999999999E-4</v>
-      </c>
-      <c r="L18" s="72">
+      <c r="K18" s="63">
+        <v>3.0859999999999997E-4</v>
+      </c>
+      <c r="L18" s="75">
         <v>5</v>
       </c>
-      <c r="M18" s="76">
-        <v>662.84999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="65">
+        <v>648.29999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J19" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K19" s="74">
-        <v>1.7674000000000002E-2</v>
-      </c>
-      <c r="L19" s="72">
+      <c r="K19" s="63">
+        <v>0</v>
+      </c>
+      <c r="L19" s="75">
         <v>6</v>
       </c>
-      <c r="M19" s="76">
-        <v>766.98</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="65">
+        <v>751.26</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J20" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="74">
-        <v>3.0007700000000002E-2</v>
-      </c>
-      <c r="L20" s="72">
+      <c r="K20" s="63">
+        <v>-0.15956340000000005</v>
+      </c>
+      <c r="L20" s="75">
         <v>636</v>
       </c>
-      <c r="M20" s="76">
-        <v>9268.89</v>
+      <c r="M20" s="65">
+        <v>8949.82</v>
       </c>
     </row>
   </sheetData>
